--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="6690" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22260" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="306">
   <si>
     <t>TCID</t>
   </si>
@@ -927,6 +928,12 @@
   </si>
   <si>
     <t>Plumbing - Pay by credit card</t>
+  </si>
+  <si>
+    <t>filing_review_type_8085</t>
+  </si>
+  <si>
+    <t>Standard Plan Examination or Review</t>
   </si>
 </sst>
 </file>
@@ -2773,11 +2780,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO233"/>
+  <dimension ref="A1:CX233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -5755,7 +5762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="33" spans="1:94" s="5" customFormat="1" ht="38.25">
       <c r="A33" s="27" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:93" s="8" customFormat="1">
+    <row r="35" spans="1:94" s="8" customFormat="1">
       <c r="A35" s="37" t="s">
         <v>143</v>
       </c>
@@ -5981,7 +5988,7 @@
       <c r="BP35" s="7"/>
       <c r="BQ35" s="7"/>
     </row>
-    <row r="36" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="36" spans="1:94" s="9" customFormat="1" ht="38.25">
       <c r="A36" s="15" t="s">
         <v>2</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="37" spans="1:94" s="5" customFormat="1" ht="38.25">
       <c r="A37" s="27" t="s">
         <v>3</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:93" s="8" customFormat="1">
+    <row r="39" spans="1:94" s="8" customFormat="1">
       <c r="A39" s="37" t="s">
         <v>120</v>
       </c>
@@ -6484,7 +6491,7 @@
       <c r="BP39" s="7"/>
       <c r="BQ39" s="7"/>
     </row>
-    <row r="40" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="40" spans="1:94" s="9" customFormat="1" ht="38.25">
       <c r="A40" s="15" t="s">
         <v>2</v>
       </c>
@@ -6760,8 +6767,11 @@
       <c r="CO40" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="CP40" s="13" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="41" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="41" spans="1:94" s="5" customFormat="1" ht="38.25">
       <c r="A41" s="27" t="s">
         <v>3</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>159</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>242</v>
@@ -6933,8 +6943,11 @@
       <c r="BQ41" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="CP41" s="21" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="43" spans="1:93" s="8" customFormat="1">
+    <row r="43" spans="1:94" s="8" customFormat="1">
       <c r="A43" s="37" t="s">
         <v>149</v>
       </c>
@@ -6987,7 +7000,7 @@
       <c r="BP43" s="7"/>
       <c r="BQ43" s="7"/>
     </row>
-    <row r="44" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="44" spans="1:94" s="9" customFormat="1" ht="38.25">
       <c r="A44" s="15" t="s">
         <v>2</v>
       </c>
@@ -7263,8 +7276,9 @@
       <c r="CO44" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="CP44" s="13"/>
     </row>
-    <row r="45" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="45" spans="1:94" s="5" customFormat="1" ht="38.25">
       <c r="A45" s="27" t="s">
         <v>3</v>
       </c>
@@ -7436,8 +7450,9 @@
       <c r="BQ45" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="CP45" s="13"/>
     </row>
-    <row r="47" spans="1:93" s="8" customFormat="1">
+    <row r="47" spans="1:94" s="8" customFormat="1">
       <c r="A47" s="37" t="s">
         <v>283</v>
       </c>
@@ -7490,7 +7505,7 @@
       <c r="BP47" s="7"/>
       <c r="BQ47" s="7"/>
     </row>
-    <row r="48" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="48" spans="1:94" s="9" customFormat="1" ht="38.25">
       <c r="A48" s="15" t="s">
         <v>2</v>
       </c>
@@ -22624,10 +22639,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:93">
+    <row r="168" spans="1:93" ht="409.6">
       <c r="E168" s="30"/>
     </row>
-    <row r="169" spans="1:93" s="8" customFormat="1">
+    <row r="169" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A169" s="37" t="s">
         <v>207</v>
       </c>
@@ -23130,10 +23145,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:93">
+    <row r="172" spans="1:93" ht="409.6">
       <c r="E172" s="30"/>
     </row>
-    <row r="173" spans="1:93" s="8" customFormat="1">
+    <row r="173" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A173" s="37" t="s">
         <v>175</v>
       </c>
@@ -23636,10 +23651,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:93">
+    <row r="176" spans="1:93" ht="409.6">
       <c r="E176" s="30"/>
     </row>
-    <row r="177" spans="1:93" s="8" customFormat="1">
+    <row r="177" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A177" s="37" t="s">
         <v>201</v>
       </c>
@@ -24142,10 +24157,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:93">
+    <row r="180" spans="1:93" ht="409.6">
       <c r="E180" s="30"/>
     </row>
-    <row r="181" spans="1:93" s="8" customFormat="1">
+    <row r="181" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A181" s="37" t="s">
         <v>235</v>
       </c>
@@ -24648,10 +24663,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:93">
+    <row r="184" spans="1:93" ht="409.6">
       <c r="E184" s="30"/>
     </row>
-    <row r="185" spans="1:93" s="8" customFormat="1">
+    <row r="185" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A185" s="37" t="s">
         <v>237</v>
       </c>
@@ -25154,10 +25169,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:93">
+    <row r="188" spans="1:93" ht="409.6">
       <c r="E188" s="30"/>
     </row>
-    <row r="189" spans="1:93" s="8" customFormat="1">
+    <row r="189" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A189" s="37" t="s">
         <v>233</v>
       </c>
@@ -25660,10 +25675,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:93">
+    <row r="192" spans="1:93" ht="409.6">
       <c r="E192" s="30"/>
     </row>
-    <row r="193" spans="1:93" s="8" customFormat="1">
+    <row r="193" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A193" s="37" t="s">
         <v>239</v>
       </c>
@@ -26166,10 +26181,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:93">
+    <row r="196" spans="1:93" ht="409.6">
       <c r="E196" s="30"/>
     </row>
-    <row r="197" spans="1:93" s="8" customFormat="1">
+    <row r="197" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A197" s="37" t="s">
         <v>172</v>
       </c>
@@ -26674,10 +26689,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:93">
+    <row r="200" spans="1:93" ht="409.6">
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:93" s="8" customFormat="1">
+    <row r="201" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A201" s="37" t="s">
         <v>200</v>
       </c>
@@ -27182,10 +27197,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:93">
+    <row r="204" spans="1:93" ht="409.6">
       <c r="E204" s="30"/>
     </row>
-    <row r="205" spans="1:93" s="8" customFormat="1">
+    <row r="205" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A205" s="37" t="s">
         <v>160</v>
       </c>
@@ -27690,10 +27705,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:93">
+    <row r="208" spans="1:93" ht="409.6">
       <c r="E208" s="30"/>
     </row>
-    <row r="209" spans="1:93" s="8" customFormat="1">
+    <row r="209" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A209" s="37" t="s">
         <v>198</v>
       </c>
@@ -28198,10 +28213,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:93">
+    <row r="212" spans="1:93" ht="409.6">
       <c r="E212" s="30"/>
     </row>
-    <row r="213" spans="1:93" s="8" customFormat="1">
+    <row r="213" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A213" s="37" t="s">
         <v>191</v>
       </c>
@@ -28704,10 +28719,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:93">
+    <row r="216" spans="1:93" ht="409.6">
       <c r="E216" s="30"/>
     </row>
-    <row r="217" spans="1:93" s="8" customFormat="1">
+    <row r="217" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A217" s="37" t="s">
         <v>240</v>
       </c>
@@ -29210,10 +29225,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:93">
+    <row r="220" spans="1:93" ht="409.6">
       <c r="E220" s="30"/>
     </row>
-    <row r="221" spans="1:93" s="8" customFormat="1">
+    <row r="221" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A221" s="37" t="s">
         <v>187</v>
       </c>
@@ -29716,10 +29731,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:93">
+    <row r="224" spans="1:93" ht="409.6">
       <c r="E224" s="30"/>
     </row>
-    <row r="225" spans="1:93" s="8" customFormat="1">
+    <row r="225" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A225" s="37" t="s">
         <v>206</v>
       </c>
@@ -30222,13 +30237,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:93">
+    <row r="228" spans="1:93" ht="409.6">
       <c r="E228" s="30"/>
     </row>
-    <row r="229" spans="1:93">
+    <row r="229" spans="1:93" ht="409.6">
       <c r="E229" s="30"/>
     </row>
-    <row r="230" spans="1:93" s="26" customFormat="1">
+    <row r="230" spans="1:93" s="26" customFormat="1" ht="409.6">
       <c r="A230" s="23"/>
       <c r="B230" s="24"/>
       <c r="C230" s="23"/>
@@ -30297,7 +30312,7 @@
       <c r="BP230" s="25"/>
       <c r="BQ230" s="25"/>
     </row>
-    <row r="231" spans="1:93" s="26" customFormat="1">
+    <row r="231" spans="1:93" s="26" customFormat="1" ht="409.6">
       <c r="A231" s="23"/>
       <c r="B231" s="24"/>
       <c r="C231" s="23"/>
@@ -30366,7 +30381,7 @@
       <c r="BP231" s="25"/>
       <c r="BQ231" s="25"/>
     </row>
-    <row r="232" spans="1:93" s="26" customFormat="1">
+    <row r="232" spans="1:93" s="26" customFormat="1" ht="409.6">
       <c r="A232" s="23"/>
       <c r="B232" s="24"/>
       <c r="C232" s="23"/>
@@ -30435,7 +30450,7 @@
       <c r="BP232" s="25"/>
       <c r="BQ232" s="25"/>
     </row>
-    <row r="233" spans="1:93" s="26" customFormat="1">
+    <row r="233" spans="1:93" s="26" customFormat="1" ht="409.6">
       <c r="A233" s="23"/>
       <c r="B233" s="24"/>
       <c r="C233" s="23"/>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22260" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18300" windowHeight="5880" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="307">
   <si>
     <t>TCID</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>Standard Plan Examination or Review</t>
+  </si>
+  <si>
+    <t>1 :: Electrical Motors :: DOBTESTING123@GMAIL.COM :: Professional Engineer</t>
   </si>
 </sst>
 </file>
@@ -2782,9 +2785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -13809,7 +13812,7 @@
         <v>159</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>249</v>
@@ -17306,7 +17309,7 @@
         <v>159</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>242</v>
@@ -17350,7 +17353,7 @@
         <v>280</v>
       </c>
       <c r="W125" s="12" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
@@ -19603,10 +19606,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:93">
+    <row r="144" spans="1:93" ht="409.6">
       <c r="E144" s="30"/>
     </row>
-    <row r="145" spans="1:93" s="8" customFormat="1">
+    <row r="145" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A145" s="37" t="s">
         <v>246</v>
       </c>
@@ -20109,10 +20112,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:93">
+    <row r="148" spans="1:93" ht="409.6">
       <c r="E148" s="30"/>
     </row>
-    <row r="149" spans="1:93" s="8" customFormat="1">
+    <row r="149" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A149" s="37" t="s">
         <v>178</v>
       </c>
@@ -20615,10 +20618,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:93">
+    <row r="152" spans="1:93" ht="409.6">
       <c r="E152" s="30"/>
     </row>
-    <row r="153" spans="1:93" s="8" customFormat="1">
+    <row r="153" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A153" s="37" t="s">
         <v>203</v>
       </c>
@@ -21121,10 +21124,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:93">
+    <row r="156" spans="1:93" ht="409.6">
       <c r="E156" s="30"/>
     </row>
-    <row r="157" spans="1:93" s="8" customFormat="1">
+    <row r="157" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A157" s="37" t="s">
         <v>185</v>
       </c>
@@ -21627,10 +21630,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:93">
+    <row r="160" spans="1:93" ht="409.6">
       <c r="E160" s="30"/>
     </row>
-    <row r="161" spans="1:93" s="8" customFormat="1">
+    <row r="161" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A161" s="37" t="s">
         <v>209</v>
       </c>
@@ -22133,10 +22136,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:93">
+    <row r="164" spans="1:93" ht="409.6">
       <c r="E164" s="30"/>
     </row>
-    <row r="165" spans="1:93" s="8" customFormat="1">
+    <row r="165" spans="1:93" s="8" customFormat="1" ht="409.6">
       <c r="A165" s="37" t="s">
         <v>179</v>
       </c>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="18300" windowHeight="5880" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18300" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -2785,9 +2785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -13856,7 +13856,7 @@
         <v>280</v>
       </c>
       <c r="W97" s="12" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
@@ -19606,10 +19606,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:93" ht="409.6">
+    <row r="144" spans="1:93">
       <c r="E144" s="30"/>
     </row>
-    <row r="145" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="145" spans="1:93" s="8" customFormat="1">
       <c r="A145" s="37" t="s">
         <v>246</v>
       </c>
@@ -20112,10 +20112,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:93" ht="409.6">
+    <row r="148" spans="1:93">
       <c r="E148" s="30"/>
     </row>
-    <row r="149" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="149" spans="1:93" s="8" customFormat="1">
       <c r="A149" s="37" t="s">
         <v>178</v>
       </c>
@@ -20618,10 +20618,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:93" ht="409.6">
+    <row r="152" spans="1:93">
       <c r="E152" s="30"/>
     </row>
-    <row r="153" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="153" spans="1:93" s="8" customFormat="1">
       <c r="A153" s="37" t="s">
         <v>203</v>
       </c>
@@ -21124,10 +21124,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:93" ht="409.6">
+    <row r="156" spans="1:93">
       <c r="E156" s="30"/>
     </row>
-    <row r="157" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="157" spans="1:93" s="8" customFormat="1">
       <c r="A157" s="37" t="s">
         <v>185</v>
       </c>
@@ -21630,10 +21630,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:93" ht="409.6">
+    <row r="160" spans="1:93">
       <c r="E160" s="30"/>
     </row>
-    <row r="161" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="161" spans="1:93" s="8" customFormat="1">
       <c r="A161" s="37" t="s">
         <v>209</v>
       </c>
@@ -22136,10 +22136,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:93" ht="409.6">
+    <row r="164" spans="1:93">
       <c r="E164" s="30"/>
     </row>
-    <row r="165" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="165" spans="1:93" s="8" customFormat="1">
       <c r="A165" s="37" t="s">
         <v>179</v>
       </c>
@@ -22642,10 +22642,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:93" ht="409.6">
+    <row r="168" spans="1:93">
       <c r="E168" s="30"/>
     </row>
-    <row r="169" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="169" spans="1:93" s="8" customFormat="1">
       <c r="A169" s="37" t="s">
         <v>207</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:93" ht="409.6">
+    <row r="172" spans="1:93">
       <c r="E172" s="30"/>
     </row>
     <row r="173" spans="1:93" s="8" customFormat="1" ht="409.6">

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="18300" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21015" windowHeight="10200" tabRatio="152" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A68:J85"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="313">
   <si>
     <t>TCID</t>
   </si>
@@ -937,6 +937,24 @@
   </si>
   <si>
     <t>1 :: Electrical Motors :: DOBTESTING123@GMAIL.COM :: Professional Engineer</t>
+  </si>
+  <si>
+    <t>StNew</t>
+  </si>
+  <si>
+    <t>Structural - New</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>1 :: false :: false :: 1 :: 1 :: 1 :: false :: false :: false :: false</t>
+  </si>
+  <si>
+    <t>1 :: Y :: N :: N :: N :: N :: N :: N :: N :: N :: N :: N</t>
+  </si>
+  <si>
+    <t>Structural :: 1111 :: 1.00 :: 3333</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C20"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2540,6 +2558,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="46" spans="1:3">
       <c r="A46" s="37" t="s">
         <v>187</v>
@@ -2783,11 +2809,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX233"/>
+  <dimension ref="A1:CX242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W97" sqref="W97"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U133" sqref="U133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -13462,6 +13488,57 @@
         <v>15</v>
       </c>
     </row>
+    <row r="94" spans="1:93" s="11" customFormat="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="18"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="30"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="10"/>
+      <c r="AH94" s="10"/>
+      <c r="AJ94" s="10"/>
+      <c r="AK94" s="10"/>
+      <c r="AL94" s="10"/>
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
+      <c r="AO94" s="10"/>
+      <c r="AP94" s="10"/>
+      <c r="AR94" s="10"/>
+      <c r="AT94" s="10"/>
+      <c r="AU94" s="10"/>
+      <c r="AV94" s="10"/>
+      <c r="AW94" s="10"/>
+      <c r="AX94" s="10"/>
+      <c r="BH94" s="10"/>
+      <c r="BJ94" s="10"/>
+      <c r="BK94" s="10"/>
+      <c r="BL94" s="10"/>
+      <c r="BM94" s="10"/>
+      <c r="BN94" s="10"/>
+      <c r="BO94" s="10"/>
+      <c r="BP94" s="10"/>
+      <c r="BQ94" s="10"/>
+    </row>
     <row r="95" spans="1:93" s="8" customFormat="1">
       <c r="A95" s="37" t="s">
         <v>137</v>
@@ -13965,6 +14042,57 @@
         <v>15</v>
       </c>
     </row>
+    <row r="98" spans="1:93" s="11" customFormat="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="18"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="30"/>
+      <c r="R98" s="30"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
+      <c r="AJ98" s="10"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AT98" s="10"/>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="10"/>
+      <c r="AW98" s="10"/>
+      <c r="AX98" s="10"/>
+      <c r="BH98" s="10"/>
+      <c r="BJ98" s="10"/>
+      <c r="BK98" s="10"/>
+      <c r="BL98" s="10"/>
+      <c r="BM98" s="10"/>
+      <c r="BN98" s="10"/>
+      <c r="BO98" s="10"/>
+      <c r="BP98" s="10"/>
+      <c r="BQ98" s="10"/>
+    </row>
     <row r="99" spans="1:93" s="8" customFormat="1">
       <c r="A99" s="37" t="s">
         <v>151</v>
@@ -17786,7 +17914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="129" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A129" s="27" t="s">
         <v>3</v>
       </c>
@@ -17953,653 +18081,752 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:93" s="26" customFormat="1">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="25"/>
-      <c r="P131" s="25"/>
-      <c r="Q131" s="25"/>
-      <c r="R131" s="25"/>
-      <c r="S131" s="23"/>
-      <c r="T131" s="23"/>
-      <c r="U131" s="25"/>
-      <c r="V131" s="25"/>
-      <c r="W131" s="25"/>
-      <c r="X131" s="25"/>
-      <c r="Y131" s="25"/>
-      <c r="Z131" s="25"/>
-      <c r="AA131" s="25"/>
-      <c r="AB131" s="25"/>
-      <c r="AC131" s="25"/>
-      <c r="AD131" s="25"/>
-      <c r="AE131" s="25"/>
-      <c r="AF131" s="25"/>
-      <c r="AG131" s="25"/>
-      <c r="AH131" s="25"/>
-      <c r="AJ131" s="23"/>
-      <c r="AK131" s="23"/>
-      <c r="AL131" s="23"/>
-      <c r="AM131" s="23"/>
-      <c r="AN131" s="23"/>
-      <c r="AO131" s="25"/>
-      <c r="AP131" s="23"/>
-      <c r="AR131" s="23"/>
-      <c r="AS131" s="23"/>
-      <c r="AT131" s="25"/>
-      <c r="AU131" s="23"/>
-      <c r="AV131" s="23"/>
-      <c r="AW131" s="23"/>
-      <c r="AX131" s="23"/>
-      <c r="AY131" s="23"/>
-      <c r="AZ131" s="23"/>
-      <c r="BA131" s="23"/>
-      <c r="BB131" s="25"/>
-      <c r="BC131" s="25"/>
-      <c r="BD131" s="25"/>
-      <c r="BE131" s="23"/>
-      <c r="BF131" s="23"/>
-      <c r="BG131" s="23"/>
-      <c r="BH131" s="23"/>
-      <c r="BI131" s="23"/>
-      <c r="BJ131" s="23"/>
-      <c r="BK131" s="23"/>
-      <c r="BL131" s="23"/>
-      <c r="BM131" s="23"/>
-      <c r="BN131" s="23"/>
-      <c r="BO131" s="23"/>
-      <c r="BP131" s="25"/>
-      <c r="BQ131" s="25"/>
+    <row r="130" spans="1:102" s="11" customFormat="1">
+      <c r="A130" s="10"/>
+      <c r="B130" s="18"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="30"/>
+      <c r="R130" s="30"/>
+      <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+      <c r="W130" s="10"/>
+      <c r="X130" s="10"/>
+      <c r="Y130" s="10"/>
+      <c r="Z130" s="10"/>
+      <c r="AA130" s="10"/>
+      <c r="AB130" s="10"/>
+      <c r="AC130" s="10"/>
+      <c r="AD130" s="10"/>
+      <c r="AE130" s="10"/>
+      <c r="AF130" s="10"/>
+      <c r="AG130" s="10"/>
+      <c r="AH130" s="10"/>
+      <c r="AJ130" s="10"/>
+      <c r="AK130" s="10"/>
+      <c r="AL130" s="10"/>
+      <c r="AM130" s="10"/>
+      <c r="AN130" s="10"/>
+      <c r="AO130" s="10"/>
+      <c r="AP130" s="10"/>
+      <c r="AR130" s="10"/>
+      <c r="AT130" s="10"/>
+      <c r="AU130" s="10"/>
+      <c r="AV130" s="10"/>
+      <c r="AW130" s="10"/>
+      <c r="AX130" s="10"/>
+      <c r="BH130" s="10"/>
+      <c r="BJ130" s="10"/>
+      <c r="BK130" s="10"/>
+      <c r="BL130" s="10"/>
+      <c r="BM130" s="10"/>
+      <c r="BN130" s="10"/>
+      <c r="BO130" s="10"/>
+      <c r="BP130" s="10"/>
+      <c r="BQ130" s="10"/>
     </row>
-    <row r="132" spans="1:93" s="26" customFormat="1">
-      <c r="A132" s="23"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="25"/>
-      <c r="N132" s="25"/>
-      <c r="O132" s="25"/>
-      <c r="P132" s="25"/>
-      <c r="Q132" s="25"/>
-      <c r="R132" s="25"/>
-      <c r="S132" s="23"/>
-      <c r="T132" s="23"/>
-      <c r="U132" s="25"/>
-      <c r="V132" s="25"/>
-      <c r="W132" s="25"/>
-      <c r="X132" s="25"/>
-      <c r="Y132" s="25"/>
-      <c r="Z132" s="25"/>
-      <c r="AA132" s="25"/>
-      <c r="AB132" s="25"/>
-      <c r="AC132" s="25"/>
-      <c r="AD132" s="25"/>
-      <c r="AE132" s="25"/>
-      <c r="AF132" s="25"/>
-      <c r="AG132" s="25"/>
-      <c r="AH132" s="25"/>
-      <c r="AJ132" s="23"/>
-      <c r="AK132" s="23"/>
-      <c r="AL132" s="23"/>
-      <c r="AM132" s="23"/>
-      <c r="AN132" s="23"/>
-      <c r="AO132" s="25"/>
-      <c r="AP132" s="23"/>
-      <c r="AR132" s="23"/>
-      <c r="AS132" s="23"/>
-      <c r="AT132" s="25"/>
-      <c r="AU132" s="23"/>
-      <c r="AV132" s="23"/>
-      <c r="AW132" s="23"/>
-      <c r="AX132" s="23"/>
-      <c r="AY132" s="23"/>
-      <c r="AZ132" s="23"/>
-      <c r="BA132" s="23"/>
-      <c r="BB132" s="25"/>
-      <c r="BC132" s="25"/>
-      <c r="BD132" s="25"/>
-      <c r="BE132" s="23"/>
-      <c r="BF132" s="23"/>
-      <c r="BG132" s="23"/>
-      <c r="BH132" s="23"/>
-      <c r="BI132" s="23"/>
-      <c r="BJ132" s="23"/>
-      <c r="BK132" s="23"/>
-      <c r="BL132" s="23"/>
-      <c r="BM132" s="23"/>
-      <c r="BN132" s="23"/>
-      <c r="BO132" s="23"/>
-      <c r="BP132" s="25"/>
-      <c r="BQ132" s="25"/>
+    <row r="131" spans="1:102" s="8" customFormat="1">
+      <c r="A131" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="28"/>
+      <c r="R131" s="28"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="7"/>
+      <c r="AG131" s="7"/>
+      <c r="AH131" s="7"/>
+      <c r="AJ131" s="7"/>
+      <c r="AK131" s="7"/>
+      <c r="AL131" s="7"/>
+      <c r="AM131" s="7"/>
+      <c r="AN131" s="7"/>
+      <c r="AO131" s="7"/>
+      <c r="AP131" s="7"/>
+      <c r="AR131" s="7"/>
+      <c r="AT131" s="7"/>
+      <c r="AU131" s="7"/>
+      <c r="AV131" s="7"/>
+      <c r="AW131" s="7"/>
+      <c r="AX131" s="7"/>
+      <c r="BH131" s="7"/>
+      <c r="BJ131" s="7"/>
+      <c r="BK131" s="7"/>
+      <c r="BL131" s="7"/>
+      <c r="BM131" s="7"/>
+      <c r="BN131" s="7"/>
+      <c r="BO131" s="7"/>
+      <c r="BP131" s="7"/>
+      <c r="BQ131" s="7"/>
     </row>
-    <row r="133" spans="1:93" s="8" customFormat="1">
-      <c r="A133" s="37" t="s">
+    <row r="132" spans="1:102" s="9" customFormat="1" ht="38.25">
+      <c r="A132" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O132" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R132" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S132" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T132" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U132" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V132" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W132" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y132" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z132" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA132" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC132" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD132" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE132" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF132" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG132" s="6"/>
+      <c r="AH132" s="6"/>
+      <c r="AI132" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ132" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK132" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL132" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM132" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN132" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO132" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP132" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR132" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS132" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT132" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU132" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV132" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW132" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX132" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY132" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ132" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA132" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB132" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC132" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD132" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE132" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF132" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG132" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH132" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI132" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ132" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK132" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL132" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM132" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN132" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO132" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP132" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ132" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR132" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS132" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT132" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU132" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV132" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW132" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX132" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY132" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ132" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA132" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB132" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC132" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD132" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE132" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF132" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG132" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH132" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI132" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ132" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK132" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL132" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN132" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO132" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:102" s="5" customFormat="1" ht="38.25">
+      <c r="A133" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="L133" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R133" s="12"/>
+      <c r="S133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U133" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="V133" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="W133" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA133" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD133" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE133" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF133" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG133" s="12"/>
+      <c r="AH133" s="12"/>
+      <c r="AJ133" s="4"/>
+      <c r="AK133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL133" s="4"/>
+      <c r="AM133" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN133" s="4"/>
+      <c r="AO133" s="12"/>
+      <c r="AP133" s="4"/>
+      <c r="AR133" s="4"/>
+      <c r="AS133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT133" s="12"/>
+      <c r="AU133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW133" s="4"/>
+      <c r="AX133" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY133" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ133" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA133" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB133" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC133" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD133" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH133" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK133" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM133" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO133" s="4"/>
+      <c r="BP133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ133" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:102" s="11" customFormat="1">
+      <c r="A134" s="10"/>
+      <c r="B134" s="18"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="30"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="10"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="10"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AJ134" s="10"/>
+      <c r="AK134" s="10"/>
+      <c r="AL134" s="10"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="10"/>
+      <c r="AP134" s="10"/>
+      <c r="AR134" s="10"/>
+      <c r="AT134" s="10"/>
+      <c r="AU134" s="10"/>
+      <c r="AV134" s="10"/>
+      <c r="AW134" s="10"/>
+      <c r="AX134" s="10"/>
+      <c r="BH134" s="10"/>
+      <c r="BJ134" s="10"/>
+      <c r="BK134" s="10"/>
+      <c r="BL134" s="10"/>
+      <c r="BM134" s="10"/>
+      <c r="BN134" s="10"/>
+      <c r="BO134" s="10"/>
+      <c r="BP134" s="10"/>
+      <c r="BQ134" s="10"/>
+    </row>
+    <row r="135" spans="1:102" s="26" customFormat="1">
+      <c r="A135" s="23"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="23"/>
+      <c r="T135" s="23"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="25"/>
+      <c r="W135" s="25"/>
+      <c r="X135" s="25"/>
+      <c r="Y135" s="25"/>
+      <c r="Z135" s="25"/>
+      <c r="AA135" s="25"/>
+      <c r="AB135" s="25"/>
+      <c r="AC135" s="25"/>
+      <c r="AD135" s="25"/>
+      <c r="AE135" s="25"/>
+      <c r="AF135" s="25"/>
+      <c r="AG135" s="25"/>
+      <c r="AH135" s="25"/>
+      <c r="AJ135" s="23"/>
+      <c r="AK135" s="23"/>
+      <c r="AL135" s="23"/>
+      <c r="AM135" s="23"/>
+      <c r="AN135" s="23"/>
+      <c r="AO135" s="25"/>
+      <c r="AP135" s="23"/>
+      <c r="AR135" s="23"/>
+      <c r="AS135" s="23"/>
+      <c r="AT135" s="25"/>
+      <c r="AU135" s="23"/>
+      <c r="AV135" s="23"/>
+      <c r="AW135" s="23"/>
+      <c r="AX135" s="23"/>
+      <c r="AY135" s="23"/>
+      <c r="AZ135" s="23"/>
+      <c r="BA135" s="23"/>
+      <c r="BB135" s="25"/>
+      <c r="BC135" s="25"/>
+      <c r="BD135" s="25"/>
+      <c r="BE135" s="23"/>
+      <c r="BF135" s="23"/>
+      <c r="BG135" s="23"/>
+      <c r="BH135" s="23"/>
+      <c r="BI135" s="23"/>
+      <c r="BJ135" s="23"/>
+      <c r="BK135" s="23"/>
+      <c r="BL135" s="23"/>
+      <c r="BM135" s="23"/>
+      <c r="BN135" s="23"/>
+      <c r="BO135" s="23"/>
+      <c r="BP135" s="25"/>
+      <c r="BQ135" s="25"/>
+    </row>
+    <row r="136" spans="1:102" s="26" customFormat="1">
+      <c r="A136" s="23"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="23"/>
+      <c r="T136" s="23"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="25"/>
+      <c r="W136" s="25"/>
+      <c r="X136" s="25"/>
+      <c r="Y136" s="25"/>
+      <c r="Z136" s="25"/>
+      <c r="AA136" s="25"/>
+      <c r="AB136" s="25"/>
+      <c r="AC136" s="25"/>
+      <c r="AD136" s="25"/>
+      <c r="AE136" s="25"/>
+      <c r="AF136" s="25"/>
+      <c r="AG136" s="25"/>
+      <c r="AH136" s="25"/>
+      <c r="AJ136" s="23"/>
+      <c r="AK136" s="23"/>
+      <c r="AL136" s="23"/>
+      <c r="AM136" s="23"/>
+      <c r="AN136" s="23"/>
+      <c r="AO136" s="25"/>
+      <c r="AP136" s="23"/>
+      <c r="AR136" s="23"/>
+      <c r="AS136" s="23"/>
+      <c r="AT136" s="25"/>
+      <c r="AU136" s="23"/>
+      <c r="AV136" s="23"/>
+      <c r="AW136" s="23"/>
+      <c r="AX136" s="23"/>
+      <c r="AY136" s="23"/>
+      <c r="AZ136" s="23"/>
+      <c r="BA136" s="23"/>
+      <c r="BB136" s="25"/>
+      <c r="BC136" s="25"/>
+      <c r="BD136" s="25"/>
+      <c r="BE136" s="23"/>
+      <c r="BF136" s="23"/>
+      <c r="BG136" s="23"/>
+      <c r="BH136" s="23"/>
+      <c r="BI136" s="23"/>
+      <c r="BJ136" s="23"/>
+      <c r="BK136" s="23"/>
+      <c r="BL136" s="23"/>
+      <c r="BM136" s="23"/>
+      <c r="BN136" s="23"/>
+      <c r="BO136" s="23"/>
+      <c r="BP136" s="25"/>
+      <c r="BQ136" s="25"/>
+    </row>
+    <row r="137" spans="1:102" s="8" customFormat="1">
+      <c r="A137" s="37" t="s">
         <v>196</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="28"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7"/>
-      <c r="X133" s="7"/>
-      <c r="Y133" s="7"/>
-      <c r="Z133" s="7"/>
-      <c r="AA133" s="7"/>
-      <c r="AB133" s="7"/>
-      <c r="AC133" s="7"/>
-      <c r="AD133" s="7"/>
-      <c r="AE133" s="7"/>
-      <c r="AF133" s="7"/>
-      <c r="AG133" s="7"/>
-      <c r="AH133" s="7"/>
-      <c r="AJ133" s="7"/>
-      <c r="AK133" s="7"/>
-      <c r="AL133" s="7"/>
-      <c r="AM133" s="7"/>
-      <c r="AN133" s="7"/>
-      <c r="AO133" s="7"/>
-      <c r="AP133" s="7"/>
-      <c r="AR133" s="7"/>
-      <c r="AT133" s="7"/>
-      <c r="AU133" s="7"/>
-      <c r="AV133" s="7"/>
-      <c r="AW133" s="7"/>
-      <c r="AX133" s="7"/>
-      <c r="BH133" s="7"/>
-      <c r="BJ133" s="7"/>
-      <c r="BK133" s="7"/>
-      <c r="BL133" s="7"/>
-      <c r="BM133" s="7"/>
-      <c r="BN133" s="7"/>
-      <c r="BO133" s="7"/>
-      <c r="BP133" s="7"/>
-      <c r="BQ133" s="7"/>
-    </row>
-    <row r="134" spans="1:93" s="9" customFormat="1" ht="38.25">
-      <c r="A134" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J134" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K134" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L134" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M134" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O134" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P134" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q134" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R134" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S134" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T134" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U134" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="V134" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W134" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="X134" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y134" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z134" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA134" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB134" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC134" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD134" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE134" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF134" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG134" s="6"/>
-      <c r="AH134" s="6"/>
-      <c r="AI134" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ134" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK134" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL134" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM134" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN134" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO134" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP134" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ134" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR134" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS134" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT134" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU134" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV134" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW134" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX134" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY134" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ134" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA134" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB134" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC134" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD134" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE134" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF134" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG134" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH134" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI134" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ134" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK134" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL134" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM134" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="BN134" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO134" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP134" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ134" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR134" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS134" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT134" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BU134" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV134" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW134" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX134" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY134" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ134" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA134" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB134" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC134" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD134" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE134" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF134" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG134" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH134" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI134" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="CJ134" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK134" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL134" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM134" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CN134" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO134" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" spans="1:93" s="5" customFormat="1" ht="38.25">
-      <c r="A135" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O135" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="P135" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q135" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R135" s="12"/>
-      <c r="S135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T135" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U135" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="V135" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="W135" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="X135" s="12"/>
-      <c r="Y135" s="12"/>
-      <c r="Z135" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA135" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB135" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC135" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD135" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE135" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF135" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG135" s="12"/>
-      <c r="AH135" s="12"/>
-      <c r="AJ135" s="4"/>
-      <c r="AK135" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL135" s="4"/>
-      <c r="AM135" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN135" s="4"/>
-      <c r="AO135" s="12"/>
-      <c r="AP135" s="4"/>
-      <c r="AR135" s="4"/>
-      <c r="AS135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT135" s="12"/>
-      <c r="AU135" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV135" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW135" s="4"/>
-      <c r="AX135" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY135" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ135" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA135" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB135" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC135" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD135" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH135" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK135" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM135" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO135" s="4"/>
-      <c r="BP135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ135" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:93">
-      <c r="E136" s="30"/>
-    </row>
-    <row r="137" spans="1:93" s="8" customFormat="1">
-      <c r="A137" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="B137" s="7"/>
       <c r="E137" s="28"/>
@@ -18650,7 +18877,7 @@
       <c r="BP137" s="7"/>
       <c r="BQ137" s="7"/>
     </row>
-    <row r="138" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="138" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -18927,15 +19154,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="139" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A139" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C139" s="38" t="s">
-        <v>142</v>
+        <v>197</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>222</v>
@@ -18944,7 +19171,7 @@
         <v>194</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>163</v>
@@ -19100,12 +19327,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:93">
+    <row r="140" spans="1:102" s="11" customFormat="1">
+      <c r="A140" s="10"/>
+      <c r="B140" s="18"/>
       <c r="E140" s="30"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="30"/>
+      <c r="R140" s="30"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="10"/>
+      <c r="Z140" s="10"/>
+      <c r="AA140" s="10"/>
+      <c r="AB140" s="10"/>
+      <c r="AC140" s="10"/>
+      <c r="AD140" s="10"/>
+      <c r="AE140" s="10"/>
+      <c r="AF140" s="10"/>
+      <c r="AG140" s="10"/>
+      <c r="AH140" s="10"/>
+      <c r="AJ140" s="10"/>
+      <c r="AK140" s="10"/>
+      <c r="AL140" s="10"/>
+      <c r="AM140" s="10"/>
+      <c r="AN140" s="10"/>
+      <c r="AO140" s="10"/>
+      <c r="AP140" s="10"/>
+      <c r="AR140" s="10"/>
+      <c r="AT140" s="10"/>
+      <c r="AU140" s="10"/>
+      <c r="AV140" s="10"/>
+      <c r="AW140" s="10"/>
+      <c r="AX140" s="10"/>
+      <c r="BH140" s="10"/>
+      <c r="BJ140" s="10"/>
+      <c r="BK140" s="10"/>
+      <c r="BL140" s="10"/>
+      <c r="BM140" s="10"/>
+      <c r="BN140" s="10"/>
+      <c r="BO140" s="10"/>
+      <c r="BP140" s="10"/>
+      <c r="BQ140" s="10"/>
     </row>
-    <row r="141" spans="1:93" s="8" customFormat="1">
+    <row r="141" spans="1:102" s="8" customFormat="1">
       <c r="A141" s="37" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="B141" s="7"/>
       <c r="E141" s="28"/>
@@ -19156,7 +19431,7 @@
       <c r="BP141" s="7"/>
       <c r="BQ141" s="7"/>
     </row>
-    <row r="142" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="142" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A142" s="15" t="s">
         <v>2</v>
       </c>
@@ -19433,15 +19708,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="143" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A143" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>7</v>
+        <v>248</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>222</v>
@@ -19450,13 +19725,13 @@
         <v>194</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>3</v>
@@ -19606,12 +19881,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:93">
+    <row r="144" spans="1:102" s="11" customFormat="1">
+      <c r="A144" s="10"/>
+      <c r="B144" s="18"/>
       <c r="E144" s="30"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="30"/>
+      <c r="R144" s="30"/>
+      <c r="U144" s="10"/>
+      <c r="V144" s="10"/>
+      <c r="W144" s="10"/>
+      <c r="X144" s="10"/>
+      <c r="Y144" s="10"/>
+      <c r="Z144" s="10"/>
+      <c r="AA144" s="10"/>
+      <c r="AB144" s="10"/>
+      <c r="AC144" s="10"/>
+      <c r="AD144" s="10"/>
+      <c r="AE144" s="10"/>
+      <c r="AF144" s="10"/>
+      <c r="AG144" s="10"/>
+      <c r="AH144" s="10"/>
+      <c r="AJ144" s="10"/>
+      <c r="AK144" s="10"/>
+      <c r="AL144" s="10"/>
+      <c r="AM144" s="10"/>
+      <c r="AN144" s="10"/>
+      <c r="AO144" s="10"/>
+      <c r="AP144" s="10"/>
+      <c r="AR144" s="10"/>
+      <c r="AT144" s="10"/>
+      <c r="AU144" s="10"/>
+      <c r="AV144" s="10"/>
+      <c r="AW144" s="10"/>
+      <c r="AX144" s="10"/>
+      <c r="BH144" s="10"/>
+      <c r="BJ144" s="10"/>
+      <c r="BK144" s="10"/>
+      <c r="BL144" s="10"/>
+      <c r="BM144" s="10"/>
+      <c r="BN144" s="10"/>
+      <c r="BO144" s="10"/>
+      <c r="BP144" s="10"/>
+      <c r="BQ144" s="10"/>
     </row>
-    <row r="145" spans="1:93" s="8" customFormat="1">
+    <row r="145" spans="1:102" s="8" customFormat="1">
       <c r="A145" s="37" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="B145" s="7"/>
       <c r="E145" s="28"/>
@@ -19662,7 +19985,7 @@
       <c r="BP145" s="7"/>
       <c r="BQ145" s="7"/>
     </row>
-    <row r="146" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="146" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A146" s="15" t="s">
         <v>2</v>
       </c>
@@ -19939,15 +20262,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="147" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A147" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C147" s="38" t="s">
-        <v>142</v>
+        <v>193</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>222</v>
@@ -19956,7 +20279,7 @@
         <v>194</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>163</v>
@@ -20112,12 +20435,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:93">
+    <row r="148" spans="1:102" s="11" customFormat="1">
+      <c r="A148" s="10"/>
+      <c r="B148" s="18"/>
       <c r="E148" s="30"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="30"/>
+      <c r="R148" s="30"/>
+      <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+      <c r="W148" s="10"/>
+      <c r="X148" s="10"/>
+      <c r="Y148" s="10"/>
+      <c r="Z148" s="10"/>
+      <c r="AA148" s="10"/>
+      <c r="AB148" s="10"/>
+      <c r="AC148" s="10"/>
+      <c r="AD148" s="10"/>
+      <c r="AE148" s="10"/>
+      <c r="AF148" s="10"/>
+      <c r="AG148" s="10"/>
+      <c r="AH148" s="10"/>
+      <c r="AJ148" s="10"/>
+      <c r="AK148" s="10"/>
+      <c r="AL148" s="10"/>
+      <c r="AM148" s="10"/>
+      <c r="AN148" s="10"/>
+      <c r="AO148" s="10"/>
+      <c r="AP148" s="10"/>
+      <c r="AR148" s="10"/>
+      <c r="AT148" s="10"/>
+      <c r="AU148" s="10"/>
+      <c r="AV148" s="10"/>
+      <c r="AW148" s="10"/>
+      <c r="AX148" s="10"/>
+      <c r="BH148" s="10"/>
+      <c r="BJ148" s="10"/>
+      <c r="BK148" s="10"/>
+      <c r="BL148" s="10"/>
+      <c r="BM148" s="10"/>
+      <c r="BN148" s="10"/>
+      <c r="BO148" s="10"/>
+      <c r="BP148" s="10"/>
+      <c r="BQ148" s="10"/>
     </row>
-    <row r="149" spans="1:93" s="8" customFormat="1">
+    <row r="149" spans="1:102" s="8" customFormat="1">
       <c r="A149" s="37" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="B149" s="7"/>
       <c r="E149" s="28"/>
@@ -20168,7 +20539,7 @@
       <c r="BP149" s="7"/>
       <c r="BQ149" s="7"/>
     </row>
-    <row r="150" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="150" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A150" s="15" t="s">
         <v>2</v>
       </c>
@@ -20445,30 +20816,30 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="151" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A151" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="I151" s="5" t="s">
         <v>3</v>
@@ -20486,21 +20857,21 @@
       <c r="N151" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O151" s="12"/>
+      <c r="O151" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="P151" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q151" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R151" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="R151" s="12"/>
       <c r="S151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T151" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="U151" s="5" t="s">
         <v>227</v>
@@ -20618,12 +20989,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:93">
+    <row r="152" spans="1:102" s="11" customFormat="1">
+      <c r="A152" s="10"/>
+      <c r="B152" s="18"/>
       <c r="E152" s="30"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="30"/>
+      <c r="R152" s="30"/>
+      <c r="U152" s="10"/>
+      <c r="V152" s="10"/>
+      <c r="W152" s="10"/>
+      <c r="X152" s="10"/>
+      <c r="Y152" s="10"/>
+      <c r="Z152" s="10"/>
+      <c r="AA152" s="10"/>
+      <c r="AB152" s="10"/>
+      <c r="AC152" s="10"/>
+      <c r="AD152" s="10"/>
+      <c r="AE152" s="10"/>
+      <c r="AF152" s="10"/>
+      <c r="AG152" s="10"/>
+      <c r="AH152" s="10"/>
+      <c r="AJ152" s="10"/>
+      <c r="AK152" s="10"/>
+      <c r="AL152" s="10"/>
+      <c r="AM152" s="10"/>
+      <c r="AN152" s="10"/>
+      <c r="AO152" s="10"/>
+      <c r="AP152" s="10"/>
+      <c r="AR152" s="10"/>
+      <c r="AT152" s="10"/>
+      <c r="AU152" s="10"/>
+      <c r="AV152" s="10"/>
+      <c r="AW152" s="10"/>
+      <c r="AX152" s="10"/>
+      <c r="BH152" s="10"/>
+      <c r="BJ152" s="10"/>
+      <c r="BK152" s="10"/>
+      <c r="BL152" s="10"/>
+      <c r="BM152" s="10"/>
+      <c r="BN152" s="10"/>
+      <c r="BO152" s="10"/>
+      <c r="BP152" s="10"/>
+      <c r="BQ152" s="10"/>
     </row>
-    <row r="153" spans="1:93" s="8" customFormat="1">
+    <row r="153" spans="1:102" s="8" customFormat="1">
       <c r="A153" s="37" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B153" s="7"/>
       <c r="E153" s="28"/>
@@ -20674,7 +21093,7 @@
       <c r="BP153" s="7"/>
       <c r="BQ153" s="7"/>
     </row>
-    <row r="154" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="154" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A154" s="15" t="s">
         <v>2</v>
       </c>
@@ -20951,15 +21370,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="155" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A155" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C155" s="38" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>222</v>
@@ -20968,7 +21387,7 @@
         <v>263</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>163</v>
@@ -21124,12 +21543,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:93">
+    <row r="156" spans="1:102" s="11" customFormat="1">
+      <c r="A156" s="10"/>
+      <c r="B156" s="18"/>
       <c r="E156" s="30"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="30"/>
+      <c r="R156" s="30"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+      <c r="W156" s="10"/>
+      <c r="X156" s="10"/>
+      <c r="Y156" s="10"/>
+      <c r="Z156" s="10"/>
+      <c r="AA156" s="10"/>
+      <c r="AB156" s="10"/>
+      <c r="AC156" s="10"/>
+      <c r="AD156" s="10"/>
+      <c r="AE156" s="10"/>
+      <c r="AF156" s="10"/>
+      <c r="AG156" s="10"/>
+      <c r="AH156" s="10"/>
+      <c r="AJ156" s="10"/>
+      <c r="AK156" s="10"/>
+      <c r="AL156" s="10"/>
+      <c r="AM156" s="10"/>
+      <c r="AN156" s="10"/>
+      <c r="AO156" s="10"/>
+      <c r="AP156" s="10"/>
+      <c r="AR156" s="10"/>
+      <c r="AT156" s="10"/>
+      <c r="AU156" s="10"/>
+      <c r="AV156" s="10"/>
+      <c r="AW156" s="10"/>
+      <c r="AX156" s="10"/>
+      <c r="BH156" s="10"/>
+      <c r="BJ156" s="10"/>
+      <c r="BK156" s="10"/>
+      <c r="BL156" s="10"/>
+      <c r="BM156" s="10"/>
+      <c r="BN156" s="10"/>
+      <c r="BO156" s="10"/>
+      <c r="BP156" s="10"/>
+      <c r="BQ156" s="10"/>
     </row>
-    <row r="157" spans="1:93" s="8" customFormat="1">
+    <row r="157" spans="1:102" s="8" customFormat="1">
       <c r="A157" s="37" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B157" s="7"/>
       <c r="E157" s="28"/>
@@ -21180,7 +21647,7 @@
       <c r="BP157" s="7"/>
       <c r="BQ157" s="7"/>
     </row>
-    <row r="158" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="158" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A158" s="15" t="s">
         <v>2</v>
       </c>
@@ -21457,15 +21924,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="159" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A159" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>7</v>
+        <v>211</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>222</v>
@@ -21474,13 +21941,13 @@
         <v>263</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I159" s="5" t="s">
         <v>3</v>
@@ -21498,21 +21965,21 @@
       <c r="N159" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O159" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="O159" s="12"/>
       <c r="P159" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q159" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R159" s="12"/>
+      <c r="R159" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="S159" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T159" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="U159" s="5" t="s">
         <v>227</v>
@@ -21630,12 +22097,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:93">
+    <row r="160" spans="1:102" s="11" customFormat="1">
+      <c r="A160" s="10"/>
+      <c r="B160" s="18"/>
       <c r="E160" s="30"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="30"/>
+      <c r="R160" s="30"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="10"/>
+      <c r="Z160" s="10"/>
+      <c r="AA160" s="10"/>
+      <c r="AB160" s="10"/>
+      <c r="AC160" s="10"/>
+      <c r="AD160" s="10"/>
+      <c r="AE160" s="10"/>
+      <c r="AF160" s="10"/>
+      <c r="AG160" s="10"/>
+      <c r="AH160" s="10"/>
+      <c r="AJ160" s="10"/>
+      <c r="AK160" s="10"/>
+      <c r="AL160" s="10"/>
+      <c r="AM160" s="10"/>
+      <c r="AN160" s="10"/>
+      <c r="AO160" s="10"/>
+      <c r="AP160" s="10"/>
+      <c r="AR160" s="10"/>
+      <c r="AT160" s="10"/>
+      <c r="AU160" s="10"/>
+      <c r="AV160" s="10"/>
+      <c r="AW160" s="10"/>
+      <c r="AX160" s="10"/>
+      <c r="BH160" s="10"/>
+      <c r="BJ160" s="10"/>
+      <c r="BK160" s="10"/>
+      <c r="BL160" s="10"/>
+      <c r="BM160" s="10"/>
+      <c r="BN160" s="10"/>
+      <c r="BO160" s="10"/>
+      <c r="BP160" s="10"/>
+      <c r="BQ160" s="10"/>
     </row>
-    <row r="161" spans="1:93" s="8" customFormat="1">
+    <row r="161" spans="1:102" s="8" customFormat="1">
       <c r="A161" s="37" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B161" s="7"/>
       <c r="E161" s="28"/>
@@ -21686,7 +22201,7 @@
       <c r="BP161" s="7"/>
       <c r="BQ161" s="7"/>
     </row>
-    <row r="162" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="162" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A162" s="15" t="s">
         <v>2</v>
       </c>
@@ -21963,15 +22478,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="163" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="163" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A163" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C163" s="38" t="s">
-        <v>142</v>
+        <v>186</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>222</v>
@@ -21980,7 +22495,7 @@
         <v>263</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>163</v>
@@ -22136,12 +22651,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:93">
+    <row r="164" spans="1:102" s="11" customFormat="1">
+      <c r="A164" s="10"/>
+      <c r="B164" s="18"/>
       <c r="E164" s="30"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="30"/>
+      <c r="R164" s="30"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+      <c r="Z164" s="10"/>
+      <c r="AA164" s="10"/>
+      <c r="AB164" s="10"/>
+      <c r="AC164" s="10"/>
+      <c r="AD164" s="10"/>
+      <c r="AE164" s="10"/>
+      <c r="AF164" s="10"/>
+      <c r="AG164" s="10"/>
+      <c r="AH164" s="10"/>
+      <c r="AJ164" s="10"/>
+      <c r="AK164" s="10"/>
+      <c r="AL164" s="10"/>
+      <c r="AM164" s="10"/>
+      <c r="AN164" s="10"/>
+      <c r="AO164" s="10"/>
+      <c r="AP164" s="10"/>
+      <c r="AR164" s="10"/>
+      <c r="AT164" s="10"/>
+      <c r="AU164" s="10"/>
+      <c r="AV164" s="10"/>
+      <c r="AW164" s="10"/>
+      <c r="AX164" s="10"/>
+      <c r="BH164" s="10"/>
+      <c r="BJ164" s="10"/>
+      <c r="BK164" s="10"/>
+      <c r="BL164" s="10"/>
+      <c r="BM164" s="10"/>
+      <c r="BN164" s="10"/>
+      <c r="BO164" s="10"/>
+      <c r="BP164" s="10"/>
+      <c r="BQ164" s="10"/>
     </row>
-    <row r="165" spans="1:93" s="8" customFormat="1">
+    <row r="165" spans="1:102" s="8" customFormat="1">
       <c r="A165" s="37" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B165" s="7"/>
       <c r="E165" s="28"/>
@@ -22192,7 +22755,7 @@
       <c r="BP165" s="7"/>
       <c r="BQ165" s="7"/>
     </row>
-    <row r="166" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="166" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A166" s="15" t="s">
         <v>2</v>
       </c>
@@ -22469,15 +23032,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="167" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A167" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>7</v>
+        <v>212</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>222</v>
@@ -22486,7 +23049,7 @@
         <v>263</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>163</v>
@@ -22642,12 +23205,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:93">
+    <row r="168" spans="1:102" s="11" customFormat="1">
+      <c r="A168" s="10"/>
+      <c r="B168" s="18"/>
       <c r="E168" s="30"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="30"/>
+      <c r="R168" s="30"/>
+      <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+      <c r="W168" s="10"/>
+      <c r="X168" s="10"/>
+      <c r="Y168" s="10"/>
+      <c r="Z168" s="10"/>
+      <c r="AA168" s="10"/>
+      <c r="AB168" s="10"/>
+      <c r="AC168" s="10"/>
+      <c r="AD168" s="10"/>
+      <c r="AE168" s="10"/>
+      <c r="AF168" s="10"/>
+      <c r="AG168" s="10"/>
+      <c r="AH168" s="10"/>
+      <c r="AJ168" s="10"/>
+      <c r="AK168" s="10"/>
+      <c r="AL168" s="10"/>
+      <c r="AM168" s="10"/>
+      <c r="AN168" s="10"/>
+      <c r="AO168" s="10"/>
+      <c r="AP168" s="10"/>
+      <c r="AR168" s="10"/>
+      <c r="AT168" s="10"/>
+      <c r="AU168" s="10"/>
+      <c r="AV168" s="10"/>
+      <c r="AW168" s="10"/>
+      <c r="AX168" s="10"/>
+      <c r="BH168" s="10"/>
+      <c r="BJ168" s="10"/>
+      <c r="BK168" s="10"/>
+      <c r="BL168" s="10"/>
+      <c r="BM168" s="10"/>
+      <c r="BN168" s="10"/>
+      <c r="BO168" s="10"/>
+      <c r="BP168" s="10"/>
+      <c r="BQ168" s="10"/>
     </row>
-    <row r="169" spans="1:93" s="8" customFormat="1">
+    <row r="169" spans="1:102" s="8" customFormat="1">
       <c r="A169" s="37" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B169" s="7"/>
       <c r="E169" s="28"/>
@@ -22698,7 +23309,7 @@
       <c r="BP169" s="7"/>
       <c r="BQ169" s="7"/>
     </row>
-    <row r="170" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="170" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A170" s="15" t="s">
         <v>2</v>
       </c>
@@ -22975,15 +23586,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="171" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A171" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" s="38" t="s">
-        <v>142</v>
+        <v>180</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>222</v>
@@ -22992,7 +23603,7 @@
         <v>263</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>163</v>
@@ -23148,12 +23759,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:93">
+    <row r="172" spans="1:102" s="11" customFormat="1">
+      <c r="A172" s="10"/>
+      <c r="B172" s="18"/>
       <c r="E172" s="30"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="30"/>
+      <c r="R172" s="30"/>
+      <c r="U172" s="10"/>
+      <c r="V172" s="10"/>
+      <c r="W172" s="10"/>
+      <c r="X172" s="10"/>
+      <c r="Y172" s="10"/>
+      <c r="Z172" s="10"/>
+      <c r="AA172" s="10"/>
+      <c r="AB172" s="10"/>
+      <c r="AC172" s="10"/>
+      <c r="AD172" s="10"/>
+      <c r="AE172" s="10"/>
+      <c r="AF172" s="10"/>
+      <c r="AG172" s="10"/>
+      <c r="AH172" s="10"/>
+      <c r="AJ172" s="10"/>
+      <c r="AK172" s="10"/>
+      <c r="AL172" s="10"/>
+      <c r="AM172" s="10"/>
+      <c r="AN172" s="10"/>
+      <c r="AO172" s="10"/>
+      <c r="AP172" s="10"/>
+      <c r="AR172" s="10"/>
+      <c r="AT172" s="10"/>
+      <c r="AU172" s="10"/>
+      <c r="AV172" s="10"/>
+      <c r="AW172" s="10"/>
+      <c r="AX172" s="10"/>
+      <c r="BH172" s="10"/>
+      <c r="BJ172" s="10"/>
+      <c r="BK172" s="10"/>
+      <c r="BL172" s="10"/>
+      <c r="BM172" s="10"/>
+      <c r="BN172" s="10"/>
+      <c r="BO172" s="10"/>
+      <c r="BP172" s="10"/>
+      <c r="BQ172" s="10"/>
     </row>
-    <row r="173" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="173" spans="1:102" s="8" customFormat="1">
       <c r="A173" s="37" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="B173" s="7"/>
       <c r="E173" s="28"/>
@@ -23204,7 +23863,7 @@
       <c r="BP173" s="7"/>
       <c r="BQ173" s="7"/>
     </row>
-    <row r="174" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="174" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A174" s="15" t="s">
         <v>2</v>
       </c>
@@ -23481,15 +24140,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="175" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A175" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>222</v>
@@ -23498,13 +24157,13 @@
         <v>263</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="I175" s="5" t="s">
         <v>3</v>
@@ -23522,21 +24181,21 @@
       <c r="N175" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O175" s="12"/>
+      <c r="O175" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="P175" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q175" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R175" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="R175" s="12"/>
       <c r="S175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T175" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="U175" s="5" t="s">
         <v>227</v>
@@ -23654,12 +24313,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:93" ht="409.6">
+    <row r="176" spans="1:102" s="11" customFormat="1">
+      <c r="A176" s="10"/>
+      <c r="B176" s="18"/>
       <c r="E176" s="30"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="30"/>
+      <c r="R176" s="30"/>
+      <c r="U176" s="10"/>
+      <c r="V176" s="10"/>
+      <c r="W176" s="10"/>
+      <c r="X176" s="10"/>
+      <c r="Y176" s="10"/>
+      <c r="Z176" s="10"/>
+      <c r="AA176" s="10"/>
+      <c r="AB176" s="10"/>
+      <c r="AC176" s="10"/>
+      <c r="AD176" s="10"/>
+      <c r="AE176" s="10"/>
+      <c r="AF176" s="10"/>
+      <c r="AG176" s="10"/>
+      <c r="AH176" s="10"/>
+      <c r="AJ176" s="10"/>
+      <c r="AK176" s="10"/>
+      <c r="AL176" s="10"/>
+      <c r="AM176" s="10"/>
+      <c r="AN176" s="10"/>
+      <c r="AO176" s="10"/>
+      <c r="AP176" s="10"/>
+      <c r="AR176" s="10"/>
+      <c r="AT176" s="10"/>
+      <c r="AU176" s="10"/>
+      <c r="AV176" s="10"/>
+      <c r="AW176" s="10"/>
+      <c r="AX176" s="10"/>
+      <c r="BH176" s="10"/>
+      <c r="BJ176" s="10"/>
+      <c r="BK176" s="10"/>
+      <c r="BL176" s="10"/>
+      <c r="BM176" s="10"/>
+      <c r="BN176" s="10"/>
+      <c r="BO176" s="10"/>
+      <c r="BP176" s="10"/>
+      <c r="BQ176" s="10"/>
     </row>
-    <row r="177" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="177" spans="1:102" s="8" customFormat="1">
       <c r="A177" s="37" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7"/>
       <c r="E177" s="28"/>
@@ -23710,7 +24417,7 @@
       <c r="BP177" s="7"/>
       <c r="BQ177" s="7"/>
     </row>
-    <row r="178" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="178" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A178" s="15" t="s">
         <v>2</v>
       </c>
@@ -23987,15 +24694,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="179" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="179" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A179" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C179" s="38" t="s">
-        <v>142</v>
+        <v>176</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>222</v>
@@ -24004,7 +24711,7 @@
         <v>263</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>163</v>
@@ -24160,12 +24867,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:93" ht="409.6">
+    <row r="180" spans="1:102" s="11" customFormat="1">
+      <c r="A180" s="10"/>
+      <c r="B180" s="18"/>
       <c r="E180" s="30"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="30"/>
+      <c r="R180" s="30"/>
+      <c r="U180" s="10"/>
+      <c r="V180" s="10"/>
+      <c r="W180" s="10"/>
+      <c r="X180" s="10"/>
+      <c r="Y180" s="10"/>
+      <c r="Z180" s="10"/>
+      <c r="AA180" s="10"/>
+      <c r="AB180" s="10"/>
+      <c r="AC180" s="10"/>
+      <c r="AD180" s="10"/>
+      <c r="AE180" s="10"/>
+      <c r="AF180" s="10"/>
+      <c r="AG180" s="10"/>
+      <c r="AH180" s="10"/>
+      <c r="AJ180" s="10"/>
+      <c r="AK180" s="10"/>
+      <c r="AL180" s="10"/>
+      <c r="AM180" s="10"/>
+      <c r="AN180" s="10"/>
+      <c r="AO180" s="10"/>
+      <c r="AP180" s="10"/>
+      <c r="AR180" s="10"/>
+      <c r="AT180" s="10"/>
+      <c r="AU180" s="10"/>
+      <c r="AV180" s="10"/>
+      <c r="AW180" s="10"/>
+      <c r="AX180" s="10"/>
+      <c r="BH180" s="10"/>
+      <c r="BJ180" s="10"/>
+      <c r="BK180" s="10"/>
+      <c r="BL180" s="10"/>
+      <c r="BM180" s="10"/>
+      <c r="BN180" s="10"/>
+      <c r="BO180" s="10"/>
+      <c r="BP180" s="10"/>
+      <c r="BQ180" s="10"/>
     </row>
-    <row r="181" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="181" spans="1:102" s="8" customFormat="1">
       <c r="A181" s="37" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B181" s="7"/>
       <c r="E181" s="28"/>
@@ -24216,7 +24971,7 @@
       <c r="BP181" s="7"/>
       <c r="BQ181" s="7"/>
     </row>
-    <row r="182" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="182" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A182" s="15" t="s">
         <v>2</v>
       </c>
@@ -24493,15 +25248,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="183" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A183" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C183" s="21" t="s">
-        <v>7</v>
+        <v>202</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>222</v>
@@ -24510,13 +25265,13 @@
         <v>263</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>3</v>
@@ -24534,21 +25289,21 @@
       <c r="N183" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O183" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="O183" s="12"/>
       <c r="P183" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q183" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R183" s="12"/>
+      <c r="R183" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="S183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="U183" s="5" t="s">
         <v>227</v>
@@ -24666,12 +25421,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:93" ht="409.6">
+    <row r="184" spans="1:102" s="11" customFormat="1">
+      <c r="A184" s="10"/>
+      <c r="B184" s="18"/>
       <c r="E184" s="30"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="30"/>
+      <c r="R184" s="30"/>
+      <c r="U184" s="10"/>
+      <c r="V184" s="10"/>
+      <c r="W184" s="10"/>
+      <c r="X184" s="10"/>
+      <c r="Y184" s="10"/>
+      <c r="Z184" s="10"/>
+      <c r="AA184" s="10"/>
+      <c r="AB184" s="10"/>
+      <c r="AC184" s="10"/>
+      <c r="AD184" s="10"/>
+      <c r="AE184" s="10"/>
+      <c r="AF184" s="10"/>
+      <c r="AG184" s="10"/>
+      <c r="AH184" s="10"/>
+      <c r="AJ184" s="10"/>
+      <c r="AK184" s="10"/>
+      <c r="AL184" s="10"/>
+      <c r="AM184" s="10"/>
+      <c r="AN184" s="10"/>
+      <c r="AO184" s="10"/>
+      <c r="AP184" s="10"/>
+      <c r="AR184" s="10"/>
+      <c r="AT184" s="10"/>
+      <c r="AU184" s="10"/>
+      <c r="AV184" s="10"/>
+      <c r="AW184" s="10"/>
+      <c r="AX184" s="10"/>
+      <c r="BH184" s="10"/>
+      <c r="BJ184" s="10"/>
+      <c r="BK184" s="10"/>
+      <c r="BL184" s="10"/>
+      <c r="BM184" s="10"/>
+      <c r="BN184" s="10"/>
+      <c r="BO184" s="10"/>
+      <c r="BP184" s="10"/>
+      <c r="BQ184" s="10"/>
     </row>
-    <row r="185" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="185" spans="1:102" s="8" customFormat="1">
       <c r="A185" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B185" s="7"/>
       <c r="E185" s="28"/>
@@ -24722,7 +25525,7 @@
       <c r="BP185" s="7"/>
       <c r="BQ185" s="7"/>
     </row>
-    <row r="186" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="186" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A186" s="15" t="s">
         <v>2</v>
       </c>
@@ -24999,15 +25802,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="187" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="187" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A187" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C187" s="38" t="s">
-        <v>142</v>
+        <v>236</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>222</v>
@@ -25016,7 +25819,7 @@
         <v>263</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>163</v>
@@ -25172,12 +25975,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:93" ht="409.6">
+    <row r="188" spans="1:102" s="11" customFormat="1">
+      <c r="A188" s="10"/>
+      <c r="B188" s="18"/>
       <c r="E188" s="30"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="30"/>
+      <c r="R188" s="30"/>
+      <c r="U188" s="10"/>
+      <c r="V188" s="10"/>
+      <c r="W188" s="10"/>
+      <c r="X188" s="10"/>
+      <c r="Y188" s="10"/>
+      <c r="Z188" s="10"/>
+      <c r="AA188" s="10"/>
+      <c r="AB188" s="10"/>
+      <c r="AC188" s="10"/>
+      <c r="AD188" s="10"/>
+      <c r="AE188" s="10"/>
+      <c r="AF188" s="10"/>
+      <c r="AG188" s="10"/>
+      <c r="AH188" s="10"/>
+      <c r="AJ188" s="10"/>
+      <c r="AK188" s="10"/>
+      <c r="AL188" s="10"/>
+      <c r="AM188" s="10"/>
+      <c r="AN188" s="10"/>
+      <c r="AO188" s="10"/>
+      <c r="AP188" s="10"/>
+      <c r="AR188" s="10"/>
+      <c r="AT188" s="10"/>
+      <c r="AU188" s="10"/>
+      <c r="AV188" s="10"/>
+      <c r="AW188" s="10"/>
+      <c r="AX188" s="10"/>
+      <c r="BH188" s="10"/>
+      <c r="BJ188" s="10"/>
+      <c r="BK188" s="10"/>
+      <c r="BL188" s="10"/>
+      <c r="BM188" s="10"/>
+      <c r="BN188" s="10"/>
+      <c r="BO188" s="10"/>
+      <c r="BP188" s="10"/>
+      <c r="BQ188" s="10"/>
     </row>
-    <row r="189" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="189" spans="1:102" s="8" customFormat="1">
       <c r="A189" s="37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B189" s="7"/>
       <c r="E189" s="28"/>
@@ -25228,7 +26079,7 @@
       <c r="BP189" s="7"/>
       <c r="BQ189" s="7"/>
     </row>
-    <row r="190" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="190" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A190" s="15" t="s">
         <v>2</v>
       </c>
@@ -25505,15 +26356,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="191" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="191" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A191" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C191" s="21" t="s">
-        <v>7</v>
+        <v>238</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>222</v>
@@ -25522,13 +26373,13 @@
         <v>263</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>3</v>
@@ -25678,12 +26529,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:93" ht="409.6">
+    <row r="192" spans="1:102" s="11" customFormat="1">
+      <c r="A192" s="10"/>
+      <c r="B192" s="18"/>
       <c r="E192" s="30"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="30"/>
+      <c r="R192" s="30"/>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+      <c r="Z192" s="10"/>
+      <c r="AA192" s="10"/>
+      <c r="AB192" s="10"/>
+      <c r="AC192" s="10"/>
+      <c r="AD192" s="10"/>
+      <c r="AE192" s="10"/>
+      <c r="AF192" s="10"/>
+      <c r="AG192" s="10"/>
+      <c r="AH192" s="10"/>
+      <c r="AJ192" s="10"/>
+      <c r="AK192" s="10"/>
+      <c r="AL192" s="10"/>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+      <c r="AO192" s="10"/>
+      <c r="AP192" s="10"/>
+      <c r="AR192" s="10"/>
+      <c r="AT192" s="10"/>
+      <c r="AU192" s="10"/>
+      <c r="AV192" s="10"/>
+      <c r="AW192" s="10"/>
+      <c r="AX192" s="10"/>
+      <c r="BH192" s="10"/>
+      <c r="BJ192" s="10"/>
+      <c r="BK192" s="10"/>
+      <c r="BL192" s="10"/>
+      <c r="BM192" s="10"/>
+      <c r="BN192" s="10"/>
+      <c r="BO192" s="10"/>
+      <c r="BP192" s="10"/>
+      <c r="BQ192" s="10"/>
     </row>
-    <row r="193" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="193" spans="1:102" s="8" customFormat="1">
       <c r="A193" s="37" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B193" s="7"/>
       <c r="E193" s="28"/>
@@ -25734,7 +26633,7 @@
       <c r="BP193" s="7"/>
       <c r="BQ193" s="7"/>
     </row>
-    <row r="194" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="194" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A194" s="15" t="s">
         <v>2</v>
       </c>
@@ -26011,15 +26910,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="195" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A195" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C195" s="38" t="s">
-        <v>142</v>
+      <c r="C195" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>222</v>
@@ -26028,7 +26927,7 @@
         <v>263</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>163</v>
@@ -26184,12 +27083,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:93" ht="409.6">
+    <row r="196" spans="1:102" s="11" customFormat="1">
+      <c r="A196" s="10"/>
+      <c r="B196" s="18"/>
       <c r="E196" s="30"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="30"/>
+      <c r="R196" s="30"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+      <c r="Z196" s="10"/>
+      <c r="AA196" s="10"/>
+      <c r="AB196" s="10"/>
+      <c r="AC196" s="10"/>
+      <c r="AD196" s="10"/>
+      <c r="AE196" s="10"/>
+      <c r="AF196" s="10"/>
+      <c r="AG196" s="10"/>
+      <c r="AH196" s="10"/>
+      <c r="AJ196" s="10"/>
+      <c r="AK196" s="10"/>
+      <c r="AL196" s="10"/>
+      <c r="AM196" s="10"/>
+      <c r="AN196" s="10"/>
+      <c r="AO196" s="10"/>
+      <c r="AP196" s="10"/>
+      <c r="AR196" s="10"/>
+      <c r="AT196" s="10"/>
+      <c r="AU196" s="10"/>
+      <c r="AV196" s="10"/>
+      <c r="AW196" s="10"/>
+      <c r="AX196" s="10"/>
+      <c r="BH196" s="10"/>
+      <c r="BJ196" s="10"/>
+      <c r="BK196" s="10"/>
+      <c r="BL196" s="10"/>
+      <c r="BM196" s="10"/>
+      <c r="BN196" s="10"/>
+      <c r="BO196" s="10"/>
+      <c r="BP196" s="10"/>
+      <c r="BQ196" s="10"/>
     </row>
-    <row r="197" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="197" spans="1:102" s="8" customFormat="1">
       <c r="A197" s="37" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="B197" s="7"/>
       <c r="E197" s="28"/>
@@ -26240,7 +27187,7 @@
       <c r="BP197" s="7"/>
       <c r="BQ197" s="7"/>
     </row>
-    <row r="198" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="198" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A198" s="15" t="s">
         <v>2</v>
       </c>
@@ -26517,70 +27464,68 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="199" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A199" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C199" s="21" t="s">
-        <v>7</v>
+        <v>232</v>
+      </c>
+      <c r="C199" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E199" s="19" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="I199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K199" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L199" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="L199" s="12"/>
       <c r="M199" s="12" t="s">
         <v>166</v>
       </c>
       <c r="N199" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O199" s="12"/>
+      <c r="O199" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="P199" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q199" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R199" s="12" t="s">
-        <v>230</v>
-      </c>
+      <c r="R199" s="12"/>
       <c r="S199" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T199" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="U199" s="5" t="s">
         <v>227</v>
       </c>
       <c r="V199" s="5" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="W199" s="12" t="s">
         <v>213</v>
@@ -26692,12 +27637,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:93" ht="409.6">
+    <row r="200" spans="1:102" s="11" customFormat="1">
+      <c r="A200" s="10"/>
+      <c r="B200" s="18"/>
       <c r="E200" s="30"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="K200" s="29"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="30"/>
+      <c r="R200" s="30"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+      <c r="Z200" s="10"/>
+      <c r="AA200" s="10"/>
+      <c r="AB200" s="10"/>
+      <c r="AC200" s="10"/>
+      <c r="AD200" s="10"/>
+      <c r="AE200" s="10"/>
+      <c r="AF200" s="10"/>
+      <c r="AG200" s="10"/>
+      <c r="AH200" s="10"/>
+      <c r="AJ200" s="10"/>
+      <c r="AK200" s="10"/>
+      <c r="AL200" s="10"/>
+      <c r="AM200" s="10"/>
+      <c r="AN200" s="10"/>
+      <c r="AO200" s="10"/>
+      <c r="AP200" s="10"/>
+      <c r="AR200" s="10"/>
+      <c r="AT200" s="10"/>
+      <c r="AU200" s="10"/>
+      <c r="AV200" s="10"/>
+      <c r="AW200" s="10"/>
+      <c r="AX200" s="10"/>
+      <c r="BH200" s="10"/>
+      <c r="BJ200" s="10"/>
+      <c r="BK200" s="10"/>
+      <c r="BL200" s="10"/>
+      <c r="BM200" s="10"/>
+      <c r="BN200" s="10"/>
+      <c r="BO200" s="10"/>
+      <c r="BP200" s="10"/>
+      <c r="BQ200" s="10"/>
     </row>
-    <row r="201" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="201" spans="1:102" s="8" customFormat="1">
       <c r="A201" s="37" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B201" s="7"/>
       <c r="E201" s="28"/>
@@ -26748,7 +27741,7 @@
       <c r="BP201" s="7"/>
       <c r="BQ201" s="7"/>
     </row>
-    <row r="202" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="202" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A202" s="15" t="s">
         <v>2</v>
       </c>
@@ -27025,15 +28018,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="203" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="203" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A203" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C203" s="38" t="s">
-        <v>142</v>
+        <v>173</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>222</v>
@@ -27042,7 +28035,7 @@
         <v>161</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>163</v>
@@ -27200,12 +28193,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:93" ht="409.6">
+    <row r="204" spans="1:102" s="11" customFormat="1">
+      <c r="A204" s="10"/>
+      <c r="B204" s="18"/>
       <c r="E204" s="30"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="K204" s="29"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="10"/>
+      <c r="N204" s="10"/>
+      <c r="O204" s="10"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="30"/>
+      <c r="R204" s="30"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="10"/>
+      <c r="AA204" s="10"/>
+      <c r="AB204" s="10"/>
+      <c r="AC204" s="10"/>
+      <c r="AD204" s="10"/>
+      <c r="AE204" s="10"/>
+      <c r="AF204" s="10"/>
+      <c r="AG204" s="10"/>
+      <c r="AH204" s="10"/>
+      <c r="AJ204" s="10"/>
+      <c r="AK204" s="10"/>
+      <c r="AL204" s="10"/>
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
+      <c r="AO204" s="10"/>
+      <c r="AP204" s="10"/>
+      <c r="AR204" s="10"/>
+      <c r="AT204" s="10"/>
+      <c r="AU204" s="10"/>
+      <c r="AV204" s="10"/>
+      <c r="AW204" s="10"/>
+      <c r="AX204" s="10"/>
+      <c r="BH204" s="10"/>
+      <c r="BJ204" s="10"/>
+      <c r="BK204" s="10"/>
+      <c r="BL204" s="10"/>
+      <c r="BM204" s="10"/>
+      <c r="BN204" s="10"/>
+      <c r="BO204" s="10"/>
+      <c r="BP204" s="10"/>
+      <c r="BQ204" s="10"/>
     </row>
-    <row r="205" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="205" spans="1:102" s="8" customFormat="1">
       <c r="A205" s="37" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B205" s="7"/>
       <c r="E205" s="28"/>
@@ -27256,7 +28297,7 @@
       <c r="BP205" s="7"/>
       <c r="BQ205" s="7"/>
     </row>
-    <row r="206" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="206" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A206" s="15" t="s">
         <v>2</v>
       </c>
@@ -27533,15 +28574,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="207" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A207" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>7</v>
+        <v>231</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>222</v>
@@ -27550,13 +28591,13 @@
         <v>161</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I207" s="5" t="s">
         <v>3</v>
@@ -27596,7 +28637,7 @@
         <v>227</v>
       </c>
       <c r="V207" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W207" s="12" t="s">
         <v>213</v>
@@ -27708,12 +28749,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:93" ht="409.6">
+    <row r="208" spans="1:102" s="11" customFormat="1">
+      <c r="A208" s="10"/>
+      <c r="B208" s="18"/>
       <c r="E208" s="30"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="K208" s="29"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="30"/>
+      <c r="R208" s="30"/>
+      <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+      <c r="Z208" s="10"/>
+      <c r="AA208" s="10"/>
+      <c r="AB208" s="10"/>
+      <c r="AC208" s="10"/>
+      <c r="AD208" s="10"/>
+      <c r="AE208" s="10"/>
+      <c r="AF208" s="10"/>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
+      <c r="AJ208" s="10"/>
+      <c r="AK208" s="10"/>
+      <c r="AL208" s="10"/>
+      <c r="AM208" s="10"/>
+      <c r="AN208" s="10"/>
+      <c r="AO208" s="10"/>
+      <c r="AP208" s="10"/>
+      <c r="AR208" s="10"/>
+      <c r="AT208" s="10"/>
+      <c r="AU208" s="10"/>
+      <c r="AV208" s="10"/>
+      <c r="AW208" s="10"/>
+      <c r="AX208" s="10"/>
+      <c r="BH208" s="10"/>
+      <c r="BJ208" s="10"/>
+      <c r="BK208" s="10"/>
+      <c r="BL208" s="10"/>
+      <c r="BM208" s="10"/>
+      <c r="BN208" s="10"/>
+      <c r="BO208" s="10"/>
+      <c r="BP208" s="10"/>
+      <c r="BQ208" s="10"/>
     </row>
-    <row r="209" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="209" spans="1:102" s="8" customFormat="1">
       <c r="A209" s="37" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B209" s="7"/>
       <c r="E209" s="28"/>
@@ -27764,7 +28853,7 @@
       <c r="BP209" s="7"/>
       <c r="BQ209" s="7"/>
     </row>
-    <row r="210" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="210" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A210" s="15" t="s">
         <v>2</v>
       </c>
@@ -28041,15 +29130,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="211" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A211" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C211" s="38" t="s">
-        <v>142</v>
+        <v>162</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>222</v>
@@ -28058,7 +29147,7 @@
         <v>161</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>163</v>
@@ -28104,7 +29193,7 @@
         <v>227</v>
       </c>
       <c r="V211" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="W211" s="12" t="s">
         <v>213</v>
@@ -28216,12 +29305,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:93" ht="409.6">
+    <row r="212" spans="1:102" s="11" customFormat="1">
+      <c r="A212" s="10"/>
+      <c r="B212" s="18"/>
       <c r="E212" s="30"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="K212" s="29"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
+      <c r="Q212" s="30"/>
+      <c r="R212" s="30"/>
+      <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
+      <c r="W212" s="10"/>
+      <c r="X212" s="10"/>
+      <c r="Y212" s="10"/>
+      <c r="Z212" s="10"/>
+      <c r="AA212" s="10"/>
+      <c r="AB212" s="10"/>
+      <c r="AC212" s="10"/>
+      <c r="AD212" s="10"/>
+      <c r="AE212" s="10"/>
+      <c r="AF212" s="10"/>
+      <c r="AG212" s="10"/>
+      <c r="AH212" s="10"/>
+      <c r="AJ212" s="10"/>
+      <c r="AK212" s="10"/>
+      <c r="AL212" s="10"/>
+      <c r="AM212" s="10"/>
+      <c r="AN212" s="10"/>
+      <c r="AO212" s="10"/>
+      <c r="AP212" s="10"/>
+      <c r="AR212" s="10"/>
+      <c r="AT212" s="10"/>
+      <c r="AU212" s="10"/>
+      <c r="AV212" s="10"/>
+      <c r="AW212" s="10"/>
+      <c r="AX212" s="10"/>
+      <c r="BH212" s="10"/>
+      <c r="BJ212" s="10"/>
+      <c r="BK212" s="10"/>
+      <c r="BL212" s="10"/>
+      <c r="BM212" s="10"/>
+      <c r="BN212" s="10"/>
+      <c r="BO212" s="10"/>
+      <c r="BP212" s="10"/>
+      <c r="BQ212" s="10"/>
     </row>
-    <row r="213" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="213" spans="1:102" s="8" customFormat="1">
       <c r="A213" s="37" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B213" s="7"/>
       <c r="E213" s="28"/>
@@ -28272,7 +29409,7 @@
       <c r="BP213" s="7"/>
       <c r="BQ213" s="7"/>
     </row>
-    <row r="214" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="214" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A214" s="15" t="s">
         <v>2</v>
       </c>
@@ -28549,62 +29686,64 @@
         <v>97</v>
       </c>
     </row>
-    <row r="215" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="215" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A215" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C215" s="21" t="s">
-        <v>7</v>
+        <v>199</v>
+      </c>
+      <c r="C215" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E215" s="19" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="I215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K215" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L215" s="12"/>
+      <c r="L215" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="M215" s="12" t="s">
         <v>166</v>
       </c>
       <c r="N215" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O215" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="O215" s="12"/>
       <c r="P215" s="12" t="s">
         <v>108</v>
       </c>
       <c r="Q215" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R215" s="12"/>
+      <c r="R215" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="S215" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T215" s="5" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="U215" s="5" t="s">
         <v>227</v>
@@ -28722,12 +29861,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:93" ht="409.6">
+    <row r="216" spans="1:102" s="11" customFormat="1">
+      <c r="A216" s="10"/>
+      <c r="B216" s="18"/>
       <c r="E216" s="30"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="K216" s="29"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="30"/>
+      <c r="R216" s="30"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
+      <c r="W216" s="10"/>
+      <c r="X216" s="10"/>
+      <c r="Y216" s="10"/>
+      <c r="Z216" s="10"/>
+      <c r="AA216" s="10"/>
+      <c r="AB216" s="10"/>
+      <c r="AC216" s="10"/>
+      <c r="AD216" s="10"/>
+      <c r="AE216" s="10"/>
+      <c r="AF216" s="10"/>
+      <c r="AG216" s="10"/>
+      <c r="AH216" s="10"/>
+      <c r="AJ216" s="10"/>
+      <c r="AK216" s="10"/>
+      <c r="AL216" s="10"/>
+      <c r="AM216" s="10"/>
+      <c r="AN216" s="10"/>
+      <c r="AO216" s="10"/>
+      <c r="AP216" s="10"/>
+      <c r="AR216" s="10"/>
+      <c r="AT216" s="10"/>
+      <c r="AU216" s="10"/>
+      <c r="AV216" s="10"/>
+      <c r="AW216" s="10"/>
+      <c r="AX216" s="10"/>
+      <c r="BH216" s="10"/>
+      <c r="BJ216" s="10"/>
+      <c r="BK216" s="10"/>
+      <c r="BL216" s="10"/>
+      <c r="BM216" s="10"/>
+      <c r="BN216" s="10"/>
+      <c r="BO216" s="10"/>
+      <c r="BP216" s="10"/>
+      <c r="BQ216" s="10"/>
     </row>
-    <row r="217" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="217" spans="1:102" s="8" customFormat="1">
       <c r="A217" s="37" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="B217" s="7"/>
       <c r="E217" s="28"/>
@@ -28778,7 +29965,7 @@
       <c r="BP217" s="7"/>
       <c r="BQ217" s="7"/>
     </row>
-    <row r="218" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="218" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A218" s="15" t="s">
         <v>2</v>
       </c>
@@ -29055,15 +30242,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="219" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="219" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A219" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C219" s="38" t="s">
-        <v>142</v>
+        <v>190</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>222</v>
@@ -29072,7 +30259,7 @@
         <v>264</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>163</v>
@@ -29228,12 +30415,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:93" ht="409.6">
+    <row r="220" spans="1:102" s="11" customFormat="1">
+      <c r="A220" s="10"/>
+      <c r="B220" s="18"/>
       <c r="E220" s="30"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="K220" s="29"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="30"/>
+      <c r="R220" s="30"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
+      <c r="W220" s="10"/>
+      <c r="X220" s="10"/>
+      <c r="Y220" s="10"/>
+      <c r="Z220" s="10"/>
+      <c r="AA220" s="10"/>
+      <c r="AB220" s="10"/>
+      <c r="AC220" s="10"/>
+      <c r="AD220" s="10"/>
+      <c r="AE220" s="10"/>
+      <c r="AF220" s="10"/>
+      <c r="AG220" s="10"/>
+      <c r="AH220" s="10"/>
+      <c r="AJ220" s="10"/>
+      <c r="AK220" s="10"/>
+      <c r="AL220" s="10"/>
+      <c r="AM220" s="10"/>
+      <c r="AN220" s="10"/>
+      <c r="AO220" s="10"/>
+      <c r="AP220" s="10"/>
+      <c r="AR220" s="10"/>
+      <c r="AT220" s="10"/>
+      <c r="AU220" s="10"/>
+      <c r="AV220" s="10"/>
+      <c r="AW220" s="10"/>
+      <c r="AX220" s="10"/>
+      <c r="BH220" s="10"/>
+      <c r="BJ220" s="10"/>
+      <c r="BK220" s="10"/>
+      <c r="BL220" s="10"/>
+      <c r="BM220" s="10"/>
+      <c r="BN220" s="10"/>
+      <c r="BO220" s="10"/>
+      <c r="BP220" s="10"/>
+      <c r="BQ220" s="10"/>
     </row>
-    <row r="221" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="221" spans="1:102" s="8" customFormat="1">
       <c r="A221" s="37" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="B221" s="7"/>
       <c r="E221" s="28"/>
@@ -29284,7 +30519,7 @@
       <c r="BP221" s="7"/>
       <c r="BQ221" s="7"/>
     </row>
-    <row r="222" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="222" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A222" s="15" t="s">
         <v>2</v>
       </c>
@@ -29561,15 +30796,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="223" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="223" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A223" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C223" s="21" t="s">
-        <v>7</v>
+        <v>241</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>222</v>
@@ -29578,13 +30813,13 @@
         <v>264</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>163</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I223" s="5" t="s">
         <v>3</v>
@@ -29734,12 +30969,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:93" ht="409.6">
+    <row r="224" spans="1:102" s="11" customFormat="1">
+      <c r="A224" s="10"/>
+      <c r="B224" s="18"/>
       <c r="E224" s="30"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="K224" s="29"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="10"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="30"/>
+      <c r="R224" s="30"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+      <c r="W224" s="10"/>
+      <c r="X224" s="10"/>
+      <c r="Y224" s="10"/>
+      <c r="Z224" s="10"/>
+      <c r="AA224" s="10"/>
+      <c r="AB224" s="10"/>
+      <c r="AC224" s="10"/>
+      <c r="AD224" s="10"/>
+      <c r="AE224" s="10"/>
+      <c r="AF224" s="10"/>
+      <c r="AG224" s="10"/>
+      <c r="AH224" s="10"/>
+      <c r="AJ224" s="10"/>
+      <c r="AK224" s="10"/>
+      <c r="AL224" s="10"/>
+      <c r="AM224" s="10"/>
+      <c r="AN224" s="10"/>
+      <c r="AO224" s="10"/>
+      <c r="AP224" s="10"/>
+      <c r="AR224" s="10"/>
+      <c r="AT224" s="10"/>
+      <c r="AU224" s="10"/>
+      <c r="AV224" s="10"/>
+      <c r="AW224" s="10"/>
+      <c r="AX224" s="10"/>
+      <c r="BH224" s="10"/>
+      <c r="BJ224" s="10"/>
+      <c r="BK224" s="10"/>
+      <c r="BL224" s="10"/>
+      <c r="BM224" s="10"/>
+      <c r="BN224" s="10"/>
+      <c r="BO224" s="10"/>
+      <c r="BP224" s="10"/>
+      <c r="BQ224" s="10"/>
     </row>
-    <row r="225" spans="1:93" s="8" customFormat="1" ht="409.6">
+    <row r="225" spans="1:102" s="8" customFormat="1">
       <c r="A225" s="37" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B225" s="7"/>
       <c r="E225" s="28"/>
@@ -29790,7 +31073,7 @@
       <c r="BP225" s="7"/>
       <c r="BQ225" s="7"/>
     </row>
-    <row r="226" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="226" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A226" s="15" t="s">
         <v>2</v>
       </c>
@@ -30067,15 +31350,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="227" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A227" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C227" s="38" t="s">
-        <v>142</v>
+        <v>188</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>222</v>
@@ -30084,7 +31367,7 @@
         <v>264</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>163</v>
@@ -30240,220 +31523,612 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:93" ht="409.6">
+    <row r="228" spans="1:102" s="11" customFormat="1">
+      <c r="A228" s="10"/>
+      <c r="B228" s="18"/>
       <c r="E228" s="30"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="K228" s="29"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="30"/>
+      <c r="R228" s="30"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+      <c r="Z228" s="10"/>
+      <c r="AA228" s="10"/>
+      <c r="AB228" s="10"/>
+      <c r="AC228" s="10"/>
+      <c r="AD228" s="10"/>
+      <c r="AE228" s="10"/>
+      <c r="AF228" s="10"/>
+      <c r="AG228" s="10"/>
+      <c r="AH228" s="10"/>
+      <c r="AJ228" s="10"/>
+      <c r="AK228" s="10"/>
+      <c r="AL228" s="10"/>
+      <c r="AM228" s="10"/>
+      <c r="AN228" s="10"/>
+      <c r="AO228" s="10"/>
+      <c r="AP228" s="10"/>
+      <c r="AR228" s="10"/>
+      <c r="AT228" s="10"/>
+      <c r="AU228" s="10"/>
+      <c r="AV228" s="10"/>
+      <c r="AW228" s="10"/>
+      <c r="AX228" s="10"/>
+      <c r="BH228" s="10"/>
+      <c r="BJ228" s="10"/>
+      <c r="BK228" s="10"/>
+      <c r="BL228" s="10"/>
+      <c r="BM228" s="10"/>
+      <c r="BN228" s="10"/>
+      <c r="BO228" s="10"/>
+      <c r="BP228" s="10"/>
+      <c r="BQ228" s="10"/>
     </row>
-    <row r="229" spans="1:93" ht="409.6">
-      <c r="E229" s="30"/>
+    <row r="229" spans="1:102" s="8" customFormat="1">
+      <c r="A229" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B229" s="7"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="7"/>
+      <c r="N229" s="7"/>
+      <c r="O229" s="7"/>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="28"/>
+      <c r="R229" s="28"/>
+      <c r="U229" s="7"/>
+      <c r="V229" s="7"/>
+      <c r="W229" s="7"/>
+      <c r="X229" s="7"/>
+      <c r="Y229" s="7"/>
+      <c r="Z229" s="7"/>
+      <c r="AA229" s="7"/>
+      <c r="AB229" s="7"/>
+      <c r="AC229" s="7"/>
+      <c r="AD229" s="7"/>
+      <c r="AE229" s="7"/>
+      <c r="AF229" s="7"/>
+      <c r="AG229" s="7"/>
+      <c r="AH229" s="7"/>
+      <c r="AJ229" s="7"/>
+      <c r="AK229" s="7"/>
+      <c r="AL229" s="7"/>
+      <c r="AM229" s="7"/>
+      <c r="AN229" s="7"/>
+      <c r="AO229" s="7"/>
+      <c r="AP229" s="7"/>
+      <c r="AR229" s="7"/>
+      <c r="AT229" s="7"/>
+      <c r="AU229" s="7"/>
+      <c r="AV229" s="7"/>
+      <c r="AW229" s="7"/>
+      <c r="AX229" s="7"/>
+      <c r="BH229" s="7"/>
+      <c r="BJ229" s="7"/>
+      <c r="BK229" s="7"/>
+      <c r="BL229" s="7"/>
+      <c r="BM229" s="7"/>
+      <c r="BN229" s="7"/>
+      <c r="BO229" s="7"/>
+      <c r="BP229" s="7"/>
+      <c r="BQ229" s="7"/>
     </row>
-    <row r="230" spans="1:93" s="26" customFormat="1" ht="409.6">
-      <c r="A230" s="23"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="23"/>
-      <c r="E230" s="25"/>
-      <c r="F230" s="23"/>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
-      <c r="J230" s="23"/>
-      <c r="K230" s="23"/>
-      <c r="L230" s="25"/>
-      <c r="M230" s="25"/>
-      <c r="N230" s="25"/>
-      <c r="O230" s="25"/>
-      <c r="P230" s="25"/>
-      <c r="Q230" s="25"/>
-      <c r="R230" s="25"/>
-      <c r="S230" s="23"/>
-      <c r="T230" s="23"/>
-      <c r="U230" s="25"/>
-      <c r="V230" s="25"/>
-      <c r="W230" s="25"/>
-      <c r="X230" s="25"/>
-      <c r="Y230" s="25"/>
-      <c r="Z230" s="25"/>
-      <c r="AA230" s="25"/>
-      <c r="AB230" s="25"/>
-      <c r="AC230" s="25"/>
-      <c r="AD230" s="25"/>
-      <c r="AE230" s="25"/>
-      <c r="AF230" s="25"/>
-      <c r="AG230" s="25"/>
-      <c r="AH230" s="25"/>
-      <c r="AJ230" s="23"/>
-      <c r="AK230" s="23"/>
-      <c r="AL230" s="23"/>
-      <c r="AM230" s="23"/>
-      <c r="AN230" s="23"/>
-      <c r="AO230" s="25"/>
-      <c r="AP230" s="23"/>
-      <c r="AR230" s="23"/>
-      <c r="AS230" s="23"/>
-      <c r="AT230" s="25"/>
-      <c r="AU230" s="23"/>
-      <c r="AV230" s="23"/>
-      <c r="AW230" s="23"/>
-      <c r="AX230" s="23"/>
-      <c r="AY230" s="23"/>
-      <c r="AZ230" s="23"/>
-      <c r="BA230" s="23"/>
-      <c r="BB230" s="25"/>
-      <c r="BC230" s="25"/>
-      <c r="BD230" s="25"/>
-      <c r="BE230" s="23"/>
-      <c r="BF230" s="23"/>
-      <c r="BG230" s="23"/>
-      <c r="BH230" s="23"/>
-      <c r="BI230" s="23"/>
-      <c r="BJ230" s="23"/>
-      <c r="BK230" s="23"/>
-      <c r="BL230" s="23"/>
-      <c r="BM230" s="23"/>
-      <c r="BN230" s="23"/>
-      <c r="BO230" s="23"/>
-      <c r="BP230" s="25"/>
-      <c r="BQ230" s="25"/>
+    <row r="230" spans="1:102" s="9" customFormat="1" ht="38.25">
+      <c r="A230" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H230" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J230" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K230" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L230" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M230" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O230" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P230" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q230" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R230" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S230" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T230" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U230" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V230" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W230" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X230" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y230" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z230" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA230" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB230" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC230" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD230" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE230" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF230" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG230" s="6"/>
+      <c r="AH230" s="6"/>
+      <c r="AI230" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ230" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK230" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL230" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM230" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN230" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO230" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP230" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ230" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR230" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS230" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT230" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU230" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV230" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW230" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX230" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY230" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ230" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA230" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB230" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC230" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD230" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE230" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF230" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG230" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH230" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI230" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ230" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK230" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL230" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM230" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN230" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO230" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP230" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ230" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR230" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS230" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT230" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU230" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV230" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW230" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX230" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY230" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ230" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA230" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB230" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC230" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD230" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE230" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF230" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG230" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH230" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI230" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ230" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK230" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL230" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM230" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN230" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO230" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="231" spans="1:93" s="26" customFormat="1" ht="409.6">
-      <c r="A231" s="23"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="23"/>
-      <c r="D231" s="23"/>
-      <c r="E231" s="25"/>
-      <c r="F231" s="23"/>
-      <c r="G231" s="23"/>
-      <c r="H231" s="23"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="23"/>
-      <c r="K231" s="23"/>
-      <c r="L231" s="25"/>
-      <c r="M231" s="25"/>
-      <c r="N231" s="25"/>
-      <c r="O231" s="25"/>
-      <c r="P231" s="25"/>
-      <c r="Q231" s="25"/>
-      <c r="R231" s="25"/>
-      <c r="S231" s="23"/>
-      <c r="T231" s="23"/>
-      <c r="U231" s="25"/>
-      <c r="V231" s="25"/>
-      <c r="W231" s="25"/>
-      <c r="X231" s="25"/>
-      <c r="Y231" s="25"/>
-      <c r="Z231" s="25"/>
-      <c r="AA231" s="25"/>
-      <c r="AB231" s="25"/>
-      <c r="AC231" s="25"/>
-      <c r="AD231" s="25"/>
-      <c r="AE231" s="25"/>
-      <c r="AF231" s="25"/>
-      <c r="AG231" s="25"/>
-      <c r="AH231" s="25"/>
-      <c r="AJ231" s="23"/>
-      <c r="AK231" s="23"/>
-      <c r="AL231" s="23"/>
-      <c r="AM231" s="23"/>
-      <c r="AN231" s="23"/>
-      <c r="AO231" s="25"/>
-      <c r="AP231" s="23"/>
-      <c r="AR231" s="23"/>
-      <c r="AS231" s="23"/>
-      <c r="AT231" s="25"/>
-      <c r="AU231" s="23"/>
-      <c r="AV231" s="23"/>
-      <c r="AW231" s="23"/>
-      <c r="AX231" s="23"/>
-      <c r="AY231" s="23"/>
-      <c r="AZ231" s="23"/>
-      <c r="BA231" s="23"/>
-      <c r="BB231" s="25"/>
-      <c r="BC231" s="25"/>
-      <c r="BD231" s="25"/>
-      <c r="BE231" s="23"/>
-      <c r="BF231" s="23"/>
-      <c r="BG231" s="23"/>
-      <c r="BH231" s="23"/>
-      <c r="BI231" s="23"/>
-      <c r="BJ231" s="23"/>
-      <c r="BK231" s="23"/>
-      <c r="BL231" s="23"/>
-      <c r="BM231" s="23"/>
-      <c r="BN231" s="23"/>
-      <c r="BO231" s="23"/>
-      <c r="BP231" s="25"/>
-      <c r="BQ231" s="25"/>
+    <row r="231" spans="1:102" s="5" customFormat="1" ht="38.25">
+      <c r="A231" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N231" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O231" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="P231" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q231" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R231" s="12"/>
+      <c r="S231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T231" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U231" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="V231" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="W231" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="X231" s="12"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA231" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB231" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC231" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD231" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE231" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF231" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG231" s="12"/>
+      <c r="AH231" s="12"/>
+      <c r="AJ231" s="4"/>
+      <c r="AK231" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL231" s="4"/>
+      <c r="AM231" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN231" s="4"/>
+      <c r="AO231" s="12"/>
+      <c r="AP231" s="4"/>
+      <c r="AR231" s="4"/>
+      <c r="AS231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT231" s="12"/>
+      <c r="AU231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV231" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW231" s="4"/>
+      <c r="AX231" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY231" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ231" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA231" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB231" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC231" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD231" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF231" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG231" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH231" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK231" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL231" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM231" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO231" s="4"/>
+      <c r="BP231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ231" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="232" spans="1:93" s="26" customFormat="1" ht="409.6">
-      <c r="A232" s="23"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="25"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="23"/>
-      <c r="J232" s="23"/>
-      <c r="K232" s="23"/>
-      <c r="L232" s="25"/>
-      <c r="M232" s="25"/>
-      <c r="N232" s="25"/>
-      <c r="O232" s="25"/>
-      <c r="P232" s="25"/>
-      <c r="Q232" s="25"/>
-      <c r="R232" s="25"/>
-      <c r="S232" s="23"/>
-      <c r="T232" s="23"/>
-      <c r="U232" s="25"/>
-      <c r="V232" s="25"/>
-      <c r="W232" s="25"/>
-      <c r="X232" s="25"/>
-      <c r="Y232" s="25"/>
-      <c r="Z232" s="25"/>
-      <c r="AA232" s="25"/>
-      <c r="AB232" s="25"/>
-      <c r="AC232" s="25"/>
-      <c r="AD232" s="25"/>
-      <c r="AE232" s="25"/>
-      <c r="AF232" s="25"/>
-      <c r="AG232" s="25"/>
-      <c r="AH232" s="25"/>
-      <c r="AJ232" s="23"/>
-      <c r="AK232" s="23"/>
-      <c r="AL232" s="23"/>
-      <c r="AM232" s="23"/>
-      <c r="AN232" s="23"/>
-      <c r="AO232" s="25"/>
-      <c r="AP232" s="23"/>
-      <c r="AR232" s="23"/>
-      <c r="AS232" s="23"/>
-      <c r="AT232" s="25"/>
-      <c r="AU232" s="23"/>
-      <c r="AV232" s="23"/>
-      <c r="AW232" s="23"/>
-      <c r="AX232" s="23"/>
-      <c r="AY232" s="23"/>
-      <c r="AZ232" s="23"/>
-      <c r="BA232" s="23"/>
-      <c r="BB232" s="25"/>
-      <c r="BC232" s="25"/>
-      <c r="BD232" s="25"/>
-      <c r="BE232" s="23"/>
-      <c r="BF232" s="23"/>
-      <c r="BG232" s="23"/>
-      <c r="BH232" s="23"/>
-      <c r="BI232" s="23"/>
-      <c r="BJ232" s="23"/>
-      <c r="BK232" s="23"/>
-      <c r="BL232" s="23"/>
-      <c r="BM232" s="23"/>
-      <c r="BN232" s="23"/>
-      <c r="BO232" s="23"/>
-      <c r="BP232" s="25"/>
-      <c r="BQ232" s="25"/>
+    <row r="232" spans="1:102" s="11" customFormat="1">
+      <c r="A232" s="10"/>
+      <c r="B232" s="18"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="30"/>
+      <c r="R232" s="30"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+      <c r="Z232" s="10"/>
+      <c r="AA232" s="10"/>
+      <c r="AB232" s="10"/>
+      <c r="AC232" s="10"/>
+      <c r="AD232" s="10"/>
+      <c r="AE232" s="10"/>
+      <c r="AF232" s="10"/>
+      <c r="AG232" s="10"/>
+      <c r="AH232" s="10"/>
+      <c r="AJ232" s="10"/>
+      <c r="AK232" s="10"/>
+      <c r="AL232" s="10"/>
+      <c r="AM232" s="10"/>
+      <c r="AN232" s="10"/>
+      <c r="AO232" s="10"/>
+      <c r="AP232" s="10"/>
+      <c r="AR232" s="10"/>
+      <c r="AT232" s="10"/>
+      <c r="AU232" s="10"/>
+      <c r="AV232" s="10"/>
+      <c r="AW232" s="10"/>
+      <c r="AX232" s="10"/>
+      <c r="BH232" s="10"/>
+      <c r="BJ232" s="10"/>
+      <c r="BK232" s="10"/>
+      <c r="BL232" s="10"/>
+      <c r="BM232" s="10"/>
+      <c r="BN232" s="10"/>
+      <c r="BO232" s="10"/>
+      <c r="BP232" s="10"/>
+      <c r="BQ232" s="10"/>
     </row>
-    <row r="233" spans="1:93" s="26" customFormat="1" ht="409.6">
+    <row r="233" spans="1:102" s="26" customFormat="1">
       <c r="A233" s="23"/>
       <c r="B233" s="24"/>
       <c r="C233" s="23"/>
@@ -30522,6 +32197,537 @@
       <c r="BP233" s="25"/>
       <c r="BQ233" s="25"/>
     </row>
+    <row r="234" spans="1:102" s="11" customFormat="1">
+      <c r="A234" s="10"/>
+      <c r="B234" s="18"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="K234" s="29"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="30"/>
+      <c r="R234" s="30"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+      <c r="Z234" s="10"/>
+      <c r="AA234" s="10"/>
+      <c r="AB234" s="10"/>
+      <c r="AC234" s="10"/>
+      <c r="AD234" s="10"/>
+      <c r="AE234" s="10"/>
+      <c r="AF234" s="10"/>
+      <c r="AG234" s="10"/>
+      <c r="AH234" s="10"/>
+      <c r="AJ234" s="10"/>
+      <c r="AK234" s="10"/>
+      <c r="AL234" s="10"/>
+      <c r="AM234" s="10"/>
+      <c r="AN234" s="10"/>
+      <c r="AO234" s="10"/>
+      <c r="AP234" s="10"/>
+      <c r="AR234" s="10"/>
+      <c r="AT234" s="10"/>
+      <c r="AU234" s="10"/>
+      <c r="AV234" s="10"/>
+      <c r="AW234" s="10"/>
+      <c r="AX234" s="10"/>
+      <c r="BH234" s="10"/>
+      <c r="BJ234" s="10"/>
+      <c r="BK234" s="10"/>
+      <c r="BL234" s="10"/>
+      <c r="BM234" s="10"/>
+      <c r="BN234" s="10"/>
+      <c r="BO234" s="10"/>
+      <c r="BP234" s="10"/>
+      <c r="BQ234" s="10"/>
+    </row>
+    <row r="235" spans="1:102" s="26" customFormat="1">
+      <c r="A235" s="23"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="25"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="25"/>
+      <c r="M235" s="25"/>
+      <c r="N235" s="25"/>
+      <c r="O235" s="25"/>
+      <c r="P235" s="25"/>
+      <c r="Q235" s="25"/>
+      <c r="R235" s="25"/>
+      <c r="S235" s="23"/>
+      <c r="T235" s="23"/>
+      <c r="U235" s="25"/>
+      <c r="V235" s="25"/>
+      <c r="W235" s="25"/>
+      <c r="X235" s="25"/>
+      <c r="Y235" s="25"/>
+      <c r="Z235" s="25"/>
+      <c r="AA235" s="25"/>
+      <c r="AB235" s="25"/>
+      <c r="AC235" s="25"/>
+      <c r="AD235" s="25"/>
+      <c r="AE235" s="25"/>
+      <c r="AF235" s="25"/>
+      <c r="AG235" s="25"/>
+      <c r="AH235" s="25"/>
+      <c r="AJ235" s="23"/>
+      <c r="AK235" s="23"/>
+      <c r="AL235" s="23"/>
+      <c r="AM235" s="23"/>
+      <c r="AN235" s="23"/>
+      <c r="AO235" s="25"/>
+      <c r="AP235" s="23"/>
+      <c r="AR235" s="23"/>
+      <c r="AS235" s="23"/>
+      <c r="AT235" s="25"/>
+      <c r="AU235" s="23"/>
+      <c r="AV235" s="23"/>
+      <c r="AW235" s="23"/>
+      <c r="AX235" s="23"/>
+      <c r="AY235" s="23"/>
+      <c r="AZ235" s="23"/>
+      <c r="BA235" s="23"/>
+      <c r="BB235" s="25"/>
+      <c r="BC235" s="25"/>
+      <c r="BD235" s="25"/>
+      <c r="BE235" s="23"/>
+      <c r="BF235" s="23"/>
+      <c r="BG235" s="23"/>
+      <c r="BH235" s="23"/>
+      <c r="BI235" s="23"/>
+      <c r="BJ235" s="23"/>
+      <c r="BK235" s="23"/>
+      <c r="BL235" s="23"/>
+      <c r="BM235" s="23"/>
+      <c r="BN235" s="23"/>
+      <c r="BO235" s="23"/>
+      <c r="BP235" s="25"/>
+      <c r="BQ235" s="25"/>
+    </row>
+    <row r="236" spans="1:102" s="26" customFormat="1">
+      <c r="A236" s="23"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="25"/>
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="25"/>
+      <c r="M236" s="25"/>
+      <c r="N236" s="25"/>
+      <c r="O236" s="25"/>
+      <c r="P236" s="25"/>
+      <c r="Q236" s="25"/>
+      <c r="R236" s="25"/>
+      <c r="S236" s="23"/>
+      <c r="T236" s="23"/>
+      <c r="U236" s="25"/>
+      <c r="V236" s="25"/>
+      <c r="W236" s="25"/>
+      <c r="X236" s="25"/>
+      <c r="Y236" s="25"/>
+      <c r="Z236" s="25"/>
+      <c r="AA236" s="25"/>
+      <c r="AB236" s="25"/>
+      <c r="AC236" s="25"/>
+      <c r="AD236" s="25"/>
+      <c r="AE236" s="25"/>
+      <c r="AF236" s="25"/>
+      <c r="AG236" s="25"/>
+      <c r="AH236" s="25"/>
+      <c r="AJ236" s="23"/>
+      <c r="AK236" s="23"/>
+      <c r="AL236" s="23"/>
+      <c r="AM236" s="23"/>
+      <c r="AN236" s="23"/>
+      <c r="AO236" s="25"/>
+      <c r="AP236" s="23"/>
+      <c r="AR236" s="23"/>
+      <c r="AS236" s="23"/>
+      <c r="AT236" s="25"/>
+      <c r="AU236" s="23"/>
+      <c r="AV236" s="23"/>
+      <c r="AW236" s="23"/>
+      <c r="AX236" s="23"/>
+      <c r="AY236" s="23"/>
+      <c r="AZ236" s="23"/>
+      <c r="BA236" s="23"/>
+      <c r="BB236" s="25"/>
+      <c r="BC236" s="25"/>
+      <c r="BD236" s="25"/>
+      <c r="BE236" s="23"/>
+      <c r="BF236" s="23"/>
+      <c r="BG236" s="23"/>
+      <c r="BH236" s="23"/>
+      <c r="BI236" s="23"/>
+      <c r="BJ236" s="23"/>
+      <c r="BK236" s="23"/>
+      <c r="BL236" s="23"/>
+      <c r="BM236" s="23"/>
+      <c r="BN236" s="23"/>
+      <c r="BO236" s="23"/>
+      <c r="BP236" s="25"/>
+      <c r="BQ236" s="25"/>
+    </row>
+    <row r="237" spans="1:102" s="26" customFormat="1">
+      <c r="A237" s="23"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="25"/>
+      <c r="F237" s="23"/>
+      <c r="G237" s="23"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="25"/>
+      <c r="M237" s="25"/>
+      <c r="N237" s="25"/>
+      <c r="O237" s="25"/>
+      <c r="P237" s="25"/>
+      <c r="Q237" s="25"/>
+      <c r="R237" s="25"/>
+      <c r="S237" s="23"/>
+      <c r="T237" s="23"/>
+      <c r="U237" s="25"/>
+      <c r="V237" s="25"/>
+      <c r="W237" s="25"/>
+      <c r="X237" s="25"/>
+      <c r="Y237" s="25"/>
+      <c r="Z237" s="25"/>
+      <c r="AA237" s="25"/>
+      <c r="AB237" s="25"/>
+      <c r="AC237" s="25"/>
+      <c r="AD237" s="25"/>
+      <c r="AE237" s="25"/>
+      <c r="AF237" s="25"/>
+      <c r="AG237" s="25"/>
+      <c r="AH237" s="25"/>
+      <c r="AJ237" s="23"/>
+      <c r="AK237" s="23"/>
+      <c r="AL237" s="23"/>
+      <c r="AM237" s="23"/>
+      <c r="AN237" s="23"/>
+      <c r="AO237" s="25"/>
+      <c r="AP237" s="23"/>
+      <c r="AR237" s="23"/>
+      <c r="AS237" s="23"/>
+      <c r="AT237" s="25"/>
+      <c r="AU237" s="23"/>
+      <c r="AV237" s="23"/>
+      <c r="AW237" s="23"/>
+      <c r="AX237" s="23"/>
+      <c r="AY237" s="23"/>
+      <c r="AZ237" s="23"/>
+      <c r="BA237" s="23"/>
+      <c r="BB237" s="25"/>
+      <c r="BC237" s="25"/>
+      <c r="BD237" s="25"/>
+      <c r="BE237" s="23"/>
+      <c r="BF237" s="23"/>
+      <c r="BG237" s="23"/>
+      <c r="BH237" s="23"/>
+      <c r="BI237" s="23"/>
+      <c r="BJ237" s="23"/>
+      <c r="BK237" s="23"/>
+      <c r="BL237" s="23"/>
+      <c r="BM237" s="23"/>
+      <c r="BN237" s="23"/>
+      <c r="BO237" s="23"/>
+      <c r="BP237" s="25"/>
+      <c r="BQ237" s="25"/>
+    </row>
+    <row r="238" spans="1:102" s="26" customFormat="1">
+      <c r="A238" s="23"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="25"/>
+      <c r="M238" s="25"/>
+      <c r="N238" s="25"/>
+      <c r="O238" s="25"/>
+      <c r="P238" s="25"/>
+      <c r="Q238" s="25"/>
+      <c r="R238" s="25"/>
+      <c r="S238" s="23"/>
+      <c r="T238" s="23"/>
+      <c r="U238" s="25"/>
+      <c r="V238" s="25"/>
+      <c r="W238" s="25"/>
+      <c r="X238" s="25"/>
+      <c r="Y238" s="25"/>
+      <c r="Z238" s="25"/>
+      <c r="AA238" s="25"/>
+      <c r="AB238" s="25"/>
+      <c r="AC238" s="25"/>
+      <c r="AD238" s="25"/>
+      <c r="AE238" s="25"/>
+      <c r="AF238" s="25"/>
+      <c r="AG238" s="25"/>
+      <c r="AH238" s="25"/>
+      <c r="AJ238" s="23"/>
+      <c r="AK238" s="23"/>
+      <c r="AL238" s="23"/>
+      <c r="AM238" s="23"/>
+      <c r="AN238" s="23"/>
+      <c r="AO238" s="25"/>
+      <c r="AP238" s="23"/>
+      <c r="AR238" s="23"/>
+      <c r="AS238" s="23"/>
+      <c r="AT238" s="25"/>
+      <c r="AU238" s="23"/>
+      <c r="AV238" s="23"/>
+      <c r="AW238" s="23"/>
+      <c r="AX238" s="23"/>
+      <c r="AY238" s="23"/>
+      <c r="AZ238" s="23"/>
+      <c r="BA238" s="23"/>
+      <c r="BB238" s="25"/>
+      <c r="BC238" s="25"/>
+      <c r="BD238" s="25"/>
+      <c r="BE238" s="23"/>
+      <c r="BF238" s="23"/>
+      <c r="BG238" s="23"/>
+      <c r="BH238" s="23"/>
+      <c r="BI238" s="23"/>
+      <c r="BJ238" s="23"/>
+      <c r="BK238" s="23"/>
+      <c r="BL238" s="23"/>
+      <c r="BM238" s="23"/>
+      <c r="BN238" s="23"/>
+      <c r="BO238" s="23"/>
+      <c r="BP238" s="25"/>
+      <c r="BQ238" s="25"/>
+    </row>
+    <row r="239" spans="1:102" s="11" customFormat="1">
+      <c r="A239" s="10"/>
+      <c r="B239" s="18"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="K239" s="29"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="30"/>
+      <c r="R239" s="30"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+      <c r="W239" s="10"/>
+      <c r="X239" s="10"/>
+      <c r="Y239" s="10"/>
+      <c r="Z239" s="10"/>
+      <c r="AA239" s="10"/>
+      <c r="AB239" s="10"/>
+      <c r="AC239" s="10"/>
+      <c r="AD239" s="10"/>
+      <c r="AE239" s="10"/>
+      <c r="AF239" s="10"/>
+      <c r="AG239" s="10"/>
+      <c r="AH239" s="10"/>
+      <c r="AJ239" s="10"/>
+      <c r="AK239" s="10"/>
+      <c r="AL239" s="10"/>
+      <c r="AM239" s="10"/>
+      <c r="AN239" s="10"/>
+      <c r="AO239" s="10"/>
+      <c r="AP239" s="10"/>
+      <c r="AR239" s="10"/>
+      <c r="AT239" s="10"/>
+      <c r="AU239" s="10"/>
+      <c r="AV239" s="10"/>
+      <c r="AW239" s="10"/>
+      <c r="AX239" s="10"/>
+      <c r="BH239" s="10"/>
+      <c r="BJ239" s="10"/>
+      <c r="BK239" s="10"/>
+      <c r="BL239" s="10"/>
+      <c r="BM239" s="10"/>
+      <c r="BN239" s="10"/>
+      <c r="BO239" s="10"/>
+      <c r="BP239" s="10"/>
+      <c r="BQ239" s="10"/>
+    </row>
+    <row r="240" spans="1:102" s="11" customFormat="1">
+      <c r="A240" s="10"/>
+      <c r="B240" s="18"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="K240" s="29"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="30"/>
+      <c r="R240" s="30"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+      <c r="W240" s="10"/>
+      <c r="X240" s="10"/>
+      <c r="Y240" s="10"/>
+      <c r="Z240" s="10"/>
+      <c r="AA240" s="10"/>
+      <c r="AB240" s="10"/>
+      <c r="AC240" s="10"/>
+      <c r="AD240" s="10"/>
+      <c r="AE240" s="10"/>
+      <c r="AF240" s="10"/>
+      <c r="AG240" s="10"/>
+      <c r="AH240" s="10"/>
+      <c r="AJ240" s="10"/>
+      <c r="AK240" s="10"/>
+      <c r="AL240" s="10"/>
+      <c r="AM240" s="10"/>
+      <c r="AN240" s="10"/>
+      <c r="AO240" s="10"/>
+      <c r="AP240" s="10"/>
+      <c r="AR240" s="10"/>
+      <c r="AT240" s="10"/>
+      <c r="AU240" s="10"/>
+      <c r="AV240" s="10"/>
+      <c r="AW240" s="10"/>
+      <c r="AX240" s="10"/>
+      <c r="BH240" s="10"/>
+      <c r="BJ240" s="10"/>
+      <c r="BK240" s="10"/>
+      <c r="BL240" s="10"/>
+      <c r="BM240" s="10"/>
+      <c r="BN240" s="10"/>
+      <c r="BO240" s="10"/>
+      <c r="BP240" s="10"/>
+      <c r="BQ240" s="10"/>
+    </row>
+    <row r="241" spans="1:102" s="11" customFormat="1">
+      <c r="A241" s="10"/>
+      <c r="B241" s="18"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="K241" s="29"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="30"/>
+      <c r="R241" s="30"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+      <c r="W241" s="10"/>
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+      <c r="Z241" s="10"/>
+      <c r="AA241" s="10"/>
+      <c r="AB241" s="10"/>
+      <c r="AC241" s="10"/>
+      <c r="AD241" s="10"/>
+      <c r="AE241" s="10"/>
+      <c r="AF241" s="10"/>
+      <c r="AG241" s="10"/>
+      <c r="AH241" s="10"/>
+      <c r="AJ241" s="10"/>
+      <c r="AK241" s="10"/>
+      <c r="AL241" s="10"/>
+      <c r="AM241" s="10"/>
+      <c r="AN241" s="10"/>
+      <c r="AO241" s="10"/>
+      <c r="AP241" s="10"/>
+      <c r="AR241" s="10"/>
+      <c r="AT241" s="10"/>
+      <c r="AU241" s="10"/>
+      <c r="AV241" s="10"/>
+      <c r="AW241" s="10"/>
+      <c r="AX241" s="10"/>
+      <c r="BH241" s="10"/>
+      <c r="BJ241" s="10"/>
+      <c r="BK241" s="10"/>
+      <c r="BL241" s="10"/>
+      <c r="BM241" s="10"/>
+      <c r="BN241" s="10"/>
+      <c r="BO241" s="10"/>
+      <c r="BP241" s="10"/>
+      <c r="BQ241" s="10"/>
+    </row>
+    <row r="242" spans="1:102" s="11" customFormat="1">
+      <c r="A242" s="10"/>
+      <c r="B242" s="18"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="30"/>
+      <c r="R242" s="30"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+      <c r="W242" s="10"/>
+      <c r="X242" s="10"/>
+      <c r="Y242" s="10"/>
+      <c r="Z242" s="10"/>
+      <c r="AA242" s="10"/>
+      <c r="AB242" s="10"/>
+      <c r="AC242" s="10"/>
+      <c r="AD242" s="10"/>
+      <c r="AE242" s="10"/>
+      <c r="AF242" s="10"/>
+      <c r="AG242" s="10"/>
+      <c r="AH242" s="10"/>
+      <c r="AJ242" s="10"/>
+      <c r="AK242" s="10"/>
+      <c r="AL242" s="10"/>
+      <c r="AM242" s="10"/>
+      <c r="AN242" s="10"/>
+      <c r="AO242" s="10"/>
+      <c r="AP242" s="10"/>
+      <c r="AR242" s="10"/>
+      <c r="AT242" s="10"/>
+      <c r="AU242" s="10"/>
+      <c r="AV242" s="10"/>
+      <c r="AW242" s="10"/>
+      <c r="AX242" s="10"/>
+      <c r="BH242" s="10"/>
+      <c r="BJ242" s="10"/>
+      <c r="BK242" s="10"/>
+      <c r="BL242" s="10"/>
+      <c r="BM242" s="10"/>
+      <c r="BN242" s="10"/>
+      <c r="BO242" s="10"/>
+      <c r="BP242" s="10"/>
+      <c r="BQ242" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="23475" windowHeight="10110" tabRatio="152" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="23475" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A128:J146"/>
+  <oleSize ref="A126:K145"/>
 </workbook>
 </file>
 
@@ -954,9 +954,6 @@
     <t>Structural :: 1111 :: 1.00 :: 3333</t>
   </si>
   <si>
-    <t>MhNew</t>
-  </si>
-  <si>
     <t>Mechanical Systems - New</t>
   </si>
   <si>
@@ -994,6 +991,9 @@
   </si>
   <si>
     <t>NYCECC :: Tabular Analysis :: Y</t>
+  </si>
+  <si>
+    <t>MsNew</t>
   </si>
 </sst>
 </file>
@@ -2218,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="37" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>3</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>3</v>
@@ -2855,9 +2855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L134" sqref="L134"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3533,7 +3533,7 @@
         <v>108</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>165</v>
@@ -4864,7 +4864,7 @@
         <v>108</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>165</v>
@@ -5367,7 +5367,7 @@
         <v>108</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>165</v>
@@ -5870,7 +5870,7 @@
         <v>108</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>165</v>
@@ -6373,7 +6373,7 @@
         <v>108</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M37" s="12" t="s">
         <v>165</v>
@@ -6879,7 +6879,7 @@
         <v>108</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M41" s="12" t="s">
         <v>165</v>
@@ -7386,7 +7386,7 @@
         <v>108</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>165</v>
@@ -7890,7 +7890,7 @@
         <v>108</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>165</v>
@@ -8400,7 +8400,7 @@
         <v>108</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M53" s="12" t="s">
         <v>165</v>
@@ -8859,7 +8859,7 @@
         <v>108</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M57" s="12" t="s">
         <v>165</v>
@@ -9366,7 +9366,7 @@
         <v>108</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>165</v>
@@ -9873,7 +9873,7 @@
         <v>108</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>165</v>
@@ -10376,7 +10376,7 @@
         <v>108</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M69" s="12" t="s">
         <v>165</v>
@@ -10879,7 +10879,7 @@
         <v>108</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>165</v>
@@ -11382,7 +11382,7 @@
         <v>108</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>165</v>
@@ -11885,7 +11885,7 @@
         <v>108</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>165</v>
@@ -12388,7 +12388,7 @@
         <v>108</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>165</v>
@@ -12891,7 +12891,7 @@
         <v>108</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>165</v>
@@ -13394,7 +13394,7 @@
         <v>108</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>165</v>
@@ -13948,7 +13948,7 @@
         <v>108</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>165</v>
@@ -13974,7 +13974,7 @@
         <v>138</v>
       </c>
       <c r="V97" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W97" s="12" t="s">
         <v>305</v>
@@ -14502,7 +14502,7 @@
         <v>108</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>165</v>
@@ -15005,7 +15005,7 @@
         <v>108</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>165</v>
@@ -15502,7 +15502,7 @@
         <v>108</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>165</v>
@@ -15999,7 +15999,7 @@
         <v>108</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>165</v>
@@ -16499,7 +16499,7 @@
         <v>108</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M117" s="12" t="s">
         <v>165</v>
@@ -16999,7 +16999,7 @@
         <v>108</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>165</v>
@@ -17496,7 +17496,7 @@
         <v>108</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>165</v>
@@ -17522,7 +17522,7 @@
         <v>122</v>
       </c>
       <c r="V125" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W125" s="12" t="s">
         <v>305</v>
@@ -17993,7 +17993,7 @@
         <v>108</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>165</v>
@@ -18541,7 +18541,7 @@
         <v>309</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M133" s="12" t="s">
         <v>165</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="135" spans="1:102" s="8" customFormat="1">
       <c r="A135" s="37" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B135" s="7"/>
       <c r="E135" s="7"/>
@@ -19065,7 +19065,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>304</v>
@@ -19074,7 +19074,7 @@
         <v>221</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>158</v>
@@ -19095,7 +19095,7 @@
         <v>309</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M137" s="12" t="s">
         <v>165</v>
@@ -19118,13 +19118,13 @@
         <v>139</v>
       </c>
       <c r="U137" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="V137" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="V137" s="5" t="s">
+      <c r="W137" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="W137" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="139" spans="1:102" s="8" customFormat="1">
       <c r="A139" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B139" s="7"/>
       <c r="E139" s="7"/>
@@ -19619,7 +19619,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>304</v>
@@ -19628,7 +19628,7 @@
         <v>221</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>158</v>
@@ -19649,7 +19649,7 @@
         <v>309</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M141" s="12" t="s">
         <v>165</v>
@@ -19672,13 +19672,13 @@
         <v>139</v>
       </c>
       <c r="U141" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="V141" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="W141" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="V141" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="W141" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
@@ -20479,7 +20479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:102" s="11" customFormat="1">
+    <row r="148" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A148" s="10"/>
       <c r="B148" s="18"/>
       <c r="E148" s="30"/>
@@ -20530,7 +20530,7 @@
       <c r="BP148" s="10"/>
       <c r="BQ148" s="10"/>
     </row>
-    <row r="149" spans="1:102" s="8" customFormat="1">
+    <row r="149" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A149" s="37" t="s">
         <v>244</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:102" s="11" customFormat="1">
+    <row r="152" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A152" s="10"/>
       <c r="B152" s="18"/>
       <c r="E152" s="30"/>
@@ -21084,7 +21084,7 @@
       <c r="BP152" s="10"/>
       <c r="BQ152" s="10"/>
     </row>
-    <row r="153" spans="1:102" s="8" customFormat="1">
+    <row r="153" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A153" s="37" t="s">
         <v>191</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:102" s="11" customFormat="1">
+    <row r="156" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A156" s="10"/>
       <c r="B156" s="18"/>
       <c r="E156" s="30"/>
@@ -21638,7 +21638,7 @@
       <c r="BP156" s="10"/>
       <c r="BQ156" s="10"/>
     </row>
-    <row r="157" spans="1:102" s="8" customFormat="1">
+    <row r="157" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A157" s="37" t="s">
         <v>245</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:102" s="11" customFormat="1">
+    <row r="160" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A160" s="10"/>
       <c r="B160" s="18"/>
       <c r="E160" s="30"/>
@@ -22192,7 +22192,7 @@
       <c r="BP160" s="10"/>
       <c r="BQ160" s="10"/>
     </row>
-    <row r="161" spans="1:102" s="8" customFormat="1">
+    <row r="161" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A161" s="37" t="s">
         <v>177</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:102" s="11" customFormat="1">
+    <row r="164" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A164" s="10"/>
       <c r="B164" s="18"/>
       <c r="E164" s="30"/>
@@ -22746,7 +22746,7 @@
       <c r="BP164" s="10"/>
       <c r="BQ164" s="10"/>
     </row>
-    <row r="165" spans="1:102" s="8" customFormat="1">
+    <row r="165" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A165" s="37" t="s">
         <v>202</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:102" s="11" customFormat="1">
+    <row r="168" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A168" s="10"/>
       <c r="B168" s="18"/>
       <c r="E168" s="30"/>
@@ -23300,7 +23300,7 @@
       <c r="BP168" s="10"/>
       <c r="BQ168" s="10"/>
     </row>
-    <row r="169" spans="1:102" s="8" customFormat="1">
+    <row r="169" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A169" s="37" t="s">
         <v>184</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:102" s="11" customFormat="1">
+    <row r="172" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A172" s="10"/>
       <c r="B172" s="18"/>
       <c r="E172" s="30"/>
@@ -23854,7 +23854,7 @@
       <c r="BP172" s="10"/>
       <c r="BQ172" s="10"/>
     </row>
-    <row r="173" spans="1:102" s="8" customFormat="1">
+    <row r="173" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A173" s="37" t="s">
         <v>208</v>
       </c>
@@ -24357,7 +24357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:102" s="11" customFormat="1">
+    <row r="176" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A176" s="10"/>
       <c r="B176" s="18"/>
       <c r="E176" s="30"/>
@@ -24408,7 +24408,7 @@
       <c r="BP176" s="10"/>
       <c r="BQ176" s="10"/>
     </row>
-    <row r="177" spans="1:102" s="8" customFormat="1">
+    <row r="177" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A177" s="37" t="s">
         <v>178</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:102" s="11" customFormat="1">
+    <row r="180" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A180" s="10"/>
       <c r="B180" s="18"/>
       <c r="E180" s="30"/>
@@ -24962,7 +24962,7 @@
       <c r="BP180" s="10"/>
       <c r="BQ180" s="10"/>
     </row>
-    <row r="181" spans="1:102" s="8" customFormat="1">
+    <row r="181" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A181" s="37" t="s">
         <v>206</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:102" s="11" customFormat="1">
+    <row r="184" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A184" s="10"/>
       <c r="B184" s="18"/>
       <c r="E184" s="30"/>
@@ -25516,7 +25516,7 @@
       <c r="BP184" s="10"/>
       <c r="BQ184" s="10"/>
     </row>
-    <row r="185" spans="1:102" s="8" customFormat="1">
+    <row r="185" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A185" s="37" t="s">
         <v>174</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:102" s="11" customFormat="1">
+    <row r="188" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A188" s="10"/>
       <c r="B188" s="18"/>
       <c r="E188" s="30"/>
@@ -26070,7 +26070,7 @@
       <c r="BP188" s="10"/>
       <c r="BQ188" s="10"/>
     </row>
-    <row r="189" spans="1:102" s="8" customFormat="1">
+    <row r="189" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A189" s="37" t="s">
         <v>200</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:102" s="11" customFormat="1">
+    <row r="192" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A192" s="10"/>
       <c r="B192" s="18"/>
       <c r="E192" s="30"/>
@@ -26624,7 +26624,7 @@
       <c r="BP192" s="10"/>
       <c r="BQ192" s="10"/>
     </row>
-    <row r="193" spans="1:102" s="8" customFormat="1">
+    <row r="193" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A193" s="37" t="s">
         <v>234</v>
       </c>
@@ -27127,7 +27127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:102" s="11" customFormat="1">
+    <row r="196" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A196" s="10"/>
       <c r="B196" s="18"/>
       <c r="E196" s="30"/>
@@ -27178,7 +27178,7 @@
       <c r="BP196" s="10"/>
       <c r="BQ196" s="10"/>
     </row>
-    <row r="197" spans="1:102" s="8" customFormat="1">
+    <row r="197" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A197" s="37" t="s">
         <v>236</v>
       </c>
@@ -27681,7 +27681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:102" s="11" customFormat="1">
+    <row r="200" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A200" s="10"/>
       <c r="B200" s="18"/>
       <c r="E200" s="30"/>
@@ -27732,7 +27732,7 @@
       <c r="BP200" s="10"/>
       <c r="BQ200" s="10"/>
     </row>
-    <row r="201" spans="1:102" s="8" customFormat="1">
+    <row r="201" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A201" s="37" t="s">
         <v>232</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:102" s="11" customFormat="1">
+    <row r="204" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A204" s="10"/>
       <c r="B204" s="18"/>
       <c r="E204" s="30"/>
@@ -28286,7 +28286,7 @@
       <c r="BP204" s="10"/>
       <c r="BQ204" s="10"/>
     </row>
-    <row r="205" spans="1:102" s="8" customFormat="1">
+    <row r="205" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A205" s="37" t="s">
         <v>238</v>
       </c>
@@ -28789,7 +28789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:102" s="11" customFormat="1">
+    <row r="208" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A208" s="10"/>
       <c r="B208" s="18"/>
       <c r="E208" s="30"/>
@@ -28840,7 +28840,7 @@
       <c r="BP208" s="10"/>
       <c r="BQ208" s="10"/>
     </row>
-    <row r="209" spans="1:102" s="8" customFormat="1">
+    <row r="209" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A209" s="37" t="s">
         <v>171</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>163</v>
       </c>
       <c r="L211" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M211" s="12" t="s">
         <v>165</v>
@@ -29345,7 +29345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:102" s="11" customFormat="1">
+    <row r="212" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A212" s="10"/>
       <c r="B212" s="18"/>
       <c r="E212" s="30"/>
@@ -29396,7 +29396,7 @@
       <c r="BP212" s="10"/>
       <c r="BQ212" s="10"/>
     </row>
-    <row r="213" spans="1:102" s="8" customFormat="1">
+    <row r="213" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A213" s="37" t="s">
         <v>199</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>163</v>
       </c>
       <c r="L215" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M215" s="12" t="s">
         <v>165</v>
@@ -29901,7 +29901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:102" s="11" customFormat="1">
+    <row r="216" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A216" s="10"/>
       <c r="B216" s="18"/>
       <c r="E216" s="30"/>
@@ -29952,7 +29952,7 @@
       <c r="BP216" s="10"/>
       <c r="BQ216" s="10"/>
     </row>
-    <row r="217" spans="1:102" s="8" customFormat="1">
+    <row r="217" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A217" s="37" t="s">
         <v>159</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>163</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M219" s="12" t="s">
         <v>165</v>
@@ -30457,7 +30457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:102" s="11" customFormat="1">
+    <row r="220" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A220" s="10"/>
       <c r="B220" s="18"/>
       <c r="E220" s="30"/>
@@ -30508,7 +30508,7 @@
       <c r="BP220" s="10"/>
       <c r="BQ220" s="10"/>
     </row>
-    <row r="221" spans="1:102" s="8" customFormat="1">
+    <row r="221" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A221" s="37" t="s">
         <v>197</v>
       </c>
@@ -30873,7 +30873,7 @@
         <v>163</v>
       </c>
       <c r="L223" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M223" s="12" t="s">
         <v>165</v>
@@ -31013,7 +31013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:102" s="11" customFormat="1">
+    <row r="224" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A224" s="10"/>
       <c r="B224" s="18"/>
       <c r="E224" s="30"/>
@@ -31064,7 +31064,7 @@
       <c r="BP224" s="10"/>
       <c r="BQ224" s="10"/>
     </row>
-    <row r="225" spans="1:102" s="8" customFormat="1">
+    <row r="225" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A225" s="37" t="s">
         <v>190</v>
       </c>
@@ -31567,7 +31567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:102" s="11" customFormat="1">
+    <row r="228" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A228" s="10"/>
       <c r="B228" s="18"/>
       <c r="E228" s="30"/>
@@ -31618,7 +31618,7 @@
       <c r="BP228" s="10"/>
       <c r="BQ228" s="10"/>
     </row>
-    <row r="229" spans="1:102" s="8" customFormat="1">
+    <row r="229" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A229" s="37" t="s">
         <v>239</v>
       </c>
@@ -32121,7 +32121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:102" s="11" customFormat="1">
+    <row r="232" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A232" s="10"/>
       <c r="B232" s="18"/>
       <c r="E232" s="30"/>
@@ -32172,7 +32172,7 @@
       <c r="BP232" s="10"/>
       <c r="BQ232" s="10"/>
     </row>
-    <row r="233" spans="1:102" s="8" customFormat="1">
+    <row r="233" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A233" s="37" t="s">
         <v>186</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:102" s="11" customFormat="1">
+    <row r="236" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A236" s="10"/>
       <c r="B236" s="18"/>
       <c r="E236" s="30"/>
@@ -32726,7 +32726,7 @@
       <c r="BP236" s="10"/>
       <c r="BQ236" s="10"/>
     </row>
-    <row r="237" spans="1:102" s="8" customFormat="1">
+    <row r="237" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A237" s="37" t="s">
         <v>205</v>
       </c>
@@ -33229,7 +33229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:102" s="11" customFormat="1">
+    <row r="240" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A240" s="10"/>
       <c r="B240" s="18"/>
       <c r="E240" s="30"/>
@@ -33280,7 +33280,7 @@
       <c r="BP240" s="10"/>
       <c r="BQ240" s="10"/>
     </row>
-    <row r="241" spans="1:102" s="26" customFormat="1">
+    <row r="241" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A241" s="23"/>
       <c r="B241" s="24"/>
       <c r="C241" s="23"/>
@@ -33349,7 +33349,7 @@
       <c r="BP241" s="25"/>
       <c r="BQ241" s="25"/>
     </row>
-    <row r="242" spans="1:102" s="11" customFormat="1">
+    <row r="242" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A242" s="10"/>
       <c r="B242" s="18"/>
       <c r="E242" s="30"/>
@@ -33400,7 +33400,7 @@
       <c r="BP242" s="10"/>
       <c r="BQ242" s="10"/>
     </row>
-    <row r="243" spans="1:102" s="26" customFormat="1">
+    <row r="243" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A243" s="23"/>
       <c r="B243" s="24"/>
       <c r="C243" s="23"/>
@@ -33469,7 +33469,7 @@
       <c r="BP243" s="25"/>
       <c r="BQ243" s="25"/>
     </row>
-    <row r="244" spans="1:102" s="26" customFormat="1">
+    <row r="244" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A244" s="23"/>
       <c r="B244" s="24"/>
       <c r="C244" s="23"/>
@@ -33538,7 +33538,7 @@
       <c r="BP244" s="25"/>
       <c r="BQ244" s="25"/>
     </row>
-    <row r="245" spans="1:102" s="26" customFormat="1">
+    <row r="245" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A245" s="23"/>
       <c r="B245" s="24"/>
       <c r="C245" s="23"/>
@@ -33607,7 +33607,7 @@
       <c r="BP245" s="25"/>
       <c r="BQ245" s="25"/>
     </row>
-    <row r="246" spans="1:102" s="26" customFormat="1">
+    <row r="246" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A246" s="23"/>
       <c r="B246" s="24"/>
       <c r="C246" s="23"/>
@@ -33676,7 +33676,7 @@
       <c r="BP246" s="25"/>
       <c r="BQ246" s="25"/>
     </row>
-    <row r="247" spans="1:102" s="11" customFormat="1">
+    <row r="247" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A247" s="10"/>
       <c r="B247" s="18"/>
       <c r="E247" s="10"/>
@@ -33727,7 +33727,7 @@
       <c r="BP247" s="10"/>
       <c r="BQ247" s="10"/>
     </row>
-    <row r="248" spans="1:102" s="11" customFormat="1">
+    <row r="248" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A248" s="10"/>
       <c r="B248" s="18"/>
       <c r="E248" s="10"/>
@@ -33778,7 +33778,7 @@
       <c r="BP248" s="10"/>
       <c r="BQ248" s="10"/>
     </row>
-    <row r="249" spans="1:102" s="11" customFormat="1">
+    <row r="249" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A249" s="10"/>
       <c r="B249" s="18"/>
       <c r="E249" s="10"/>
@@ -33829,7 +33829,7 @@
       <c r="BP249" s="10"/>
       <c r="BQ249" s="10"/>
     </row>
-    <row r="250" spans="1:102" s="11" customFormat="1">
+    <row r="250" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A250" s="10"/>
       <c r="B250" s="18"/>
       <c r="E250" s="10"/>
@@ -33880,7 +33880,7 @@
       <c r="BP250" s="10"/>
       <c r="BQ250" s="10"/>
     </row>
-    <row r="251" spans="1:102" s="11" customFormat="1">
+    <row r="251" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A251" s="10"/>
       <c r="B251" s="18"/>
       <c r="E251" s="10"/>
@@ -33931,7 +33931,7 @@
       <c r="BP251" s="10"/>
       <c r="BQ251" s="10"/>
     </row>
-    <row r="252" spans="1:102" s="11" customFormat="1">
+    <row r="252" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A252" s="10"/>
       <c r="B252" s="18"/>
       <c r="E252" s="10"/>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="23475" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21975" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="328">
   <si>
     <t>TCID</t>
   </si>
@@ -994,6 +994,12 @@
   </si>
   <si>
     <t>MsNew</t>
+  </si>
+  <si>
+    <t>1 :: N :: Y :: N :: N :: N :: N :: N :: N :: N :: N</t>
+  </si>
+  <si>
+    <t>boiler</t>
   </si>
 </sst>
 </file>
@@ -2856,8 +2862,8 @@
   <dimension ref="A1:CX252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A135" sqref="A135"/>
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z141" sqref="Z141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -18561,7 +18567,7 @@
         <v>3</v>
       </c>
       <c r="T133" s="5" t="s">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>311</v>
@@ -19683,7 +19689,7 @@
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
       <c r="Z141" s="12" t="s">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="AA141" s="12" t="s">
         <v>29</v>
@@ -20479,7 +20485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:102" s="11" customFormat="1" ht="409.6">
+    <row r="148" spans="1:102" s="11" customFormat="1">
       <c r="A148" s="10"/>
       <c r="B148" s="18"/>
       <c r="E148" s="30"/>
@@ -20530,7 +20536,7 @@
       <c r="BP148" s="10"/>
       <c r="BQ148" s="10"/>
     </row>
-    <row r="149" spans="1:102" s="8" customFormat="1" ht="409.6">
+    <row r="149" spans="1:102" s="8" customFormat="1">
       <c r="A149" s="37" t="s">
         <v>244</v>
       </c>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="21975" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21615" windowHeight="6810" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="329">
   <si>
     <t>TCID</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>boiler</t>
+  </si>
+  <si>
+    <t>111 :: FIRST AVENUE :: MANHATTAN :: 448 :: 28 :: Apt. MsNew</t>
   </si>
 </sst>
 </file>
@@ -2861,9 +2864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z141" sqref="Z141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -19083,7 +19086,7 @@
         <v>313</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>162</v>
@@ -20485,7 +20488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:102" s="11" customFormat="1">
+    <row r="148" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A148" s="10"/>
       <c r="B148" s="18"/>
       <c r="E148" s="30"/>
@@ -20536,7 +20539,7 @@
       <c r="BP148" s="10"/>
       <c r="BQ148" s="10"/>
     </row>
-    <row r="149" spans="1:102" s="8" customFormat="1">
+    <row r="149" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A149" s="37" t="s">
         <v>244</v>
       </c>

--- a/src/com/data/Test Cases Pl.xlsx
+++ b/src/com/data/Test Cases Pl.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-7230" yWindow="3255" windowWidth="22095" windowHeight="8025" tabRatio="152"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21720" windowHeight="5670" tabRatio="152" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H29"/>
+  <oleSize ref="A39:J56"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="332">
   <si>
     <t>TCID</t>
   </si>
@@ -995,6 +995,24 @@
   <si>
     <t>AJOETEST@GMAIL.COM</t>
   </si>
+  <si>
+    <t>PlSpSdNewStd</t>
+  </si>
+  <si>
+    <t>Plumbing - Sprinkler - Standpipe -- New work --- Standard</t>
+  </si>
+  <si>
+    <t>24442 :: 2800 :: Other :: 100</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Plumbing :: 0 :: 0 :: 1 :: Sprinklers :: Standpipe</t>
+  </si>
+  <si>
+    <t>Plumbing :: 1111 :: 5.00 :: 5555 :: Sprinklers :: 2222 :: 4.00 :: 8888 :: Standpipe :: 3333 :: 3.00 :: 9999</t>
+  </si>
 </sst>
 </file>
 
@@ -1691,7 +1709,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1798,6 +1816,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="128" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="1" xfId="128" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="128" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2231,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2778,7 +2802,9 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1">
-      <c r="A64" s="37"/>
+      <c r="A64" s="37" t="s">
+        <v>326</v>
+      </c>
       <c r="B64" s="31"/>
       <c r="C64" s="33" t="s">
         <v>3</v>
@@ -2895,11 +2921,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX256"/>
+  <dimension ref="A1:CX260"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3003,7 +3029,7 @@
     <col min="103" max="16384" width="27.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="26" customFormat="1">
+    <row r="1" spans="1:102" s="26" customFormat="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="23"/>
@@ -3072,7 +3098,7 @@
       <c r="BP1" s="25"/>
       <c r="BQ1" s="25"/>
     </row>
-    <row r="2" spans="1:93" s="26" customFormat="1">
+    <row r="2" spans="1:102" s="26" customFormat="1">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="23"/>
@@ -3141,7 +3167,7 @@
       <c r="BP2" s="25"/>
       <c r="BQ2" s="25"/>
     </row>
-    <row r="3" spans="1:93" s="26" customFormat="1">
+    <row r="3" spans="1:102" s="26" customFormat="1">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
@@ -3210,7 +3236,7 @@
       <c r="BP3" s="25"/>
       <c r="BQ3" s="25"/>
     </row>
-    <row r="4" spans="1:93" s="8" customFormat="1">
+    <row r="4" spans="1:102" s="8" customFormat="1">
       <c r="A4" s="37" t="s">
         <v>249</v>
       </c>
@@ -3263,7 +3289,7 @@
       <c r="BP4" s="7"/>
       <c r="BQ4" s="7"/>
     </row>
-    <row r="5" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="5" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="6" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3739,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:93" s="8" customFormat="1">
-      <c r="A8" s="37"/>
+    <row r="7" spans="1:102" s="11" customFormat="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="18"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:102" s="8" customFormat="1">
+      <c r="A8" s="37" t="s">
+        <v>326</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3764,439 +3843,811 @@
       <c r="BP8" s="7"/>
       <c r="BQ8" s="7"/>
     </row>
-    <row r="9" spans="1:93" s="9" customFormat="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
+    <row r="9" spans="1:102" s="9" customFormat="1" ht="38.25">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="13"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="13"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="13"/>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="13"/>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="13"/>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="6"/>
-      <c r="CK9" s="6"/>
-      <c r="CL9" s="13"/>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="6"/>
-      <c r="CO9" s="6"/>
+      <c r="AI9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO9" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" s="5" customFormat="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="E10" s="19"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+    <row r="10" spans="1:102" s="5" customFormat="1" ht="76.5">
+      <c r="A10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>329</v>
+      </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="P10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="R10" s="12"/>
-      <c r="W10" s="12"/>
+      <c r="S10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>323</v>
+      </c>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
+      <c r="Z10" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA10" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
+      <c r="AK10" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
+      <c r="AM10" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="12"/>
       <c r="AP10" s="4"/>
       <c r="AR10" s="4"/>
+      <c r="AS10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="AT10" s="12"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
+      <c r="AU10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
+      <c r="AX10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="19"/>
+      <c r="BP10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ10" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:93">
-      <c r="A12" s="30"/>
+    <row r="11" spans="1:102" s="11" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="18"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
     </row>
-    <row r="13" spans="1:93">
-      <c r="A13" s="30"/>
+    <row r="12" spans="1:102" s="8" customFormat="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
     </row>
-    <row r="14" spans="1:93" s="26" customFormat="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
-      <c r="BO14" s="23"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="25"/>
+    <row r="13" spans="1:102" s="9" customFormat="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="14"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="6"/>
+      <c r="BZ13" s="13"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="13"/>
+      <c r="CI13" s="13"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="6"/>
+      <c r="CL13" s="13"/>
+      <c r="CM13" s="13"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="6"/>
     </row>
-    <row r="15" spans="1:93" s="26" customFormat="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="23"/>
-      <c r="BF15" s="23"/>
-      <c r="BG15" s="23"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
-      <c r="BK15" s="23"/>
-      <c r="BL15" s="23"/>
-      <c r="BM15" s="23"/>
-      <c r="BN15" s="23"/>
-      <c r="BO15" s="23"/>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
+    <row r="14" spans="1:102" s="5" customFormat="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="19"/>
     </row>
-    <row r="16" spans="1:93" s="26" customFormat="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
-      <c r="BK16" s="23"/>
-      <c r="BL16" s="23"/>
-      <c r="BM16" s="23"/>
-      <c r="BN16" s="23"/>
-      <c r="BO16" s="23"/>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="25"/>
+    <row r="16" spans="1:102" s="11" customFormat="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="18"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
     </row>
-    <row r="17" spans="1:93" s="26" customFormat="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="23"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="23"/>
-      <c r="AZ17" s="23"/>
-      <c r="BA17" s="23"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="25"/>
-      <c r="BD17" s="25"/>
-      <c r="BE17" s="23"/>
-      <c r="BF17" s="23"/>
-      <c r="BG17" s="23"/>
-      <c r="BH17" s="23"/>
-      <c r="BI17" s="23"/>
-      <c r="BJ17" s="23"/>
-      <c r="BK17" s="23"/>
-      <c r="BL17" s="23"/>
-      <c r="BM17" s="23"/>
-      <c r="BN17" s="23"/>
-      <c r="BO17" s="23"/>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
+    <row r="17" spans="1:102" s="11" customFormat="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="18"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
     </row>
-    <row r="18" spans="1:93" s="26" customFormat="1">
+    <row r="18" spans="1:102" s="26" customFormat="1">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="23"/>
@@ -4265,7 +4716,7 @@
       <c r="BP18" s="25"/>
       <c r="BQ18" s="25"/>
     </row>
-    <row r="19" spans="1:93" s="26" customFormat="1">
+    <row r="19" spans="1:102" s="26" customFormat="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="23"/>
@@ -4334,7 +4785,7 @@
       <c r="BP19" s="25"/>
       <c r="BQ19" s="25"/>
     </row>
-    <row r="20" spans="1:93" s="26" customFormat="1">
+    <row r="20" spans="1:102" s="26" customFormat="1">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="23"/>
@@ -4403,7 +4854,7 @@
       <c r="BP20" s="25"/>
       <c r="BQ20" s="25"/>
     </row>
-    <row r="21" spans="1:93" s="26" customFormat="1">
+    <row r="21" spans="1:102" s="26" customFormat="1">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="23"/>
@@ -4472,7 +4923,7 @@
       <c r="BP21" s="25"/>
       <c r="BQ21" s="25"/>
     </row>
-    <row r="22" spans="1:93" s="26" customFormat="1">
+    <row r="22" spans="1:102" s="26" customFormat="1">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="23"/>
@@ -4541,512 +4992,285 @@
       <c r="BP22" s="25"/>
       <c r="BQ22" s="25"/>
     </row>
-    <row r="23" spans="1:93" s="8" customFormat="1">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:102" s="26" customFormat="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="23"/>
+      <c r="BO23" s="23"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+    </row>
+    <row r="24" spans="1:102" s="26" customFormat="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
+      <c r="BJ24" s="23"/>
+      <c r="BK24" s="23"/>
+      <c r="BL24" s="23"/>
+      <c r="BM24" s="23"/>
+      <c r="BN24" s="23"/>
+      <c r="BO24" s="23"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
+    </row>
+    <row r="25" spans="1:102" s="26" customFormat="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="23"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="23"/>
+      <c r="BN25" s="23"/>
+      <c r="BO25" s="23"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+    </row>
+    <row r="26" spans="1:102" s="26" customFormat="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="23"/>
+      <c r="BO26" s="23"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+    </row>
+    <row r="27" spans="1:102" s="8" customFormat="1">
+      <c r="A27" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-    </row>
-    <row r="24" spans="1:93" s="9" customFormat="1" ht="38.25">
-      <c r="A24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR24" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV24" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK24" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="BN24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO24" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BU24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA24" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH24" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI24" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="CJ24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CN24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO24" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:93" s="5" customFormat="1" ht="38.25">
-      <c r="A25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BL25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO25" s="4"/>
-      <c r="BP25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ25" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:93" s="8" customFormat="1">
-      <c r="A27" s="37" t="s">
-        <v>139</v>
       </c>
       <c r="B27" s="7"/>
       <c r="E27" s="7"/>
@@ -5097,7 +5321,7 @@
       <c r="BP27" s="7"/>
       <c r="BQ27" s="7"/>
     </row>
-    <row r="28" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="28" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
@@ -5374,15 +5598,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:93" s="5" customFormat="1" ht="38.25">
+    <row r="29" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A29" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>140</v>
+        <v>259</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>218</v>
@@ -5391,7 +5615,7 @@
         <v>80</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>4</v>
@@ -5432,13 +5656,13 @@
         <v>269</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>213</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -5547,9 +5771,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:93" s="8" customFormat="1">
+    <row r="31" spans="1:102" s="8" customFormat="1">
       <c r="A31" s="37" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B31" s="7"/>
       <c r="E31" s="7"/>
@@ -5600,7 +5824,7 @@
       <c r="BP31" s="7"/>
       <c r="BQ31" s="7"/>
     </row>
-    <row r="32" spans="1:93" s="9" customFormat="1" ht="38.25">
+    <row r="32" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
@@ -5882,10 +6106,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>7</v>
+        <v>260</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>218</v>
@@ -5894,13 +6118,13 @@
         <v>80</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>3</v>
@@ -5932,16 +6156,16 @@
         <v>3</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>114</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -6050,9 +6274,60 @@
         <v>15</v>
       </c>
     </row>
+    <row r="34" spans="1:102" s="11" customFormat="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+    </row>
     <row r="35" spans="1:102" s="8" customFormat="1">
       <c r="A35" s="37" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B35" s="7"/>
       <c r="E35" s="7"/>
@@ -6385,10 +6660,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>218</v>
@@ -6397,7 +6672,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>4</v>
@@ -6555,7 +6830,7 @@
     </row>
     <row r="39" spans="1:102" s="8" customFormat="1">
       <c r="A39" s="37" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B39" s="7"/>
       <c r="E39" s="7"/>
@@ -6882,19 +7157,16 @@
       <c r="CO40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CP40" s="13" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="41" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A41" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>7</v>
+        <v>142</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>218</v>
@@ -6903,13 +7175,13 @@
         <v>80</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>3</v>
@@ -7058,64 +7330,10 @@
       <c r="BQ41" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CP41" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:102" s="11" customFormat="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="18"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BJ42" s="10"/>
-      <c r="BK42" s="10"/>
-      <c r="BL42" s="10"/>
-      <c r="BM42" s="10"/>
-      <c r="BN42" s="10"/>
-      <c r="BO42" s="10"/>
-      <c r="BP42" s="10"/>
-      <c r="BQ42" s="10"/>
     </row>
     <row r="43" spans="1:102" s="8" customFormat="1">
       <c r="A43" s="37" t="s">
-        <v>319</v>
+        <v>119</v>
       </c>
       <c r="B43" s="7"/>
       <c r="E43" s="7"/>
@@ -7446,7 +7664,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:102" s="5" customFormat="1" ht="51">
+    <row r="45" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A45" s="27" t="s">
         <v>3</v>
       </c>
@@ -7457,10 +7675,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>321</v>
+        <v>218</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>304</v>
@@ -7507,18 +7725,18 @@
         <v>114</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="W45" s="12" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12" t="s">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="AA45" s="12" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="AB45" s="12" t="s">
         <v>3</v>
@@ -7675,7 +7893,7 @@
     </row>
     <row r="47" spans="1:102" s="8" customFormat="1">
       <c r="A47" s="37" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="B47" s="7"/>
       <c r="E47" s="7"/>
@@ -8002,29 +8220,31 @@
       <c r="CO48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CP48" s="13"/>
+      <c r="CP48" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="49" spans="1:102" s="5" customFormat="1" ht="38.25">
+    <row r="49" spans="1:102" s="5" customFormat="1" ht="51">
       <c r="A49" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>140</v>
+        <v>318</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>80</v>
+        <v>320</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>321</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>238</v>
@@ -8065,18 +8285,18 @@
         <v>114</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="W49" s="12" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="AB49" s="12" t="s">
         <v>3</v>
@@ -8176,11 +8396,64 @@
       <c r="BQ49" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CP49" s="13"/>
+      <c r="CP49" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:102" s="11" customFormat="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="18"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BJ50" s="10"/>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="10"/>
+      <c r="BM50" s="10"/>
+      <c r="BN50" s="10"/>
+      <c r="BO50" s="10"/>
+      <c r="BP50" s="10"/>
+      <c r="BQ50" s="10"/>
     </row>
     <row r="51" spans="1:102" s="8" customFormat="1">
       <c r="A51" s="37" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="B51" s="7"/>
       <c r="E51" s="7"/>
@@ -8248,7 +8521,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>103</v>
@@ -8328,14 +8601,14 @@
       <c r="AF52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AG52" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH52" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="14"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ52" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="AK52" s="14" t="s">
         <v>32</v>
       </c>
@@ -8507,16 +8780,17 @@
       <c r="CO52" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="CP52" s="13"/>
     </row>
     <row r="53" spans="1:102" s="5" customFormat="1" ht="38.25">
       <c r="A53" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>7</v>
+        <v>147</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>218</v>
@@ -8524,8 +8798,8 @@
       <c r="E53" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>282</v>
+      <c r="F53" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>4</v>
@@ -8597,12 +8871,8 @@
       <c r="AF53" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AG53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH53" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4" t="s">
         <v>101</v>
@@ -8684,61 +8954,11 @@
       <c r="BQ53" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:102" s="11" customFormat="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AT54" s="10"/>
-      <c r="AU54" s="10"/>
-      <c r="AV54" s="10"/>
-      <c r="AW54" s="10"/>
-      <c r="AX54" s="10"/>
-      <c r="BH54" s="10"/>
-      <c r="BJ54" s="10"/>
-      <c r="BK54" s="10"/>
-      <c r="BL54" s="10"/>
-      <c r="BM54" s="10"/>
-      <c r="BN54" s="10"/>
-      <c r="BO54" s="10"/>
-      <c r="BP54" s="10"/>
-      <c r="BQ54" s="10"/>
+      <c r="CP53" s="13"/>
     </row>
     <row r="55" spans="1:102" s="8" customFormat="1">
       <c r="A55" s="37" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B55" s="7"/>
       <c r="E55" s="7"/>
@@ -9071,7 +9291,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>7</v>
@@ -9243,58 +9463,109 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:102" s="11" customFormat="1">
+    <row r="58" spans="1:102" s="11" customFormat="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="10"/>
+      <c r="BH58" s="10"/>
+      <c r="BJ58" s="10"/>
+      <c r="BK58" s="10"/>
+      <c r="BL58" s="10"/>
+      <c r="BM58" s="10"/>
+      <c r="BN58" s="10"/>
+      <c r="BO58" s="10"/>
+      <c r="BP58" s="10"/>
+      <c r="BQ58" s="10"/>
+    </row>
+    <row r="59" spans="1:102" s="8" customFormat="1">
       <c r="A59" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
-      <c r="AM59" s="10"/>
-      <c r="AN59" s="10"/>
-      <c r="AO59" s="10"/>
-      <c r="AP59" s="10"/>
-      <c r="AR59" s="10"/>
-      <c r="AT59" s="10"/>
-      <c r="AU59" s="10"/>
-      <c r="AV59" s="10"/>
-      <c r="AW59" s="10"/>
-      <c r="AX59" s="10"/>
-      <c r="BH59" s="10"/>
-      <c r="BJ59" s="10"/>
-      <c r="BK59" s="10"/>
-      <c r="BL59" s="10"/>
-      <c r="BM59" s="10"/>
-      <c r="BN59" s="10"/>
-      <c r="BO59" s="10"/>
-      <c r="BP59" s="10"/>
-      <c r="BQ59" s="10"/>
+        <v>288</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="7"/>
+      <c r="AX59" s="7"/>
+      <c r="BH59" s="7"/>
+      <c r="BJ59" s="7"/>
+      <c r="BK59" s="7"/>
+      <c r="BL59" s="7"/>
+      <c r="BM59" s="7"/>
+      <c r="BN59" s="7"/>
+      <c r="BO59" s="7"/>
+      <c r="BP59" s="7"/>
+      <c r="BQ59" s="7"/>
     </row>
     <row r="60" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A60" s="15" t="s">
@@ -9578,7 +9849,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>7</v>
@@ -9590,7 +9861,7 @@
         <v>80</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>4</v>
@@ -9750,58 +10021,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:102" s="8" customFormat="1">
+    <row r="63" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A63" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
-      <c r="AH63" s="7"/>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="7"/>
-      <c r="AM63" s="7"/>
-      <c r="AN63" s="7"/>
-      <c r="AO63" s="7"/>
-      <c r="AP63" s="7"/>
-      <c r="AR63" s="7"/>
-      <c r="AT63" s="7"/>
-      <c r="AU63" s="7"/>
-      <c r="AV63" s="7"/>
-      <c r="AW63" s="7"/>
-      <c r="AX63" s="7"/>
-      <c r="BH63" s="7"/>
-      <c r="BJ63" s="7"/>
-      <c r="BK63" s="7"/>
-      <c r="BL63" s="7"/>
-      <c r="BM63" s="7"/>
-      <c r="BN63" s="7"/>
-      <c r="BO63" s="7"/>
-      <c r="BP63" s="7"/>
-      <c r="BQ63" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="10"/>
+      <c r="AR63" s="10"/>
+      <c r="AT63" s="10"/>
+      <c r="AU63" s="10"/>
+      <c r="AV63" s="10"/>
+      <c r="AW63" s="10"/>
+      <c r="AX63" s="10"/>
+      <c r="BH63" s="10"/>
+      <c r="BJ63" s="10"/>
+      <c r="BK63" s="10"/>
+      <c r="BL63" s="10"/>
+      <c r="BM63" s="10"/>
+      <c r="BN63" s="10"/>
+      <c r="BO63" s="10"/>
+      <c r="BP63" s="10"/>
+      <c r="BQ63" s="10"/>
     </row>
     <row r="64" spans="1:102" s="9" customFormat="1" ht="38.25">
       <c r="A64" s="15" t="s">
@@ -10085,7 +10356,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>7</v>
@@ -10097,7 +10368,7 @@
         <v>80</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>4</v>
@@ -10257,9 +10528,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:102" s="8" customFormat="1">
+    <row r="67" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A67" s="37" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B67" s="7"/>
       <c r="E67" s="7"/>
@@ -10327,7 +10598,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>103</v>
@@ -10375,7 +10646,7 @@
         <v>27</v>
       </c>
       <c r="V68" s="16" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="W68" s="16" t="s">
         <v>28</v>
@@ -10407,14 +10678,14 @@
       <c r="AF68" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ68" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="AG68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI68" s="13"/>
+      <c r="AJ68" s="14"/>
       <c r="AK68" s="14" t="s">
         <v>32</v>
       </c>
@@ -10592,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>7</v>
@@ -10603,8 +10874,8 @@
       <c r="E69" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>304</v>
+      <c r="F69" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>4</v>
@@ -10648,7 +10919,7 @@
         <v>114</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="W69" s="12" t="s">
         <v>209</v>
@@ -10656,7 +10927,7 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
       <c r="Z69" s="12" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="AA69" s="12" t="s">
         <v>29</v>
@@ -10676,8 +10947,12 @@
       <c r="AF69" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
+      <c r="AG69" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH69" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4" t="s">
         <v>101</v>
@@ -10760,9 +11035,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:102" s="8" customFormat="1">
+    <row r="71" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A71" s="37" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B71" s="7"/>
       <c r="E71" s="7"/>
@@ -11095,7 +11370,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>7</v>
@@ -11151,7 +11426,7 @@
         <v>114</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="W73" s="12" t="s">
         <v>209</v>
@@ -11263,9 +11538,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:102" s="8" customFormat="1">
+    <row r="75" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A75" s="37" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="B75" s="7"/>
       <c r="E75" s="7"/>
@@ -11381,7 +11656,7 @@
         <v>27</v>
       </c>
       <c r="V76" s="16" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="W76" s="16" t="s">
         <v>28</v>
@@ -11598,7 +11873,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>7</v>
@@ -11616,13 +11891,13 @@
         <v>4</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>108</v>
@@ -11648,21 +11923,21 @@
         <v>3</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="W77" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12" t="s">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="AA77" s="12" t="s">
         <v>29</v>
@@ -11747,7 +12022,7 @@
         <v>3</v>
       </c>
       <c r="BK77" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BL77" s="4" t="s">
         <v>43</v>
@@ -11766,9 +12041,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:102" s="8" customFormat="1">
+    <row r="79" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A79" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B79" s="7"/>
       <c r="E79" s="7"/>
@@ -12101,10 +12376,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>140</v>
+        <v>266</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>218</v>
@@ -12113,7 +12388,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>4</v>
@@ -12269,60 +12544,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:102" s="11" customFormat="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="18"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
-      <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
-      <c r="AH82" s="10"/>
-      <c r="AJ82" s="10"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="10"/>
-      <c r="AM82" s="10"/>
-      <c r="AN82" s="10"/>
-      <c r="AO82" s="10"/>
-      <c r="AP82" s="10"/>
-      <c r="AR82" s="10"/>
-      <c r="AT82" s="10"/>
-      <c r="AU82" s="10"/>
-      <c r="AV82" s="10"/>
-      <c r="AW82" s="10"/>
-      <c r="AX82" s="10"/>
-      <c r="BH82" s="10"/>
-      <c r="BJ82" s="10"/>
-      <c r="BK82" s="10"/>
-      <c r="BL82" s="10"/>
-      <c r="BM82" s="10"/>
-      <c r="BN82" s="10"/>
-      <c r="BO82" s="10"/>
-      <c r="BP82" s="10"/>
-      <c r="BQ82" s="10"/>
-    </row>
-    <row r="83" spans="1:102" s="8" customFormat="1">
+    <row r="83" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A83" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B83" s="7"/>
       <c r="E83" s="7"/>
@@ -12655,10 +12879,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>7</v>
+        <v>267</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>218</v>
@@ -12667,19 +12891,19 @@
         <v>80</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>108</v>
@@ -12705,16 +12929,16 @@
         <v>3</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W85" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
@@ -12823,9 +13047,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:102" s="8" customFormat="1">
+    <row r="86" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A86" s="10"/>
+      <c r="B86" s="18"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+      <c r="AH86" s="10"/>
+      <c r="AJ86" s="10"/>
+      <c r="AK86" s="10"/>
+      <c r="AL86" s="10"/>
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="10"/>
+      <c r="AO86" s="10"/>
+      <c r="AP86" s="10"/>
+      <c r="AR86" s="10"/>
+      <c r="AT86" s="10"/>
+      <c r="AU86" s="10"/>
+      <c r="AV86" s="10"/>
+      <c r="AW86" s="10"/>
+      <c r="AX86" s="10"/>
+      <c r="BH86" s="10"/>
+      <c r="BJ86" s="10"/>
+      <c r="BK86" s="10"/>
+      <c r="BL86" s="10"/>
+      <c r="BM86" s="10"/>
+      <c r="BN86" s="10"/>
+      <c r="BO86" s="10"/>
+      <c r="BP86" s="10"/>
+      <c r="BQ86" s="10"/>
+    </row>
+    <row r="87" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A87" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B87" s="7"/>
       <c r="E87" s="7"/>
@@ -13158,10 +13433,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>140</v>
+        <v>263</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>218</v>
@@ -13170,7 +13445,7 @@
         <v>80</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>4</v>
@@ -13326,9 +13601,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:102" s="8" customFormat="1">
+    <row r="91" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A91" s="37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B91" s="7"/>
       <c r="E91" s="7"/>
@@ -13661,10 +13936,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>7</v>
+        <v>264</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>218</v>
@@ -13673,19 +13948,19 @@
         <v>80</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>108</v>
@@ -13711,10 +13986,10 @@
         <v>3</v>
       </c>
       <c r="T93" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>274</v>
@@ -13829,9 +14104,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:102" s="8" customFormat="1">
+    <row r="95" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A95" s="37" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B95" s="7"/>
       <c r="E95" s="7"/>
@@ -14164,10 +14439,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>140</v>
+        <v>265</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>218</v>
@@ -14176,7 +14451,7 @@
         <v>80</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>4</v>
@@ -14332,60 +14607,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:102" s="11" customFormat="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="18"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="30"/>
-      <c r="R98" s="30"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-      <c r="X98" s="10"/>
-      <c r="Y98" s="10"/>
-      <c r="Z98" s="10"/>
-      <c r="AA98" s="10"/>
-      <c r="AB98" s="10"/>
-      <c r="AC98" s="10"/>
-      <c r="AD98" s="10"/>
-      <c r="AE98" s="10"/>
-      <c r="AF98" s="10"/>
-      <c r="AG98" s="10"/>
-      <c r="AH98" s="10"/>
-      <c r="AJ98" s="10"/>
-      <c r="AK98" s="10"/>
-      <c r="AL98" s="10"/>
-      <c r="AM98" s="10"/>
-      <c r="AN98" s="10"/>
-      <c r="AO98" s="10"/>
-      <c r="AP98" s="10"/>
-      <c r="AR98" s="10"/>
-      <c r="AT98" s="10"/>
-      <c r="AU98" s="10"/>
-      <c r="AV98" s="10"/>
-      <c r="AW98" s="10"/>
-      <c r="AX98" s="10"/>
-      <c r="BH98" s="10"/>
-      <c r="BJ98" s="10"/>
-      <c r="BK98" s="10"/>
-      <c r="BL98" s="10"/>
-      <c r="BM98" s="10"/>
-      <c r="BN98" s="10"/>
-      <c r="BO98" s="10"/>
-      <c r="BP98" s="10"/>
-      <c r="BQ98" s="10"/>
-    </row>
-    <row r="99" spans="1:102" s="8" customFormat="1">
+    <row r="99" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A99" s="37" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="B99" s="7"/>
       <c r="E99" s="7"/>
@@ -14718,37 +14942,37 @@
         <v>3</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>7</v>
+        <v>268</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>108</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>162</v>
@@ -14768,16 +14992,16 @@
         <v>3</v>
       </c>
       <c r="T101" s="5" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="U101" s="5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="V101" s="5" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="W101" s="12" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
@@ -14867,7 +15091,7 @@
         <v>3</v>
       </c>
       <c r="BK101" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BL101" s="4" t="s">
         <v>43</v>
@@ -14886,7 +15110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:102" s="11" customFormat="1">
+    <row r="102" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A102" s="10"/>
       <c r="B102" s="18"/>
       <c r="E102" s="10"/>
@@ -14937,9 +15161,9 @@
       <c r="BP102" s="10"/>
       <c r="BQ102" s="10"/>
     </row>
-    <row r="103" spans="1:102" s="8" customFormat="1">
+    <row r="103" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A103" s="37" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B103" s="7"/>
       <c r="E103" s="7"/>
@@ -15272,10 +15496,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>140</v>
+        <v>134</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>218</v>
@@ -15284,10 +15508,10 @@
         <v>136</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>245</v>
@@ -15302,7 +15526,7 @@
         <v>108</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>162</v>
@@ -15328,10 +15552,10 @@
         <v>137</v>
       </c>
       <c r="V105" s="5" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="W105" s="12" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
@@ -15440,9 +15664,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:102" s="8" customFormat="1">
+    <row r="106" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A106" s="10"/>
+      <c r="B106" s="18"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="30"/>
+      <c r="R106" s="30"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="10"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="10"/>
+      <c r="AG106" s="10"/>
+      <c r="AH106" s="10"/>
+      <c r="AJ106" s="10"/>
+      <c r="AK106" s="10"/>
+      <c r="AL106" s="10"/>
+      <c r="AM106" s="10"/>
+      <c r="AN106" s="10"/>
+      <c r="AO106" s="10"/>
+      <c r="AP106" s="10"/>
+      <c r="AR106" s="10"/>
+      <c r="AT106" s="10"/>
+      <c r="AU106" s="10"/>
+      <c r="AV106" s="10"/>
+      <c r="AW106" s="10"/>
+      <c r="AX106" s="10"/>
+      <c r="BH106" s="10"/>
+      <c r="BJ106" s="10"/>
+      <c r="BK106" s="10"/>
+      <c r="BL106" s="10"/>
+      <c r="BM106" s="10"/>
+      <c r="BN106" s="10"/>
+      <c r="BO106" s="10"/>
+      <c r="BP106" s="10"/>
+      <c r="BQ106" s="10"/>
+    </row>
+    <row r="107" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A107" s="37" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B107" s="7"/>
       <c r="E107" s="7"/>
@@ -15775,25 +16050,25 @@
         <v>3</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>7</v>
+        <v>154</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>3</v>
@@ -15825,28 +16100,34 @@
         <v>3</v>
       </c>
       <c r="T109" s="5" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="U109" s="5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V109" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W109" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AA109" s="12"/>
+      <c r="AA109" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="AB109" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
+      <c r="AC109" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD109" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="AE109" s="12" t="s">
         <v>100</v>
       </c>
@@ -15937,9 +16218,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:102" s="8" customFormat="1">
+    <row r="111" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A111" s="37" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B111" s="7"/>
       <c r="E111" s="7"/>
@@ -16272,10 +16553,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>140</v>
+        <v>261</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>218</v>
@@ -16284,7 +16565,7 @@
         <v>81</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>4</v>
@@ -16434,9 +16715,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:102" s="8" customFormat="1">
+    <row r="115" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A115" s="37" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B115" s="7"/>
       <c r="E115" s="7"/>
@@ -16769,10 +17050,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>7</v>
+        <v>262</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>218</v>
@@ -16781,13 +17062,13 @@
         <v>81</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>3</v>
@@ -16819,16 +17100,16 @@
         <v>3</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="U117" s="5" t="s">
         <v>122</v>
       </c>
       <c r="V117" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W117" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
@@ -16931,61 +17212,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:102" s="11" customFormat="1">
-      <c r="A118" s="10"/>
-      <c r="B118" s="18"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="I118" s="5"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-      <c r="X118" s="10"/>
-      <c r="Y118" s="10"/>
-      <c r="Z118" s="10"/>
-      <c r="AA118" s="10"/>
-      <c r="AB118" s="10"/>
-      <c r="AC118" s="10"/>
-      <c r="AD118" s="10"/>
-      <c r="AE118" s="10"/>
-      <c r="AF118" s="10"/>
-      <c r="AG118" s="10"/>
-      <c r="AH118" s="10"/>
-      <c r="AJ118" s="10"/>
-      <c r="AK118" s="10"/>
-      <c r="AL118" s="10"/>
-      <c r="AM118" s="10"/>
-      <c r="AN118" s="10"/>
-      <c r="AO118" s="10"/>
-      <c r="AP118" s="10"/>
-      <c r="AR118" s="10"/>
-      <c r="AT118" s="10"/>
-      <c r="AU118" s="10"/>
-      <c r="AV118" s="10"/>
-      <c r="AW118" s="10"/>
-      <c r="AX118" s="10"/>
-      <c r="BH118" s="10"/>
-      <c r="BJ118" s="10"/>
-      <c r="BK118" s="10"/>
-      <c r="BL118" s="10"/>
-      <c r="BM118" s="10"/>
-      <c r="BN118" s="10"/>
-      <c r="BO118" s="10"/>
-      <c r="BP118" s="10"/>
-      <c r="BQ118" s="10"/>
-    </row>
-    <row r="119" spans="1:102" s="8" customFormat="1">
+    <row r="119" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A119" s="37" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B119" s="7"/>
       <c r="E119" s="7"/>
@@ -17318,7 +17547,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>7</v>
@@ -17480,7 +17709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:102" s="11" customFormat="1">
+    <row r="122" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A122" s="10"/>
       <c r="B122" s="18"/>
       <c r="E122" s="10"/>
@@ -17532,7 +17761,7 @@
       <c r="BP122" s="10"/>
       <c r="BQ122" s="10"/>
     </row>
-    <row r="123" spans="1:102" s="8" customFormat="1">
+    <row r="123" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A123" s="37" t="s">
         <v>150</v>
       </c>
@@ -17869,8 +18098,8 @@
       <c r="B125" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>140</v>
+      <c r="C125" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>218</v>
@@ -17879,7 +18108,7 @@
         <v>81</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>4</v>
@@ -18029,9 +18258,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:102" s="8" customFormat="1">
+    <row r="126" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A126" s="10"/>
+      <c r="B126" s="18"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="I126" s="5"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="10"/>
+      <c r="Z126" s="10"/>
+      <c r="AA126" s="10"/>
+      <c r="AB126" s="10"/>
+      <c r="AC126" s="10"/>
+      <c r="AD126" s="10"/>
+      <c r="AE126" s="10"/>
+      <c r="AF126" s="10"/>
+      <c r="AG126" s="10"/>
+      <c r="AH126" s="10"/>
+      <c r="AJ126" s="10"/>
+      <c r="AK126" s="10"/>
+      <c r="AL126" s="10"/>
+      <c r="AM126" s="10"/>
+      <c r="AN126" s="10"/>
+      <c r="AO126" s="10"/>
+      <c r="AP126" s="10"/>
+      <c r="AR126" s="10"/>
+      <c r="AT126" s="10"/>
+      <c r="AU126" s="10"/>
+      <c r="AV126" s="10"/>
+      <c r="AW126" s="10"/>
+      <c r="AX126" s="10"/>
+      <c r="BH126" s="10"/>
+      <c r="BJ126" s="10"/>
+      <c r="BK126" s="10"/>
+      <c r="BL126" s="10"/>
+      <c r="BM126" s="10"/>
+      <c r="BN126" s="10"/>
+      <c r="BO126" s="10"/>
+      <c r="BP126" s="10"/>
+      <c r="BQ126" s="10"/>
+    </row>
+    <row r="127" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A127" s="37" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B127" s="7"/>
       <c r="E127" s="7"/>
@@ -18364,10 +18645,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>7</v>
+        <v>151</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>218</v>
@@ -18376,13 +18657,13 @@
         <v>81</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>3</v>
@@ -18394,7 +18675,7 @@
         <v>108</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>162</v>
@@ -18420,10 +18701,10 @@
         <v>122</v>
       </c>
       <c r="V129" s="5" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="W129" s="12" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
@@ -18526,7 +18807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:102" s="11" customFormat="1">
+    <row r="130" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A130" s="10"/>
       <c r="B130" s="18"/>
       <c r="E130" s="10"/>
@@ -18577,9 +18858,9 @@
       <c r="BP130" s="10"/>
       <c r="BQ130" s="10"/>
     </row>
-    <row r="131" spans="1:102" s="8" customFormat="1">
+    <row r="131" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A131" s="37" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B131" s="7"/>
       <c r="E131" s="7"/>
@@ -18912,10 +19193,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="38" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>218</v>
@@ -18924,10 +19205,10 @@
         <v>81</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>238</v>
@@ -18942,7 +19223,7 @@
         <v>108</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M133" s="12" t="s">
         <v>162</v>
@@ -18968,10 +19249,10 @@
         <v>122</v>
       </c>
       <c r="V133" s="5" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="W133" s="12" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="X133" s="12"/>
       <c r="Y133" s="12"/>
@@ -19074,7 +19355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:102" s="11" customFormat="1">
+    <row r="134" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A134" s="10"/>
       <c r="B134" s="18"/>
       <c r="E134" s="10"/>
@@ -19125,701 +19406,695 @@
       <c r="BP134" s="10"/>
       <c r="BQ134" s="10"/>
     </row>
-    <row r="135" spans="1:102" s="26" customFormat="1">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
-      <c r="N135" s="25"/>
-      <c r="O135" s="25"/>
-      <c r="P135" s="25"/>
-      <c r="Q135" s="25"/>
-      <c r="R135" s="25"/>
-      <c r="S135" s="23"/>
-      <c r="T135" s="23"/>
-      <c r="U135" s="25"/>
-      <c r="V135" s="25"/>
-      <c r="W135" s="25"/>
-      <c r="X135" s="25"/>
-      <c r="Y135" s="25"/>
-      <c r="Z135" s="25"/>
-      <c r="AA135" s="25"/>
-      <c r="AB135" s="25"/>
-      <c r="AC135" s="25"/>
-      <c r="AD135" s="25"/>
-      <c r="AE135" s="25"/>
-      <c r="AF135" s="25"/>
-      <c r="AG135" s="25"/>
-      <c r="AH135" s="25"/>
-      <c r="AJ135" s="23"/>
-      <c r="AK135" s="23"/>
-      <c r="AL135" s="23"/>
-      <c r="AM135" s="23"/>
-      <c r="AN135" s="23"/>
-      <c r="AO135" s="25"/>
-      <c r="AP135" s="23"/>
-      <c r="AR135" s="23"/>
-      <c r="AS135" s="23"/>
-      <c r="AT135" s="25"/>
-      <c r="AU135" s="23"/>
-      <c r="AV135" s="23"/>
-      <c r="AW135" s="23"/>
-      <c r="AX135" s="23"/>
-      <c r="AY135" s="23"/>
-      <c r="AZ135" s="23"/>
-      <c r="BA135" s="23"/>
-      <c r="BB135" s="25"/>
-      <c r="BC135" s="25"/>
-      <c r="BD135" s="25"/>
-      <c r="BE135" s="23"/>
-      <c r="BF135" s="23"/>
-      <c r="BG135" s="23"/>
-      <c r="BH135" s="23"/>
-      <c r="BI135" s="23"/>
-      <c r="BJ135" s="23"/>
-      <c r="BK135" s="23"/>
-      <c r="BL135" s="23"/>
-      <c r="BM135" s="23"/>
-      <c r="BN135" s="23"/>
-      <c r="BO135" s="23"/>
-      <c r="BP135" s="25"/>
-      <c r="BQ135" s="25"/>
+    <row r="135" spans="1:102" s="8" customFormat="1" ht="409.6">
+      <c r="A135" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="7"/>
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
+      <c r="AC135" s="7"/>
+      <c r="AD135" s="7"/>
+      <c r="AE135" s="7"/>
+      <c r="AF135" s="7"/>
+      <c r="AG135" s="7"/>
+      <c r="AH135" s="7"/>
+      <c r="AJ135" s="7"/>
+      <c r="AK135" s="7"/>
+      <c r="AL135" s="7"/>
+      <c r="AM135" s="7"/>
+      <c r="AN135" s="7"/>
+      <c r="AO135" s="7"/>
+      <c r="AP135" s="7"/>
+      <c r="AR135" s="7"/>
+      <c r="AT135" s="7"/>
+      <c r="AU135" s="7"/>
+      <c r="AV135" s="7"/>
+      <c r="AW135" s="7"/>
+      <c r="AX135" s="7"/>
+      <c r="BH135" s="7"/>
+      <c r="BJ135" s="7"/>
+      <c r="BK135" s="7"/>
+      <c r="BL135" s="7"/>
+      <c r="BM135" s="7"/>
+      <c r="BN135" s="7"/>
+      <c r="BO135" s="7"/>
+      <c r="BP135" s="7"/>
+      <c r="BQ135" s="7"/>
     </row>
-    <row r="136" spans="1:102" s="26" customFormat="1">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="25"/>
-      <c r="O136" s="25"/>
-      <c r="P136" s="25"/>
-      <c r="Q136" s="25"/>
-      <c r="R136" s="25"/>
-      <c r="S136" s="23"/>
-      <c r="T136" s="23"/>
-      <c r="U136" s="25"/>
-      <c r="V136" s="25"/>
-      <c r="W136" s="25"/>
-      <c r="X136" s="25"/>
-      <c r="Y136" s="25"/>
-      <c r="Z136" s="25"/>
-      <c r="AA136" s="25"/>
-      <c r="AB136" s="25"/>
-      <c r="AC136" s="25"/>
-      <c r="AD136" s="25"/>
-      <c r="AE136" s="25"/>
-      <c r="AF136" s="25"/>
-      <c r="AG136" s="25"/>
-      <c r="AH136" s="25"/>
-      <c r="AJ136" s="23"/>
-      <c r="AK136" s="23"/>
-      <c r="AL136" s="23"/>
-      <c r="AM136" s="23"/>
-      <c r="AN136" s="23"/>
-      <c r="AO136" s="25"/>
-      <c r="AP136" s="23"/>
-      <c r="AR136" s="23"/>
-      <c r="AS136" s="23"/>
-      <c r="AT136" s="25"/>
-      <c r="AU136" s="23"/>
-      <c r="AV136" s="23"/>
-      <c r="AW136" s="23"/>
-      <c r="AX136" s="23"/>
-      <c r="AY136" s="23"/>
-      <c r="AZ136" s="23"/>
-      <c r="BA136" s="23"/>
-      <c r="BB136" s="25"/>
-      <c r="BC136" s="25"/>
-      <c r="BD136" s="25"/>
-      <c r="BE136" s="23"/>
-      <c r="BF136" s="23"/>
-      <c r="BG136" s="23"/>
-      <c r="BH136" s="23"/>
-      <c r="BI136" s="23"/>
-      <c r="BJ136" s="23"/>
-      <c r="BK136" s="23"/>
-      <c r="BL136" s="23"/>
-      <c r="BM136" s="23"/>
-      <c r="BN136" s="23"/>
-      <c r="BO136" s="23"/>
-      <c r="BP136" s="25"/>
-      <c r="BQ136" s="25"/>
+    <row r="136" spans="1:102" s="9" customFormat="1" ht="38.25">
+      <c r="A136" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R136" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S136" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T136" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U136" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V136" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W136" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y136" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z136" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA136" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB136" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC136" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD136" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE136" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF136" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG136" s="6"/>
+      <c r="AH136" s="6"/>
+      <c r="AI136" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ136" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK136" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL136" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM136" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN136" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO136" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP136" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ136" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR136" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS136" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT136" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU136" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV136" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW136" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX136" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY136" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ136" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA136" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB136" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC136" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD136" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE136" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF136" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG136" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH136" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI136" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ136" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK136" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL136" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM136" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN136" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO136" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP136" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ136" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR136" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS136" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT136" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU136" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV136" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW136" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX136" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY136" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ136" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA136" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB136" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC136" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD136" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE136" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF136" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG136" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH136" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI136" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ136" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK136" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL136" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM136" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN136" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO136" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="137" spans="1:102" s="8" customFormat="1">
-      <c r="A137" s="37" t="s">
+    <row r="137" spans="1:102" s="5" customFormat="1" ht="38.25">
+      <c r="A137" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N137" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q137" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R137" s="12"/>
+      <c r="S137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T137" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="U137" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V137" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="W137" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC137" s="12"/>
+      <c r="AD137" s="12"/>
+      <c r="AE137" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF137" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG137" s="12"/>
+      <c r="AH137" s="12"/>
+      <c r="AJ137" s="4"/>
+      <c r="AK137" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL137" s="4"/>
+      <c r="AM137" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN137" s="4"/>
+      <c r="AO137" s="12"/>
+      <c r="AP137" s="4"/>
+      <c r="AR137" s="4"/>
+      <c r="AS137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT137" s="12"/>
+      <c r="AU137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW137" s="4"/>
+      <c r="AX137" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY137" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ137" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA137" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB137" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC137" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD137" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH137" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK137" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM137" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO137" s="4"/>
+      <c r="BP137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ137" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A138" s="10"/>
+      <c r="B138" s="18"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="10"/>
+      <c r="Z138" s="10"/>
+      <c r="AA138" s="10"/>
+      <c r="AB138" s="10"/>
+      <c r="AC138" s="10"/>
+      <c r="AD138" s="10"/>
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="10"/>
+      <c r="AG138" s="10"/>
+      <c r="AH138" s="10"/>
+      <c r="AJ138" s="10"/>
+      <c r="AK138" s="10"/>
+      <c r="AL138" s="10"/>
+      <c r="AM138" s="10"/>
+      <c r="AN138" s="10"/>
+      <c r="AO138" s="10"/>
+      <c r="AP138" s="10"/>
+      <c r="AR138" s="10"/>
+      <c r="AT138" s="10"/>
+      <c r="AU138" s="10"/>
+      <c r="AV138" s="10"/>
+      <c r="AW138" s="10"/>
+      <c r="AX138" s="10"/>
+      <c r="BH138" s="10"/>
+      <c r="BJ138" s="10"/>
+      <c r="BK138" s="10"/>
+      <c r="BL138" s="10"/>
+      <c r="BM138" s="10"/>
+      <c r="BN138" s="10"/>
+      <c r="BO138" s="10"/>
+      <c r="BP138" s="10"/>
+      <c r="BQ138" s="10"/>
+    </row>
+    <row r="139" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="23"/>
+      <c r="T139" s="23"/>
+      <c r="U139" s="25"/>
+      <c r="V139" s="25"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="25"/>
+      <c r="Y139" s="25"/>
+      <c r="Z139" s="25"/>
+      <c r="AA139" s="25"/>
+      <c r="AB139" s="25"/>
+      <c r="AC139" s="25"/>
+      <c r="AD139" s="25"/>
+      <c r="AE139" s="25"/>
+      <c r="AF139" s="25"/>
+      <c r="AG139" s="25"/>
+      <c r="AH139" s="25"/>
+      <c r="AJ139" s="23"/>
+      <c r="AK139" s="23"/>
+      <c r="AL139" s="23"/>
+      <c r="AM139" s="23"/>
+      <c r="AN139" s="23"/>
+      <c r="AO139" s="25"/>
+      <c r="AP139" s="23"/>
+      <c r="AR139" s="23"/>
+      <c r="AS139" s="23"/>
+      <c r="AT139" s="25"/>
+      <c r="AU139" s="23"/>
+      <c r="AV139" s="23"/>
+      <c r="AW139" s="23"/>
+      <c r="AX139" s="23"/>
+      <c r="AY139" s="23"/>
+      <c r="AZ139" s="23"/>
+      <c r="BA139" s="23"/>
+      <c r="BB139" s="25"/>
+      <c r="BC139" s="25"/>
+      <c r="BD139" s="25"/>
+      <c r="BE139" s="23"/>
+      <c r="BF139" s="23"/>
+      <c r="BG139" s="23"/>
+      <c r="BH139" s="23"/>
+      <c r="BI139" s="23"/>
+      <c r="BJ139" s="23"/>
+      <c r="BK139" s="23"/>
+      <c r="BL139" s="23"/>
+      <c r="BM139" s="23"/>
+      <c r="BN139" s="23"/>
+      <c r="BO139" s="23"/>
+      <c r="BP139" s="25"/>
+      <c r="BQ139" s="25"/>
+    </row>
+    <row r="140" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="23"/>
+      <c r="T140" s="23"/>
+      <c r="U140" s="25"/>
+      <c r="V140" s="25"/>
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+      <c r="Y140" s="25"/>
+      <c r="Z140" s="25"/>
+      <c r="AA140" s="25"/>
+      <c r="AB140" s="25"/>
+      <c r="AC140" s="25"/>
+      <c r="AD140" s="25"/>
+      <c r="AE140" s="25"/>
+      <c r="AF140" s="25"/>
+      <c r="AG140" s="25"/>
+      <c r="AH140" s="25"/>
+      <c r="AJ140" s="23"/>
+      <c r="AK140" s="23"/>
+      <c r="AL140" s="23"/>
+      <c r="AM140" s="23"/>
+      <c r="AN140" s="23"/>
+      <c r="AO140" s="25"/>
+      <c r="AP140" s="23"/>
+      <c r="AR140" s="23"/>
+      <c r="AS140" s="23"/>
+      <c r="AT140" s="25"/>
+      <c r="AU140" s="23"/>
+      <c r="AV140" s="23"/>
+      <c r="AW140" s="23"/>
+      <c r="AX140" s="23"/>
+      <c r="AY140" s="23"/>
+      <c r="AZ140" s="23"/>
+      <c r="BA140" s="23"/>
+      <c r="BB140" s="25"/>
+      <c r="BC140" s="25"/>
+      <c r="BD140" s="25"/>
+      <c r="BE140" s="23"/>
+      <c r="BF140" s="23"/>
+      <c r="BG140" s="23"/>
+      <c r="BH140" s="23"/>
+      <c r="BI140" s="23"/>
+      <c r="BJ140" s="23"/>
+      <c r="BK140" s="23"/>
+      <c r="BL140" s="23"/>
+      <c r="BM140" s="23"/>
+      <c r="BN140" s="23"/>
+      <c r="BO140" s="23"/>
+      <c r="BP140" s="25"/>
+      <c r="BQ140" s="25"/>
+    </row>
+    <row r="141" spans="1:102" s="8" customFormat="1" ht="409.6">
+      <c r="A141" s="37" t="s">
         <v>192</v>
-      </c>
-      <c r="B137" s="7"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="28"/>
-      <c r="R137" s="28"/>
-      <c r="U137" s="7"/>
-      <c r="V137" s="7"/>
-      <c r="W137" s="7"/>
-      <c r="X137" s="7"/>
-      <c r="Y137" s="7"/>
-      <c r="Z137" s="7"/>
-      <c r="AA137" s="7"/>
-      <c r="AB137" s="7"/>
-      <c r="AC137" s="7"/>
-      <c r="AD137" s="7"/>
-      <c r="AE137" s="7"/>
-      <c r="AF137" s="7"/>
-      <c r="AG137" s="7"/>
-      <c r="AH137" s="7"/>
-      <c r="AJ137" s="7"/>
-      <c r="AK137" s="7"/>
-      <c r="AL137" s="7"/>
-      <c r="AM137" s="7"/>
-      <c r="AN137" s="7"/>
-      <c r="AO137" s="7"/>
-      <c r="AP137" s="7"/>
-      <c r="AR137" s="7"/>
-      <c r="AT137" s="7"/>
-      <c r="AU137" s="7"/>
-      <c r="AV137" s="7"/>
-      <c r="AW137" s="7"/>
-      <c r="AX137" s="7"/>
-      <c r="BH137" s="7"/>
-      <c r="BJ137" s="7"/>
-      <c r="BK137" s="7"/>
-      <c r="BL137" s="7"/>
-      <c r="BM137" s="7"/>
-      <c r="BN137" s="7"/>
-      <c r="BO137" s="7"/>
-      <c r="BP137" s="7"/>
-      <c r="BQ137" s="7"/>
-    </row>
-    <row r="138" spans="1:102" s="9" customFormat="1" ht="38.25">
-      <c r="A138" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J138" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K138" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M138" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N138" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O138" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P138" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q138" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R138" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S138" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T138" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U138" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="V138" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W138" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="X138" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y138" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z138" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA138" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB138" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC138" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD138" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE138" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF138" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG138" s="6"/>
-      <c r="AH138" s="6"/>
-      <c r="AI138" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ138" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK138" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL138" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM138" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN138" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO138" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP138" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ138" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR138" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS138" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT138" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU138" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV138" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW138" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX138" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY138" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ138" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA138" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB138" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC138" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD138" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE138" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF138" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG138" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH138" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI138" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ138" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK138" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL138" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM138" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="BN138" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO138" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP138" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ138" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR138" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS138" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT138" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BU138" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV138" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW138" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX138" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY138" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ138" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA138" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB138" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC138" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD138" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE138" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF138" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG138" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH138" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI138" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="CJ138" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK138" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL138" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM138" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CN138" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO138" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="139" spans="1:102" s="5" customFormat="1" ht="38.25">
-      <c r="A139" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O139" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="P139" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R139" s="12"/>
-      <c r="S139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T139" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="U139" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="V139" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="W139" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="X139" s="12"/>
-      <c r="Y139" s="12"/>
-      <c r="Z139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA139" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD139" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE139" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF139" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG139" s="12"/>
-      <c r="AH139" s="12"/>
-      <c r="AJ139" s="4"/>
-      <c r="AK139" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL139" s="4"/>
-      <c r="AM139" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN139" s="4"/>
-      <c r="AO139" s="12"/>
-      <c r="AP139" s="4"/>
-      <c r="AR139" s="4"/>
-      <c r="AS139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT139" s="12"/>
-      <c r="AU139" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV139" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW139" s="4"/>
-      <c r="AX139" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY139" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ139" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA139" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB139" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC139" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD139" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH139" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK139" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BL139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM139" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO139" s="4"/>
-      <c r="BP139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ139" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:102" s="11" customFormat="1">
-      <c r="A140" s="10"/>
-      <c r="B140" s="18"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="30"/>
-      <c r="R140" s="30"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="10"/>
-      <c r="W140" s="10"/>
-      <c r="X140" s="10"/>
-      <c r="Y140" s="10"/>
-      <c r="Z140" s="10"/>
-      <c r="AA140" s="10"/>
-      <c r="AB140" s="10"/>
-      <c r="AC140" s="10"/>
-      <c r="AD140" s="10"/>
-      <c r="AE140" s="10"/>
-      <c r="AF140" s="10"/>
-      <c r="AG140" s="10"/>
-      <c r="AH140" s="10"/>
-      <c r="AJ140" s="10"/>
-      <c r="AK140" s="10"/>
-      <c r="AL140" s="10"/>
-      <c r="AM140" s="10"/>
-      <c r="AN140" s="10"/>
-      <c r="AO140" s="10"/>
-      <c r="AP140" s="10"/>
-      <c r="AR140" s="10"/>
-      <c r="AT140" s="10"/>
-      <c r="AU140" s="10"/>
-      <c r="AV140" s="10"/>
-      <c r="AW140" s="10"/>
-      <c r="AX140" s="10"/>
-      <c r="BH140" s="10"/>
-      <c r="BJ140" s="10"/>
-      <c r="BK140" s="10"/>
-      <c r="BL140" s="10"/>
-      <c r="BM140" s="10"/>
-      <c r="BN140" s="10"/>
-      <c r="BO140" s="10"/>
-      <c r="BP140" s="10"/>
-      <c r="BQ140" s="10"/>
-    </row>
-    <row r="141" spans="1:102" s="8" customFormat="1">
-      <c r="A141" s="37" t="s">
-        <v>241</v>
       </c>
       <c r="B141" s="7"/>
       <c r="E141" s="28"/>
@@ -20152,10 +20427,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C143" s="38" t="s">
-        <v>140</v>
+        <v>193</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>218</v>
@@ -20164,7 +20439,7 @@
         <v>190</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>159</v>
@@ -20320,7 +20595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:102" s="11" customFormat="1">
+    <row r="144" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A144" s="10"/>
       <c r="B144" s="18"/>
       <c r="E144" s="30"/>
@@ -20371,9 +20646,9 @@
       <c r="BP144" s="10"/>
       <c r="BQ144" s="10"/>
     </row>
-    <row r="145" spans="1:102" s="8" customFormat="1">
+    <row r="145" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A145" s="37" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="B145" s="7"/>
       <c r="E145" s="28"/>
@@ -20706,10 +20981,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>7</v>
+        <v>244</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>218</v>
@@ -20718,13 +20993,13 @@
         <v>190</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>3</v>
@@ -20874,7 +21149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:102" s="11" customFormat="1">
+    <row r="148" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A148" s="10"/>
       <c r="B148" s="18"/>
       <c r="E148" s="30"/>
@@ -20925,9 +21200,9 @@
       <c r="BP148" s="10"/>
       <c r="BQ148" s="10"/>
     </row>
-    <row r="149" spans="1:102" s="8" customFormat="1">
+    <row r="149" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A149" s="37" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B149" s="7"/>
       <c r="E149" s="28"/>
@@ -21260,10 +21535,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>140</v>
+        <v>189</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>218</v>
@@ -21272,7 +21547,7 @@
         <v>190</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>159</v>
@@ -21481,7 +21756,7 @@
     </row>
     <row r="153" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A153" s="37" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="B153" s="7"/>
       <c r="E153" s="28"/>
@@ -21814,25 +22089,25 @@
         <v>3</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>7</v>
+        <v>243</v>
+      </c>
+      <c r="C155" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I155" s="5" t="s">
         <v>3</v>
@@ -21850,21 +22125,21 @@
       <c r="N155" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O155" s="12"/>
+      <c r="O155" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="P155" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q155" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R155" s="12" t="s">
-        <v>166</v>
-      </c>
+      <c r="R155" s="12"/>
       <c r="S155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>223</v>
@@ -22035,7 +22310,7 @@
     </row>
     <row r="157" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A157" s="37" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B157" s="7"/>
       <c r="E157" s="28"/>
@@ -22368,10 +22643,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C159" s="38" t="s">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>218</v>
@@ -22380,7 +22655,7 @@
         <v>257</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>159</v>
@@ -22589,7 +22864,7 @@
     </row>
     <row r="161" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A161" s="37" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B161" s="7"/>
       <c r="E161" s="28"/>
@@ -22922,10 +23197,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>7</v>
+        <v>207</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>218</v>
@@ -22934,13 +23209,13 @@
         <v>257</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>3</v>
@@ -22958,21 +23233,21 @@
       <c r="N163" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O163" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="O163" s="12"/>
       <c r="P163" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q163" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R163" s="12"/>
+      <c r="R163" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="S163" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T163" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U163" s="5" t="s">
         <v>223</v>
@@ -23143,7 +23418,7 @@
     </row>
     <row r="165" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A165" s="37" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B165" s="7"/>
       <c r="E165" s="28"/>
@@ -23476,10 +23751,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C167" s="38" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>218</v>
@@ -23488,7 +23763,7 @@
         <v>257</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>159</v>
@@ -23697,7 +23972,7 @@
     </row>
     <row r="169" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A169" s="37" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="B169" s="7"/>
       <c r="E169" s="28"/>
@@ -24030,10 +24305,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>218</v>
@@ -24042,7 +24317,7 @@
         <v>257</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>159</v>
@@ -24251,7 +24526,7 @@
     </row>
     <row r="173" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A173" s="37" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B173" s="7"/>
       <c r="E173" s="28"/>
@@ -24584,10 +24859,10 @@
         <v>3</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C175" s="38" t="s">
-        <v>140</v>
+        <v>176</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>218</v>
@@ -24596,7 +24871,7 @@
         <v>257</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>159</v>
@@ -24805,7 +25080,7 @@
     </row>
     <row r="177" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A177" s="37" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B177" s="7"/>
       <c r="E177" s="28"/>
@@ -25138,10 +25413,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C179" s="21" t="s">
-        <v>7</v>
+        <v>204</v>
+      </c>
+      <c r="C179" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>218</v>
@@ -25150,13 +25425,13 @@
         <v>257</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>3</v>
@@ -25174,21 +25449,21 @@
       <c r="N179" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O179" s="12"/>
+      <c r="O179" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="P179" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q179" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R179" s="12" t="s">
-        <v>166</v>
-      </c>
+      <c r="R179" s="12"/>
       <c r="S179" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="U179" s="5" t="s">
         <v>223</v>
@@ -25359,7 +25634,7 @@
     </row>
     <row r="181" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A181" s="37" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B181" s="7"/>
       <c r="E181" s="28"/>
@@ -25692,10 +25967,10 @@
         <v>3</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C183" s="38" t="s">
-        <v>140</v>
+        <v>172</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>218</v>
@@ -25704,7 +25979,7 @@
         <v>257</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>159</v>
@@ -25913,7 +26188,7 @@
     </row>
     <row r="185" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A185" s="37" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B185" s="7"/>
       <c r="E185" s="28"/>
@@ -26246,10 +26521,10 @@
         <v>3</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>7</v>
+        <v>198</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>218</v>
@@ -26258,13 +26533,13 @@
         <v>257</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>3</v>
@@ -26282,21 +26557,21 @@
       <c r="N187" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O187" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="O187" s="12"/>
       <c r="P187" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q187" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R187" s="12"/>
+      <c r="R187" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="S187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T187" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U187" s="5" t="s">
         <v>223</v>
@@ -26467,7 +26742,7 @@
     </row>
     <row r="189" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A189" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B189" s="7"/>
       <c r="E189" s="28"/>
@@ -26800,10 +27075,10 @@
         <v>3</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>140</v>
+        <v>232</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>218</v>
@@ -26812,7 +27087,7 @@
         <v>257</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>159</v>
@@ -27021,7 +27296,7 @@
     </row>
     <row r="193" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A193" s="37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B193" s="7"/>
       <c r="E193" s="28"/>
@@ -27354,10 +27629,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>7</v>
+        <v>234</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>218</v>
@@ -27366,13 +27641,13 @@
         <v>257</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="I195" s="5" t="s">
         <v>3</v>
@@ -27575,7 +27850,7 @@
     </row>
     <row r="197" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A197" s="37" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B197" s="7"/>
       <c r="E197" s="28"/>
@@ -27910,8 +28185,8 @@
       <c r="B199" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C199" s="38" t="s">
-        <v>140</v>
+      <c r="C199" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>218</v>
@@ -27920,7 +28195,7 @@
         <v>257</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>159</v>
@@ -28129,7 +28404,7 @@
     </row>
     <row r="201" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A201" s="37" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B201" s="7"/>
       <c r="E201" s="28"/>
@@ -28462,65 +28737,63 @@
         <v>3</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>7</v>
+        <v>228</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E203" s="19" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K203" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L203" s="12" t="s">
-        <v>303</v>
-      </c>
+      <c r="L203" s="12"/>
       <c r="M203" s="12" t="s">
         <v>162</v>
       </c>
       <c r="N203" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O203" s="12"/>
+      <c r="O203" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="P203" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q203" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R203" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="R203" s="12"/>
       <c r="S203" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T203" s="5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="U203" s="5" t="s">
         <v>223</v>
       </c>
       <c r="V203" s="5" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="W203" s="12" t="s">
         <v>209</v>
@@ -28685,7 +28958,7 @@
     </row>
     <row r="205" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A205" s="37" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B205" s="7"/>
       <c r="E205" s="28"/>
@@ -29018,10 +29291,10 @@
         <v>3</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C207" s="38" t="s">
-        <v>140</v>
+        <v>169</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>218</v>
@@ -29030,7 +29303,7 @@
         <v>157</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>159</v>
@@ -29241,7 +29514,7 @@
     </row>
     <row r="209" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A209" s="37" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B209" s="7"/>
       <c r="E209" s="28"/>
@@ -29574,10 +29847,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C211" s="21" t="s">
-        <v>7</v>
+        <v>227</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>218</v>
@@ -29586,13 +29859,13 @@
         <v>157</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>3</v>
@@ -29632,7 +29905,7 @@
         <v>223</v>
       </c>
       <c r="V211" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W211" s="12" t="s">
         <v>209</v>
@@ -29797,7 +30070,7 @@
     </row>
     <row r="213" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A213" s="37" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B213" s="7"/>
       <c r="E213" s="28"/>
@@ -30130,10 +30403,10 @@
         <v>3</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C215" s="38" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>218</v>
@@ -30142,7 +30415,7 @@
         <v>157</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>159</v>
@@ -30188,7 +30461,7 @@
         <v>223</v>
       </c>
       <c r="V215" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W215" s="12" t="s">
         <v>209</v>
@@ -30353,7 +30626,7 @@
     </row>
     <row r="217" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A217" s="37" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B217" s="7"/>
       <c r="E217" s="28"/>
@@ -30686,57 +30959,59 @@
         <v>3</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>7</v>
+        <v>195</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E219" s="19" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K219" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L219" s="12"/>
+      <c r="L219" s="12" t="s">
+        <v>303</v>
+      </c>
       <c r="M219" s="12" t="s">
         <v>162</v>
       </c>
       <c r="N219" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O219" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="O219" s="12"/>
       <c r="P219" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q219" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R219" s="12"/>
+      <c r="R219" s="12" t="s">
+        <v>226</v>
+      </c>
       <c r="S219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="U219" s="5" t="s">
         <v>223</v>
@@ -30907,7 +31182,7 @@
     </row>
     <row r="221" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A221" s="37" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="B221" s="7"/>
       <c r="E221" s="28"/>
@@ -31240,10 +31515,10 @@
         <v>3</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C223" s="38" t="s">
-        <v>140</v>
+        <v>186</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>218</v>
@@ -31252,7 +31527,7 @@
         <v>258</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>159</v>
@@ -31461,7 +31736,7 @@
     </row>
     <row r="225" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A225" s="37" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="B225" s="7"/>
       <c r="E225" s="28"/>
@@ -31794,10 +32069,10 @@
         <v>3</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C227" s="21" t="s">
-        <v>7</v>
+        <v>237</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>218</v>
@@ -31806,13 +32081,13 @@
         <v>258</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>159</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>3</v>
@@ -32015,7 +32290,7 @@
     </row>
     <row r="229" spans="1:102" s="8" customFormat="1" ht="409.6">
       <c r="A229" s="37" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B229" s="7"/>
       <c r="E229" s="28"/>
@@ -32348,10 +32623,10 @@
         <v>3</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C231" s="38" t="s">
-        <v>140</v>
+        <v>184</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>218</v>
@@ -32360,7 +32635,7 @@
         <v>258</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>159</v>
@@ -32567,263 +32842,559 @@
       <c r="BP232" s="10"/>
       <c r="BQ232" s="10"/>
     </row>
-    <row r="233" spans="1:102" s="26" customFormat="1" ht="409.6">
-      <c r="A233" s="23"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="23"/>
-      <c r="D233" s="23"/>
-      <c r="E233" s="25"/>
-      <c r="F233" s="23"/>
-      <c r="G233" s="23"/>
-      <c r="H233" s="23"/>
-      <c r="I233" s="23"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-      <c r="L233" s="25"/>
-      <c r="M233" s="25"/>
-      <c r="N233" s="25"/>
-      <c r="O233" s="25"/>
-      <c r="P233" s="25"/>
-      <c r="Q233" s="25"/>
-      <c r="R233" s="25"/>
-      <c r="S233" s="23"/>
-      <c r="T233" s="23"/>
-      <c r="U233" s="25"/>
-      <c r="V233" s="25"/>
-      <c r="W233" s="25"/>
-      <c r="X233" s="25"/>
-      <c r="Y233" s="25"/>
-      <c r="Z233" s="25"/>
-      <c r="AA233" s="25"/>
-      <c r="AB233" s="25"/>
-      <c r="AC233" s="25"/>
-      <c r="AD233" s="25"/>
-      <c r="AE233" s="25"/>
-      <c r="AF233" s="25"/>
-      <c r="AG233" s="25"/>
-      <c r="AH233" s="25"/>
-      <c r="AJ233" s="23"/>
-      <c r="AK233" s="23"/>
-      <c r="AL233" s="23"/>
-      <c r="AM233" s="23"/>
-      <c r="AN233" s="23"/>
-      <c r="AO233" s="25"/>
-      <c r="AP233" s="23"/>
-      <c r="AR233" s="23"/>
-      <c r="AS233" s="23"/>
-      <c r="AT233" s="25"/>
-      <c r="AU233" s="23"/>
-      <c r="AV233" s="23"/>
-      <c r="AW233" s="23"/>
-      <c r="AX233" s="23"/>
-      <c r="AY233" s="23"/>
-      <c r="AZ233" s="23"/>
-      <c r="BA233" s="23"/>
-      <c r="BB233" s="25"/>
-      <c r="BC233" s="25"/>
-      <c r="BD233" s="25"/>
-      <c r="BE233" s="23"/>
-      <c r="BF233" s="23"/>
-      <c r="BG233" s="23"/>
-      <c r="BH233" s="23"/>
-      <c r="BI233" s="23"/>
-      <c r="BJ233" s="23"/>
-      <c r="BK233" s="23"/>
-      <c r="BL233" s="23"/>
-      <c r="BM233" s="23"/>
-      <c r="BN233" s="23"/>
-      <c r="BO233" s="23"/>
-      <c r="BP233" s="25"/>
-      <c r="BQ233" s="25"/>
+    <row r="233" spans="1:102" s="8" customFormat="1" ht="409.6">
+      <c r="A233" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B233" s="7"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="28"/>
+      <c r="R233" s="28"/>
+      <c r="U233" s="7"/>
+      <c r="V233" s="7"/>
+      <c r="W233" s="7"/>
+      <c r="X233" s="7"/>
+      <c r="Y233" s="7"/>
+      <c r="Z233" s="7"/>
+      <c r="AA233" s="7"/>
+      <c r="AB233" s="7"/>
+      <c r="AC233" s="7"/>
+      <c r="AD233" s="7"/>
+      <c r="AE233" s="7"/>
+      <c r="AF233" s="7"/>
+      <c r="AG233" s="7"/>
+      <c r="AH233" s="7"/>
+      <c r="AJ233" s="7"/>
+      <c r="AK233" s="7"/>
+      <c r="AL233" s="7"/>
+      <c r="AM233" s="7"/>
+      <c r="AN233" s="7"/>
+      <c r="AO233" s="7"/>
+      <c r="AP233" s="7"/>
+      <c r="AR233" s="7"/>
+      <c r="AT233" s="7"/>
+      <c r="AU233" s="7"/>
+      <c r="AV233" s="7"/>
+      <c r="AW233" s="7"/>
+      <c r="AX233" s="7"/>
+      <c r="BH233" s="7"/>
+      <c r="BJ233" s="7"/>
+      <c r="BK233" s="7"/>
+      <c r="BL233" s="7"/>
+      <c r="BM233" s="7"/>
+      <c r="BN233" s="7"/>
+      <c r="BO233" s="7"/>
+      <c r="BP233" s="7"/>
+      <c r="BQ233" s="7"/>
     </row>
-    <row r="234" spans="1:102" s="11" customFormat="1" ht="409.6">
-      <c r="A234" s="10"/>
-      <c r="B234" s="18"/>
-      <c r="E234" s="30"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="K234" s="29"/>
-      <c r="L234" s="10"/>
-      <c r="M234" s="10"/>
-      <c r="N234" s="10"/>
-      <c r="O234" s="10"/>
-      <c r="P234" s="10"/>
-      <c r="Q234" s="30"/>
-      <c r="R234" s="30"/>
-      <c r="U234" s="10"/>
-      <c r="V234" s="10"/>
-      <c r="W234" s="10"/>
-      <c r="X234" s="10"/>
-      <c r="Y234" s="10"/>
-      <c r="Z234" s="10"/>
-      <c r="AA234" s="10"/>
-      <c r="AB234" s="10"/>
-      <c r="AC234" s="10"/>
-      <c r="AD234" s="10"/>
-      <c r="AE234" s="10"/>
-      <c r="AF234" s="10"/>
-      <c r="AG234" s="10"/>
-      <c r="AH234" s="10"/>
-      <c r="AJ234" s="10"/>
-      <c r="AK234" s="10"/>
-      <c r="AL234" s="10"/>
-      <c r="AM234" s="10"/>
-      <c r="AN234" s="10"/>
-      <c r="AO234" s="10"/>
-      <c r="AP234" s="10"/>
-      <c r="AR234" s="10"/>
-      <c r="AT234" s="10"/>
-      <c r="AU234" s="10"/>
-      <c r="AV234" s="10"/>
-      <c r="AW234" s="10"/>
-      <c r="AX234" s="10"/>
-      <c r="BH234" s="10"/>
-      <c r="BJ234" s="10"/>
-      <c r="BK234" s="10"/>
-      <c r="BL234" s="10"/>
-      <c r="BM234" s="10"/>
-      <c r="BN234" s="10"/>
-      <c r="BO234" s="10"/>
-      <c r="BP234" s="10"/>
-      <c r="BQ234" s="10"/>
+    <row r="234" spans="1:102" s="9" customFormat="1" ht="38.25">
+      <c r="A234" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H234" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J234" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K234" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L234" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M234" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O234" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P234" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q234" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R234" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S234" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T234" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U234" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V234" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W234" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X234" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y234" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z234" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA234" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB234" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC234" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD234" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE234" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF234" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG234" s="6"/>
+      <c r="AH234" s="6"/>
+      <c r="AI234" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ234" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK234" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL234" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM234" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN234" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO234" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP234" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ234" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR234" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS234" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT234" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU234" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV234" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW234" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX234" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY234" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ234" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA234" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB234" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC234" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD234" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE234" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF234" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG234" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH234" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI234" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ234" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK234" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL234" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM234" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN234" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO234" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP234" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ234" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR234" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS234" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT234" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU234" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV234" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW234" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX234" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY234" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ234" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA234" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB234" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC234" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CD234" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE234" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF234" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG234" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH234" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI234" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ234" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK234" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL234" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM234" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN234" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO234" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="235" spans="1:102" s="26" customFormat="1" ht="409.6">
-      <c r="A235" s="23"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="23"/>
-      <c r="E235" s="25"/>
-      <c r="F235" s="23"/>
-      <c r="G235" s="23"/>
-      <c r="H235" s="23"/>
-      <c r="I235" s="23"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23"/>
-      <c r="L235" s="25"/>
-      <c r="M235" s="25"/>
-      <c r="N235" s="25"/>
-      <c r="O235" s="25"/>
-      <c r="P235" s="25"/>
-      <c r="Q235" s="25"/>
-      <c r="R235" s="25"/>
-      <c r="S235" s="23"/>
-      <c r="T235" s="23"/>
-      <c r="U235" s="25"/>
-      <c r="V235" s="25"/>
-      <c r="W235" s="25"/>
-      <c r="X235" s="25"/>
-      <c r="Y235" s="25"/>
-      <c r="Z235" s="25"/>
-      <c r="AA235" s="25"/>
-      <c r="AB235" s="25"/>
-      <c r="AC235" s="25"/>
-      <c r="AD235" s="25"/>
-      <c r="AE235" s="25"/>
-      <c r="AF235" s="25"/>
-      <c r="AG235" s="25"/>
-      <c r="AH235" s="25"/>
-      <c r="AJ235" s="23"/>
-      <c r="AK235" s="23"/>
-      <c r="AL235" s="23"/>
-      <c r="AM235" s="23"/>
-      <c r="AN235" s="23"/>
-      <c r="AO235" s="25"/>
-      <c r="AP235" s="23"/>
-      <c r="AR235" s="23"/>
-      <c r="AS235" s="23"/>
-      <c r="AT235" s="25"/>
-      <c r="AU235" s="23"/>
-      <c r="AV235" s="23"/>
-      <c r="AW235" s="23"/>
-      <c r="AX235" s="23"/>
-      <c r="AY235" s="23"/>
-      <c r="AZ235" s="23"/>
-      <c r="BA235" s="23"/>
-      <c r="BB235" s="25"/>
-      <c r="BC235" s="25"/>
-      <c r="BD235" s="25"/>
-      <c r="BE235" s="23"/>
-      <c r="BF235" s="23"/>
-      <c r="BG235" s="23"/>
-      <c r="BH235" s="23"/>
-      <c r="BI235" s="23"/>
-      <c r="BJ235" s="23"/>
-      <c r="BK235" s="23"/>
-      <c r="BL235" s="23"/>
-      <c r="BM235" s="23"/>
-      <c r="BN235" s="23"/>
-      <c r="BO235" s="23"/>
-      <c r="BP235" s="25"/>
-      <c r="BQ235" s="25"/>
+    <row r="235" spans="1:102" s="5" customFormat="1" ht="38.25">
+      <c r="A235" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E235" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K235" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O235" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P235" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R235" s="12"/>
+      <c r="S235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T235" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U235" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="V235" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="W235" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="X235" s="12"/>
+      <c r="Y235" s="12"/>
+      <c r="Z235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA235" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC235" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD235" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE235" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF235" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG235" s="12"/>
+      <c r="AH235" s="12"/>
+      <c r="AJ235" s="4"/>
+      <c r="AK235" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL235" s="4"/>
+      <c r="AM235" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN235" s="4"/>
+      <c r="AO235" s="12"/>
+      <c r="AP235" s="4"/>
+      <c r="AR235" s="4"/>
+      <c r="AS235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT235" s="12"/>
+      <c r="AU235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV235" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW235" s="4"/>
+      <c r="AX235" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY235" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ235" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA235" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB235" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC235" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD235" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF235" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG235" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH235" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK235" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL235" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM235" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO235" s="4"/>
+      <c r="BP235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ235" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="236" spans="1:102" s="26" customFormat="1" ht="409.6">
-      <c r="A236" s="23"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="23"/>
-      <c r="E236" s="25"/>
-      <c r="F236" s="23"/>
-      <c r="G236" s="23"/>
-      <c r="H236" s="23"/>
-      <c r="I236" s="23"/>
-      <c r="J236" s="23"/>
-      <c r="K236" s="23"/>
-      <c r="L236" s="25"/>
-      <c r="M236" s="25"/>
-      <c r="N236" s="25"/>
-      <c r="O236" s="25"/>
-      <c r="P236" s="25"/>
-      <c r="Q236" s="25"/>
-      <c r="R236" s="25"/>
-      <c r="S236" s="23"/>
-      <c r="T236" s="23"/>
-      <c r="U236" s="25"/>
-      <c r="V236" s="25"/>
-      <c r="W236" s="25"/>
-      <c r="X236" s="25"/>
-      <c r="Y236" s="25"/>
-      <c r="Z236" s="25"/>
-      <c r="AA236" s="25"/>
-      <c r="AB236" s="25"/>
-      <c r="AC236" s="25"/>
-      <c r="AD236" s="25"/>
-      <c r="AE236" s="25"/>
-      <c r="AF236" s="25"/>
-      <c r="AG236" s="25"/>
-      <c r="AH236" s="25"/>
-      <c r="AJ236" s="23"/>
-      <c r="AK236" s="23"/>
-      <c r="AL236" s="23"/>
-      <c r="AM236" s="23"/>
-      <c r="AN236" s="23"/>
-      <c r="AO236" s="25"/>
-      <c r="AP236" s="23"/>
-      <c r="AR236" s="23"/>
-      <c r="AS236" s="23"/>
-      <c r="AT236" s="25"/>
-      <c r="AU236" s="23"/>
-      <c r="AV236" s="23"/>
-      <c r="AW236" s="23"/>
-      <c r="AX236" s="23"/>
-      <c r="AY236" s="23"/>
-      <c r="AZ236" s="23"/>
-      <c r="BA236" s="23"/>
-      <c r="BB236" s="25"/>
-      <c r="BC236" s="25"/>
-      <c r="BD236" s="25"/>
-      <c r="BE236" s="23"/>
-      <c r="BF236" s="23"/>
-      <c r="BG236" s="23"/>
-      <c r="BH236" s="23"/>
-      <c r="BI236" s="23"/>
-      <c r="BJ236" s="23"/>
-      <c r="BK236" s="23"/>
-      <c r="BL236" s="23"/>
-      <c r="BM236" s="23"/>
-      <c r="BN236" s="23"/>
-      <c r="BO236" s="23"/>
-      <c r="BP236" s="25"/>
-      <c r="BQ236" s="25"/>
+    <row r="236" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A236" s="10"/>
+      <c r="B236" s="18"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="K236" s="29"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10"/>
+      <c r="Q236" s="30"/>
+      <c r="R236" s="30"/>
+      <c r="U236" s="10"/>
+      <c r="V236" s="10"/>
+      <c r="W236" s="10"/>
+      <c r="X236" s="10"/>
+      <c r="Y236" s="10"/>
+      <c r="Z236" s="10"/>
+      <c r="AA236" s="10"/>
+      <c r="AB236" s="10"/>
+      <c r="AC236" s="10"/>
+      <c r="AD236" s="10"/>
+      <c r="AE236" s="10"/>
+      <c r="AF236" s="10"/>
+      <c r="AG236" s="10"/>
+      <c r="AH236" s="10"/>
+      <c r="AJ236" s="10"/>
+      <c r="AK236" s="10"/>
+      <c r="AL236" s="10"/>
+      <c r="AM236" s="10"/>
+      <c r="AN236" s="10"/>
+      <c r="AO236" s="10"/>
+      <c r="AP236" s="10"/>
+      <c r="AR236" s="10"/>
+      <c r="AT236" s="10"/>
+      <c r="AU236" s="10"/>
+      <c r="AV236" s="10"/>
+      <c r="AW236" s="10"/>
+      <c r="AX236" s="10"/>
+      <c r="BH236" s="10"/>
+      <c r="BJ236" s="10"/>
+      <c r="BK236" s="10"/>
+      <c r="BL236" s="10"/>
+      <c r="BM236" s="10"/>
+      <c r="BN236" s="10"/>
+      <c r="BO236" s="10"/>
+      <c r="BP236" s="10"/>
+      <c r="BQ236" s="10"/>
     </row>
     <row r="237" spans="1:102" s="26" customFormat="1" ht="409.6">
       <c r="A237" s="23"/>
@@ -32894,278 +33465,332 @@
       <c r="BP237" s="25"/>
       <c r="BQ237" s="25"/>
     </row>
-    <row r="238" spans="1:102" s="26" customFormat="1" ht="409.6">
-      <c r="A238" s="23"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="23"/>
-      <c r="E238" s="25"/>
-      <c r="F238" s="23"/>
-      <c r="G238" s="23"/>
-      <c r="H238" s="23"/>
-      <c r="I238" s="23"/>
-      <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-      <c r="L238" s="25"/>
-      <c r="M238" s="25"/>
-      <c r="N238" s="25"/>
-      <c r="O238" s="25"/>
-      <c r="P238" s="25"/>
-      <c r="Q238" s="25"/>
-      <c r="R238" s="25"/>
-      <c r="S238" s="23"/>
-      <c r="T238" s="23"/>
-      <c r="U238" s="25"/>
-      <c r="V238" s="25"/>
-      <c r="W238" s="25"/>
-      <c r="X238" s="25"/>
-      <c r="Y238" s="25"/>
-      <c r="Z238" s="25"/>
-      <c r="AA238" s="25"/>
-      <c r="AB238" s="25"/>
-      <c r="AC238" s="25"/>
-      <c r="AD238" s="25"/>
-      <c r="AE238" s="25"/>
-      <c r="AF238" s="25"/>
-      <c r="AG238" s="25"/>
-      <c r="AH238" s="25"/>
-      <c r="AJ238" s="23"/>
-      <c r="AK238" s="23"/>
-      <c r="AL238" s="23"/>
-      <c r="AM238" s="23"/>
-      <c r="AN238" s="23"/>
-      <c r="AO238" s="25"/>
-      <c r="AP238" s="23"/>
-      <c r="AR238" s="23"/>
-      <c r="AS238" s="23"/>
-      <c r="AT238" s="25"/>
-      <c r="AU238" s="23"/>
-      <c r="AV238" s="23"/>
-      <c r="AW238" s="23"/>
-      <c r="AX238" s="23"/>
-      <c r="AY238" s="23"/>
-      <c r="AZ238" s="23"/>
-      <c r="BA238" s="23"/>
-      <c r="BB238" s="25"/>
-      <c r="BC238" s="25"/>
-      <c r="BD238" s="25"/>
-      <c r="BE238" s="23"/>
-      <c r="BF238" s="23"/>
-      <c r="BG238" s="23"/>
-      <c r="BH238" s="23"/>
-      <c r="BI238" s="23"/>
-      <c r="BJ238" s="23"/>
-      <c r="BK238" s="23"/>
-      <c r="BL238" s="23"/>
-      <c r="BM238" s="23"/>
-      <c r="BN238" s="23"/>
-      <c r="BO238" s="23"/>
-      <c r="BP238" s="25"/>
-      <c r="BQ238" s="25"/>
+    <row r="238" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A238" s="10"/>
+      <c r="B238" s="18"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="K238" s="29"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="30"/>
+      <c r="R238" s="30"/>
+      <c r="U238" s="10"/>
+      <c r="V238" s="10"/>
+      <c r="W238" s="10"/>
+      <c r="X238" s="10"/>
+      <c r="Y238" s="10"/>
+      <c r="Z238" s="10"/>
+      <c r="AA238" s="10"/>
+      <c r="AB238" s="10"/>
+      <c r="AC238" s="10"/>
+      <c r="AD238" s="10"/>
+      <c r="AE238" s="10"/>
+      <c r="AF238" s="10"/>
+      <c r="AG238" s="10"/>
+      <c r="AH238" s="10"/>
+      <c r="AJ238" s="10"/>
+      <c r="AK238" s="10"/>
+      <c r="AL238" s="10"/>
+      <c r="AM238" s="10"/>
+      <c r="AN238" s="10"/>
+      <c r="AO238" s="10"/>
+      <c r="AP238" s="10"/>
+      <c r="AR238" s="10"/>
+      <c r="AT238" s="10"/>
+      <c r="AU238" s="10"/>
+      <c r="AV238" s="10"/>
+      <c r="AW238" s="10"/>
+      <c r="AX238" s="10"/>
+      <c r="BH238" s="10"/>
+      <c r="BJ238" s="10"/>
+      <c r="BK238" s="10"/>
+      <c r="BL238" s="10"/>
+      <c r="BM238" s="10"/>
+      <c r="BN238" s="10"/>
+      <c r="BO238" s="10"/>
+      <c r="BP238" s="10"/>
+      <c r="BQ238" s="10"/>
     </row>
-    <row r="239" spans="1:102" s="11" customFormat="1" ht="409.6">
-      <c r="A239" s="10"/>
-      <c r="B239" s="18"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="K239" s="29"/>
-      <c r="L239" s="10"/>
-      <c r="M239" s="10"/>
-      <c r="N239" s="10"/>
-      <c r="O239" s="10"/>
-      <c r="P239" s="10"/>
-      <c r="Q239" s="30"/>
-      <c r="R239" s="30"/>
-      <c r="U239" s="10"/>
-      <c r="V239" s="10"/>
-      <c r="W239" s="10"/>
-      <c r="X239" s="10"/>
-      <c r="Y239" s="10"/>
-      <c r="Z239" s="10"/>
-      <c r="AA239" s="10"/>
-      <c r="AB239" s="10"/>
-      <c r="AC239" s="10"/>
-      <c r="AD239" s="10"/>
-      <c r="AE239" s="10"/>
-      <c r="AF239" s="10"/>
-      <c r="AG239" s="10"/>
-      <c r="AH239" s="10"/>
-      <c r="AJ239" s="10"/>
-      <c r="AK239" s="10"/>
-      <c r="AL239" s="10"/>
-      <c r="AM239" s="10"/>
-      <c r="AN239" s="10"/>
-      <c r="AO239" s="10"/>
-      <c r="AP239" s="10"/>
-      <c r="AR239" s="10"/>
-      <c r="AT239" s="10"/>
-      <c r="AU239" s="10"/>
-      <c r="AV239" s="10"/>
-      <c r="AW239" s="10"/>
-      <c r="AX239" s="10"/>
-      <c r="BH239" s="10"/>
-      <c r="BJ239" s="10"/>
-      <c r="BK239" s="10"/>
-      <c r="BL239" s="10"/>
-      <c r="BM239" s="10"/>
-      <c r="BN239" s="10"/>
-      <c r="BO239" s="10"/>
-      <c r="BP239" s="10"/>
-      <c r="BQ239" s="10"/>
+    <row r="239" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A239" s="23"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="25"/>
+      <c r="M239" s="25"/>
+      <c r="N239" s="25"/>
+      <c r="O239" s="25"/>
+      <c r="P239" s="25"/>
+      <c r="Q239" s="25"/>
+      <c r="R239" s="25"/>
+      <c r="S239" s="23"/>
+      <c r="T239" s="23"/>
+      <c r="U239" s="25"/>
+      <c r="V239" s="25"/>
+      <c r="W239" s="25"/>
+      <c r="X239" s="25"/>
+      <c r="Y239" s="25"/>
+      <c r="Z239" s="25"/>
+      <c r="AA239" s="25"/>
+      <c r="AB239" s="25"/>
+      <c r="AC239" s="25"/>
+      <c r="AD239" s="25"/>
+      <c r="AE239" s="25"/>
+      <c r="AF239" s="25"/>
+      <c r="AG239" s="25"/>
+      <c r="AH239" s="25"/>
+      <c r="AJ239" s="23"/>
+      <c r="AK239" s="23"/>
+      <c r="AL239" s="23"/>
+      <c r="AM239" s="23"/>
+      <c r="AN239" s="23"/>
+      <c r="AO239" s="25"/>
+      <c r="AP239" s="23"/>
+      <c r="AR239" s="23"/>
+      <c r="AS239" s="23"/>
+      <c r="AT239" s="25"/>
+      <c r="AU239" s="23"/>
+      <c r="AV239" s="23"/>
+      <c r="AW239" s="23"/>
+      <c r="AX239" s="23"/>
+      <c r="AY239" s="23"/>
+      <c r="AZ239" s="23"/>
+      <c r="BA239" s="23"/>
+      <c r="BB239" s="25"/>
+      <c r="BC239" s="25"/>
+      <c r="BD239" s="25"/>
+      <c r="BE239" s="23"/>
+      <c r="BF239" s="23"/>
+      <c r="BG239" s="23"/>
+      <c r="BH239" s="23"/>
+      <c r="BI239" s="23"/>
+      <c r="BJ239" s="23"/>
+      <c r="BK239" s="23"/>
+      <c r="BL239" s="23"/>
+      <c r="BM239" s="23"/>
+      <c r="BN239" s="23"/>
+      <c r="BO239" s="23"/>
+      <c r="BP239" s="25"/>
+      <c r="BQ239" s="25"/>
     </row>
-    <row r="240" spans="1:102" s="11" customFormat="1" ht="409.6">
-      <c r="A240" s="10"/>
-      <c r="B240" s="18"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="K240" s="29"/>
-      <c r="L240" s="10"/>
-      <c r="M240" s="10"/>
-      <c r="N240" s="10"/>
-      <c r="O240" s="10"/>
-      <c r="P240" s="10"/>
-      <c r="Q240" s="30"/>
-      <c r="R240" s="30"/>
-      <c r="U240" s="10"/>
-      <c r="V240" s="10"/>
-      <c r="W240" s="10"/>
-      <c r="X240" s="10"/>
-      <c r="Y240" s="10"/>
-      <c r="Z240" s="10"/>
-      <c r="AA240" s="10"/>
-      <c r="AB240" s="10"/>
-      <c r="AC240" s="10"/>
-      <c r="AD240" s="10"/>
-      <c r="AE240" s="10"/>
-      <c r="AF240" s="10"/>
-      <c r="AG240" s="10"/>
-      <c r="AH240" s="10"/>
-      <c r="AJ240" s="10"/>
-      <c r="AK240" s="10"/>
-      <c r="AL240" s="10"/>
-      <c r="AM240" s="10"/>
-      <c r="AN240" s="10"/>
-      <c r="AO240" s="10"/>
-      <c r="AP240" s="10"/>
-      <c r="AR240" s="10"/>
-      <c r="AT240" s="10"/>
-      <c r="AU240" s="10"/>
-      <c r="AV240" s="10"/>
-      <c r="AW240" s="10"/>
-      <c r="AX240" s="10"/>
-      <c r="BH240" s="10"/>
-      <c r="BJ240" s="10"/>
-      <c r="BK240" s="10"/>
-      <c r="BL240" s="10"/>
-      <c r="BM240" s="10"/>
-      <c r="BN240" s="10"/>
-      <c r="BO240" s="10"/>
-      <c r="BP240" s="10"/>
-      <c r="BQ240" s="10"/>
+    <row r="240" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A240" s="23"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="25"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="25"/>
+      <c r="M240" s="25"/>
+      <c r="N240" s="25"/>
+      <c r="O240" s="25"/>
+      <c r="P240" s="25"/>
+      <c r="Q240" s="25"/>
+      <c r="R240" s="25"/>
+      <c r="S240" s="23"/>
+      <c r="T240" s="23"/>
+      <c r="U240" s="25"/>
+      <c r="V240" s="25"/>
+      <c r="W240" s="25"/>
+      <c r="X240" s="25"/>
+      <c r="Y240" s="25"/>
+      <c r="Z240" s="25"/>
+      <c r="AA240" s="25"/>
+      <c r="AB240" s="25"/>
+      <c r="AC240" s="25"/>
+      <c r="AD240" s="25"/>
+      <c r="AE240" s="25"/>
+      <c r="AF240" s="25"/>
+      <c r="AG240" s="25"/>
+      <c r="AH240" s="25"/>
+      <c r="AJ240" s="23"/>
+      <c r="AK240" s="23"/>
+      <c r="AL240" s="23"/>
+      <c r="AM240" s="23"/>
+      <c r="AN240" s="23"/>
+      <c r="AO240" s="25"/>
+      <c r="AP240" s="23"/>
+      <c r="AR240" s="23"/>
+      <c r="AS240" s="23"/>
+      <c r="AT240" s="25"/>
+      <c r="AU240" s="23"/>
+      <c r="AV240" s="23"/>
+      <c r="AW240" s="23"/>
+      <c r="AX240" s="23"/>
+      <c r="AY240" s="23"/>
+      <c r="AZ240" s="23"/>
+      <c r="BA240" s="23"/>
+      <c r="BB240" s="25"/>
+      <c r="BC240" s="25"/>
+      <c r="BD240" s="25"/>
+      <c r="BE240" s="23"/>
+      <c r="BF240" s="23"/>
+      <c r="BG240" s="23"/>
+      <c r="BH240" s="23"/>
+      <c r="BI240" s="23"/>
+      <c r="BJ240" s="23"/>
+      <c r="BK240" s="23"/>
+      <c r="BL240" s="23"/>
+      <c r="BM240" s="23"/>
+      <c r="BN240" s="23"/>
+      <c r="BO240" s="23"/>
+      <c r="BP240" s="25"/>
+      <c r="BQ240" s="25"/>
     </row>
-    <row r="241" spans="1:102" s="11" customFormat="1" ht="409.6">
-      <c r="A241" s="10"/>
-      <c r="B241" s="18"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="K241" s="29"/>
-      <c r="L241" s="10"/>
-      <c r="M241" s="10"/>
-      <c r="N241" s="10"/>
-      <c r="O241" s="10"/>
-      <c r="P241" s="10"/>
-      <c r="Q241" s="30"/>
-      <c r="R241" s="30"/>
-      <c r="U241" s="10"/>
-      <c r="V241" s="10"/>
-      <c r="W241" s="10"/>
-      <c r="X241" s="10"/>
-      <c r="Y241" s="10"/>
-      <c r="Z241" s="10"/>
-      <c r="AA241" s="10"/>
-      <c r="AB241" s="10"/>
-      <c r="AC241" s="10"/>
-      <c r="AD241" s="10"/>
-      <c r="AE241" s="10"/>
-      <c r="AF241" s="10"/>
-      <c r="AG241" s="10"/>
-      <c r="AH241" s="10"/>
-      <c r="AJ241" s="10"/>
-      <c r="AK241" s="10"/>
-      <c r="AL241" s="10"/>
-      <c r="AM241" s="10"/>
-      <c r="AN241" s="10"/>
-      <c r="AO241" s="10"/>
-      <c r="AP241" s="10"/>
-      <c r="AR241" s="10"/>
-      <c r="AT241" s="10"/>
-      <c r="AU241" s="10"/>
-      <c r="AV241" s="10"/>
-      <c r="AW241" s="10"/>
-      <c r="AX241" s="10"/>
-      <c r="BH241" s="10"/>
-      <c r="BJ241" s="10"/>
-      <c r="BK241" s="10"/>
-      <c r="BL241" s="10"/>
-      <c r="BM241" s="10"/>
-      <c r="BN241" s="10"/>
-      <c r="BO241" s="10"/>
-      <c r="BP241" s="10"/>
-      <c r="BQ241" s="10"/>
+    <row r="241" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A241" s="23"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="25"/>
+      <c r="M241" s="25"/>
+      <c r="N241" s="25"/>
+      <c r="O241" s="25"/>
+      <c r="P241" s="25"/>
+      <c r="Q241" s="25"/>
+      <c r="R241" s="25"/>
+      <c r="S241" s="23"/>
+      <c r="T241" s="23"/>
+      <c r="U241" s="25"/>
+      <c r="V241" s="25"/>
+      <c r="W241" s="25"/>
+      <c r="X241" s="25"/>
+      <c r="Y241" s="25"/>
+      <c r="Z241" s="25"/>
+      <c r="AA241" s="25"/>
+      <c r="AB241" s="25"/>
+      <c r="AC241" s="25"/>
+      <c r="AD241" s="25"/>
+      <c r="AE241" s="25"/>
+      <c r="AF241" s="25"/>
+      <c r="AG241" s="25"/>
+      <c r="AH241" s="25"/>
+      <c r="AJ241" s="23"/>
+      <c r="AK241" s="23"/>
+      <c r="AL241" s="23"/>
+      <c r="AM241" s="23"/>
+      <c r="AN241" s="23"/>
+      <c r="AO241" s="25"/>
+      <c r="AP241" s="23"/>
+      <c r="AR241" s="23"/>
+      <c r="AS241" s="23"/>
+      <c r="AT241" s="25"/>
+      <c r="AU241" s="23"/>
+      <c r="AV241" s="23"/>
+      <c r="AW241" s="23"/>
+      <c r="AX241" s="23"/>
+      <c r="AY241" s="23"/>
+      <c r="AZ241" s="23"/>
+      <c r="BA241" s="23"/>
+      <c r="BB241" s="25"/>
+      <c r="BC241" s="25"/>
+      <c r="BD241" s="25"/>
+      <c r="BE241" s="23"/>
+      <c r="BF241" s="23"/>
+      <c r="BG241" s="23"/>
+      <c r="BH241" s="23"/>
+      <c r="BI241" s="23"/>
+      <c r="BJ241" s="23"/>
+      <c r="BK241" s="23"/>
+      <c r="BL241" s="23"/>
+      <c r="BM241" s="23"/>
+      <c r="BN241" s="23"/>
+      <c r="BO241" s="23"/>
+      <c r="BP241" s="25"/>
+      <c r="BQ241" s="25"/>
     </row>
-    <row r="242" spans="1:102" s="11" customFormat="1" ht="409.6">
-      <c r="A242" s="10"/>
-      <c r="B242" s="18"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="K242" s="29"/>
-      <c r="L242" s="10"/>
-      <c r="M242" s="10"/>
-      <c r="N242" s="10"/>
-      <c r="O242" s="10"/>
-      <c r="P242" s="10"/>
-      <c r="Q242" s="30"/>
-      <c r="R242" s="30"/>
-      <c r="U242" s="10"/>
-      <c r="V242" s="10"/>
-      <c r="W242" s="10"/>
-      <c r="X242" s="10"/>
-      <c r="Y242" s="10"/>
-      <c r="Z242" s="10"/>
-      <c r="AA242" s="10"/>
-      <c r="AB242" s="10"/>
-      <c r="AC242" s="10"/>
-      <c r="AD242" s="10"/>
-      <c r="AE242" s="10"/>
-      <c r="AF242" s="10"/>
-      <c r="AG242" s="10"/>
-      <c r="AH242" s="10"/>
-      <c r="AJ242" s="10"/>
-      <c r="AK242" s="10"/>
-      <c r="AL242" s="10"/>
-      <c r="AM242" s="10"/>
-      <c r="AN242" s="10"/>
-      <c r="AO242" s="10"/>
-      <c r="AP242" s="10"/>
-      <c r="AR242" s="10"/>
-      <c r="AT242" s="10"/>
-      <c r="AU242" s="10"/>
-      <c r="AV242" s="10"/>
-      <c r="AW242" s="10"/>
-      <c r="AX242" s="10"/>
-      <c r="BH242" s="10"/>
-      <c r="BJ242" s="10"/>
-      <c r="BK242" s="10"/>
-      <c r="BL242" s="10"/>
-      <c r="BM242" s="10"/>
-      <c r="BN242" s="10"/>
-      <c r="BO242" s="10"/>
-      <c r="BP242" s="10"/>
-      <c r="BQ242" s="10"/>
+    <row r="242" spans="1:102" s="26" customFormat="1" ht="409.6">
+      <c r="A242" s="23"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="25"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="25"/>
+      <c r="M242" s="25"/>
+      <c r="N242" s="25"/>
+      <c r="O242" s="25"/>
+      <c r="P242" s="25"/>
+      <c r="Q242" s="25"/>
+      <c r="R242" s="25"/>
+      <c r="S242" s="23"/>
+      <c r="T242" s="23"/>
+      <c r="U242" s="25"/>
+      <c r="V242" s="25"/>
+      <c r="W242" s="25"/>
+      <c r="X242" s="25"/>
+      <c r="Y242" s="25"/>
+      <c r="Z242" s="25"/>
+      <c r="AA242" s="25"/>
+      <c r="AB242" s="25"/>
+      <c r="AC242" s="25"/>
+      <c r="AD242" s="25"/>
+      <c r="AE242" s="25"/>
+      <c r="AF242" s="25"/>
+      <c r="AG242" s="25"/>
+      <c r="AH242" s="25"/>
+      <c r="AJ242" s="23"/>
+      <c r="AK242" s="23"/>
+      <c r="AL242" s="23"/>
+      <c r="AM242" s="23"/>
+      <c r="AN242" s="23"/>
+      <c r="AO242" s="25"/>
+      <c r="AP242" s="23"/>
+      <c r="AR242" s="23"/>
+      <c r="AS242" s="23"/>
+      <c r="AT242" s="25"/>
+      <c r="AU242" s="23"/>
+      <c r="AV242" s="23"/>
+      <c r="AW242" s="23"/>
+      <c r="AX242" s="23"/>
+      <c r="AY242" s="23"/>
+      <c r="AZ242" s="23"/>
+      <c r="BA242" s="23"/>
+      <c r="BB242" s="25"/>
+      <c r="BC242" s="25"/>
+      <c r="BD242" s="25"/>
+      <c r="BE242" s="23"/>
+      <c r="BF242" s="23"/>
+      <c r="BG242" s="23"/>
+      <c r="BH242" s="23"/>
+      <c r="BI242" s="23"/>
+      <c r="BJ242" s="23"/>
+      <c r="BK242" s="23"/>
+      <c r="BL242" s="23"/>
+      <c r="BM242" s="23"/>
+      <c r="BN242" s="23"/>
+      <c r="BO242" s="23"/>
+      <c r="BP242" s="25"/>
+      <c r="BQ242" s="25"/>
     </row>
     <row r="243" spans="1:102" s="11" customFormat="1" ht="409.6">
       <c r="A243" s="10"/>
@@ -33881,11 +34506,217 @@
       <c r="BP256" s="10"/>
       <c r="BQ256" s="10"/>
     </row>
+    <row r="257" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A257" s="10"/>
+      <c r="B257" s="18"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+      <c r="K257" s="29"/>
+      <c r="L257" s="10"/>
+      <c r="M257" s="10"/>
+      <c r="N257" s="10"/>
+      <c r="O257" s="10"/>
+      <c r="P257" s="10"/>
+      <c r="Q257" s="30"/>
+      <c r="R257" s="30"/>
+      <c r="U257" s="10"/>
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+      <c r="X257" s="10"/>
+      <c r="Y257" s="10"/>
+      <c r="Z257" s="10"/>
+      <c r="AA257" s="10"/>
+      <c r="AB257" s="10"/>
+      <c r="AC257" s="10"/>
+      <c r="AD257" s="10"/>
+      <c r="AE257" s="10"/>
+      <c r="AF257" s="10"/>
+      <c r="AG257" s="10"/>
+      <c r="AH257" s="10"/>
+      <c r="AJ257" s="10"/>
+      <c r="AK257" s="10"/>
+      <c r="AL257" s="10"/>
+      <c r="AM257" s="10"/>
+      <c r="AN257" s="10"/>
+      <c r="AO257" s="10"/>
+      <c r="AP257" s="10"/>
+      <c r="AR257" s="10"/>
+      <c r="AT257" s="10"/>
+      <c r="AU257" s="10"/>
+      <c r="AV257" s="10"/>
+      <c r="AW257" s="10"/>
+      <c r="AX257" s="10"/>
+      <c r="BH257" s="10"/>
+      <c r="BJ257" s="10"/>
+      <c r="BK257" s="10"/>
+      <c r="BL257" s="10"/>
+      <c r="BM257" s="10"/>
+      <c r="BN257" s="10"/>
+      <c r="BO257" s="10"/>
+      <c r="BP257" s="10"/>
+      <c r="BQ257" s="10"/>
+    </row>
+    <row r="258" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A258" s="10"/>
+      <c r="B258" s="18"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+      <c r="K258" s="29"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="30"/>
+      <c r="R258" s="30"/>
+      <c r="U258" s="10"/>
+      <c r="V258" s="10"/>
+      <c r="W258" s="10"/>
+      <c r="X258" s="10"/>
+      <c r="Y258" s="10"/>
+      <c r="Z258" s="10"/>
+      <c r="AA258" s="10"/>
+      <c r="AB258" s="10"/>
+      <c r="AC258" s="10"/>
+      <c r="AD258" s="10"/>
+      <c r="AE258" s="10"/>
+      <c r="AF258" s="10"/>
+      <c r="AG258" s="10"/>
+      <c r="AH258" s="10"/>
+      <c r="AJ258" s="10"/>
+      <c r="AK258" s="10"/>
+      <c r="AL258" s="10"/>
+      <c r="AM258" s="10"/>
+      <c r="AN258" s="10"/>
+      <c r="AO258" s="10"/>
+      <c r="AP258" s="10"/>
+      <c r="AR258" s="10"/>
+      <c r="AT258" s="10"/>
+      <c r="AU258" s="10"/>
+      <c r="AV258" s="10"/>
+      <c r="AW258" s="10"/>
+      <c r="AX258" s="10"/>
+      <c r="BH258" s="10"/>
+      <c r="BJ258" s="10"/>
+      <c r="BK258" s="10"/>
+      <c r="BL258" s="10"/>
+      <c r="BM258" s="10"/>
+      <c r="BN258" s="10"/>
+      <c r="BO258" s="10"/>
+      <c r="BP258" s="10"/>
+      <c r="BQ258" s="10"/>
+    </row>
+    <row r="259" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A259" s="10"/>
+      <c r="B259" s="18"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+      <c r="K259" s="29"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="30"/>
+      <c r="R259" s="30"/>
+      <c r="U259" s="10"/>
+      <c r="V259" s="10"/>
+      <c r="W259" s="10"/>
+      <c r="X259" s="10"/>
+      <c r="Y259" s="10"/>
+      <c r="Z259" s="10"/>
+      <c r="AA259" s="10"/>
+      <c r="AB259" s="10"/>
+      <c r="AC259" s="10"/>
+      <c r="AD259" s="10"/>
+      <c r="AE259" s="10"/>
+      <c r="AF259" s="10"/>
+      <c r="AG259" s="10"/>
+      <c r="AH259" s="10"/>
+      <c r="AJ259" s="10"/>
+      <c r="AK259" s="10"/>
+      <c r="AL259" s="10"/>
+      <c r="AM259" s="10"/>
+      <c r="AN259" s="10"/>
+      <c r="AO259" s="10"/>
+      <c r="AP259" s="10"/>
+      <c r="AR259" s="10"/>
+      <c r="AT259" s="10"/>
+      <c r="AU259" s="10"/>
+      <c r="AV259" s="10"/>
+      <c r="AW259" s="10"/>
+      <c r="AX259" s="10"/>
+      <c r="BH259" s="10"/>
+      <c r="BJ259" s="10"/>
+      <c r="BK259" s="10"/>
+      <c r="BL259" s="10"/>
+      <c r="BM259" s="10"/>
+      <c r="BN259" s="10"/>
+      <c r="BO259" s="10"/>
+      <c r="BP259" s="10"/>
+      <c r="BQ259" s="10"/>
+    </row>
+    <row r="260" spans="1:102" s="11" customFormat="1" ht="409.6">
+      <c r="A260" s="10"/>
+      <c r="B260" s="18"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+      <c r="K260" s="29"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="10"/>
+      <c r="N260" s="10"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="10"/>
+      <c r="Q260" s="30"/>
+      <c r="R260" s="30"/>
+      <c r="U260" s="10"/>
+      <c r="V260" s="10"/>
+      <c r="W260" s="10"/>
+      <c r="X260" s="10"/>
+      <c r="Y260" s="10"/>
+      <c r="Z260" s="10"/>
+      <c r="AA260" s="10"/>
+      <c r="AB260" s="10"/>
+      <c r="AC260" s="10"/>
+      <c r="AD260" s="10"/>
+      <c r="AE260" s="10"/>
+      <c r="AF260" s="10"/>
+      <c r="AG260" s="10"/>
+      <c r="AH260" s="10"/>
+      <c r="AJ260" s="10"/>
+      <c r="AK260" s="10"/>
+      <c r="AL260" s="10"/>
+      <c r="AM260" s="10"/>
+      <c r="AN260" s="10"/>
+      <c r="AO260" s="10"/>
+      <c r="AP260" s="10"/>
+      <c r="AR260" s="10"/>
+      <c r="AT260" s="10"/>
+      <c r="AU260" s="10"/>
+      <c r="AV260" s="10"/>
+      <c r="AW260" s="10"/>
+      <c r="AX260" s="10"/>
+      <c r="BH260" s="10"/>
+      <c r="BJ260" s="10"/>
+      <c r="BK260" s="10"/>
+      <c r="BL260" s="10"/>
+      <c r="BM260" s="10"/>
+      <c r="BN260" s="10"/>
+      <c r="BO260" s="10"/>
+      <c r="BP260" s="10"/>
+      <c r="BQ260" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E45" r:id="rId1"/>
+    <hyperlink ref="E49" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="AA10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>